--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
         <v>5.4</v>
@@ -1356,10 +1356,10 @@
         <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>1.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
         <v>2.24</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
         <v>4.2</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -1929,10 +1929,10 @@
         <v>3.95</v>
       </c>
       <c r="G8" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I8" t="n">
         <v>2.56</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="G9" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 01:41:16</t>
+          <t>2026-02-24 03:49:15</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>7.8</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
@@ -771,13 +771,13 @@
         <v>1.23</v>
       </c>
       <c r="I2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
         <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>17.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>1.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" t="n">
         <v>2.26</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -768,16 +768,16 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J2" t="n">
         <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>3.65</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
         <v>2.38</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1347,13 +1347,13 @@
         <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.3</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1735,10 +1735,10 @@
         <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
         <v>4.2</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
         <v>2.06</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1932,16 +1932,16 @@
         <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J8" t="n">
         <v>2.68</v>
       </c>
       <c r="K8" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2120,13 +2120,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
         <v>10.5</v>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="I2" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>3.65</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
         <v>2.38</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I5" t="n">
         <v>6.2</v>
@@ -1359,7 +1359,7 @@
         <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
         <v>4.2</v>
@@ -1747,7 +1747,7 @@
         <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -1929,19 +1929,19 @@
         <v>3.95</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 08:05:24</t>
+          <t>2026-02-24 10:13:34</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
         <v>16.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="I2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="J2" t="n">
         <v>5.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -962,16 +962,16 @@
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
         <v>1.93</v>
@@ -1377,7 +1377,7 @@
         <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
         <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G9" t="n">
         <v>1.56</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
         <v>2.28</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -795,7 +795,7 @@
         <v>2.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>1.88</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1741,13 +1741,13 @@
         <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
         <v>1.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
         <v>1.56</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 12:21:44</t>
+          <t>2026-02-24 14:29:51</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH10"/>
+  <dimension ref="A1:BH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -748,191 +748,191 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BB2" t="n">
         <v>12</v>
       </c>
-      <c r="G2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -942,191 +942,191 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
         <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1136,191 +1136,191 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.65</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>2.48</v>
+        <v>15.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.46</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BE4" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BG4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1330,191 +1330,191 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.31</v>
       </c>
       <c r="G5" t="n">
-        <v>1.93</v>
+        <v>1.34</v>
       </c>
       <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
         <v>5.4</v>
       </c>
-      <c r="I5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>1.63</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BE5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1524,191 +1524,191 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,191 +1718,191 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1912,191 +1912,191 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.95</v>
+        <v>1.42</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>7.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.56</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="K8" t="n">
-        <v>2.96</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>1.34</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.5</v>
+        <v>1.43</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2106,378 +2106,3482 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="G9" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB9" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 14:29:51</t>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Al Riyadh SC</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Al Ahli</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>340</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Al-Fateh (KSA)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dhamk</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>44</v>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>38</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>24</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>40</v>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>950</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>38</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>22</v>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Brann</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>220</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>34</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nottm Forest</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>38</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H17" t="n">
+        <v>24</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>330</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>48</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Az Alkmaar</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FC Noah</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sarmiento de Junin</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Paraguayan Primera Division</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>2026-02-26</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Rubio Nu</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sportivo San Lorenzo</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CA Huracan</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Deportivo Recoleta</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Nacional (Par)</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q26" t="n">
         <v>1.01</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>2026-02-24 14:29:51</t>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>2026-02-24 16:39:26</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH26"/>
+  <dimension ref="A1:BH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,10 +798,10 @@
         <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
@@ -873,7 +873,7 @@
         <v>5.4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AR2" t="n">
         <v>6.4</v>
@@ -903,7 +903,7 @@
         <v>5.7</v>
       </c>
       <c r="BA2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -915,17 +915,17 @@
         <v>6</v>
       </c>
       <c r="BE2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BF2" t="n">
         <v>5.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
         <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>3.9</v>
@@ -980,16 +980,16 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H4" t="n">
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
         <v>6.2</v>
@@ -1174,22 +1174,22 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
         <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
         <v>2.18</v>
@@ -1198,10 +1198,10 @@
         <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -1252,7 +1252,7 @@
         <v>240</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1261,13 +1261,13 @@
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AT4" t="n">
         <v>7.4</v>
@@ -1276,10 +1276,10 @@
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
         <v>6.8</v>
@@ -1288,10 +1288,10 @@
         <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BA4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>8.6</v>
@@ -1300,10 +1300,10 @@
         <v>13</v>
       </c>
       <c r="BD4" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BF4" t="n">
         <v>4.7</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
         <v>12</v>
@@ -1359,7 +1359,7 @@
         <v>5.7</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
@@ -1395,7 +1395,7 @@
         <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
         <v>28</v>
@@ -1407,7 +1407,7 @@
         <v>150</v>
       </c>
       <c r="AA5" t="n">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
@@ -1419,7 +1419,7 @@
         <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
         <v>9</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1541,13 +1541,13 @@
         <v>2.74</v>
       </c>
       <c r="G6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.74</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.55</v>
@@ -1562,7 +1562,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1577,7 +1577,7 @@
         <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
         <v>1.72</v>
@@ -1586,10 +1586,10 @@
         <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
@@ -1640,7 +1640,7 @@
         <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>24</v>
@@ -1679,7 +1679,7 @@
         <v>15.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BB6" t="n">
         <v>36</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
         <v>2.16</v>
@@ -1741,46 +1741,46 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
         <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
         <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
         <v>1.86</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -1926,46 +1926,46 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.42</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.44</v>
-      </c>
       <c r="H8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I8" t="n">
         <v>8.4</v>
       </c>
       <c r="J8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R8" t="n">
         <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
         <v>1.69</v>
@@ -1977,7 +1977,7 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X8" t="n">
         <v>36</v>
@@ -1989,7 +1989,7 @@
         <v>80</v>
       </c>
       <c r="AA8" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
         <v>14.5</v>
@@ -2013,13 +2013,13 @@
         <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL8" t="n">
         <v>26</v>
@@ -2034,7 +2034,7 @@
         <v>70</v>
       </c>
       <c r="AP8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ8" t="n">
         <v>36</v>
@@ -2043,7 +2043,7 @@
         <v>65</v>
       </c>
       <c r="AS8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -2052,7 +2052,7 @@
         <v>12.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>75</v>
@@ -2073,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="BC8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>23</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G9" t="n">
         <v>1.65</v>
@@ -2144,25 +2144,25 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S9" t="n">
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
         <v>2.02</v>
@@ -2207,7 +2207,7 @@
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
         <v>16</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2314,13 +2314,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="G10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I10" t="n">
         <v>1.35</v>
@@ -2335,31 +2335,31 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
         <v>3.85</v>
@@ -2374,7 +2374,7 @@
         <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
@@ -2386,7 +2386,7 @@
         <v>16</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2398,7 +2398,7 @@
         <v>55</v>
       </c>
       <c r="AH10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
         <v>46</v>
@@ -2407,22 +2407,22 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AL10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AM10" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AO10" t="n">
         <v>5.6</v>
       </c>
       <c r="AP10" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AQ10" t="n">
         <v>8</v>
@@ -2434,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="AT10" t="n">
-        <v>29</v>
+        <v>5.2</v>
       </c>
       <c r="AU10" t="n">
         <v>10.5</v>
@@ -2446,38 +2446,38 @@
         <v>11</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>5.4</v>
       </c>
       <c r="AZ10" t="n">
         <v>23</v>
       </c>
       <c r="BA10" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="BB10" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="BC10" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="BF10" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
@@ -2526,43 +2526,43 @@
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>18.5</v>
@@ -2589,7 +2589,7 @@
         <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>22</v>
@@ -2604,16 +2604,16 @@
         <v>24</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2622,13 +2622,13 @@
         <v>13.5</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AS11" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>8.199999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="AU11" t="n">
         <v>7.4</v>
@@ -2637,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AX11" t="n">
         <v>10.5</v>
@@ -2646,32 +2646,32 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="BB11" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BD11" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BE11" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="BF11" t="n">
         <v>10</v>
       </c>
       <c r="BG11" t="n">
-        <v>44</v>
+        <v>5.3</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2702,37 +2702,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
@@ -2744,28 +2744,28 @@
         <v>3.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
         <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB12" t="n">
         <v>8</v>
@@ -2774,46 +2774,46 @@
         <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG12" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AG12" t="n">
-        <v>10</v>
-      </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
       <c r="AL12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
         <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AP12" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AR12" t="n">
         <v>40</v>
@@ -2822,10 +2822,10 @@
         <v>42</v>
       </c>
       <c r="AT12" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV12" t="n">
         <v>20</v>
@@ -2837,35 +2837,35 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AY12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="BB12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BC12" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="BE12" t="n">
         <v>42</v>
       </c>
       <c r="BF12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BG12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -2899,22 +2899,22 @@
         <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H13" t="n">
         <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.9</v>
       </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2923,143 +2923,143 @@
         <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
         <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>950</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
         <v>14.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
         <v>16.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AP13" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AT13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU13" t="n">
         <v>7.6</v>
       </c>
       <c r="AV13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AX13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AW13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>12</v>
-      </c>
       <c r="AY13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="BB13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BD13" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="BE13" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="BF13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BG13" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
         <v>5.2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -3117,19 +3117,19 @@
         <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
         <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
         <v>2.06</v>
@@ -3138,10 +3138,10 @@
         <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X14" t="n">
         <v>18.5</v>
@@ -3153,7 +3153,7 @@
         <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AB14" t="n">
         <v>8.6</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3284,25 +3284,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J15" t="n">
         <v>4.7</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3323,7 +3323,7 @@
         <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T15" t="n">
         <v>1.84</v>
@@ -3332,103 +3332,103 @@
         <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
         <v>25</v>
       </c>
       <c r="Z15" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB15" t="n">
         <v>10.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF15" t="n">
         <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
         <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
         <v>6.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AP15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AS15" t="n">
         <v>44</v>
       </c>
       <c r="AT15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU15" t="n">
         <v>9.6</v>
       </c>
       <c r="AV15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>19</v>
       </c>
-      <c r="AW15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>18</v>
-      </c>
       <c r="BA15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BC15" t="n">
         <v>14</v>
@@ -3437,17 +3437,17 @@
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="BF15" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="BG15" t="n">
         <v>34</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3469,179 +3469,179 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>17.5</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV16" t="n">
         <v>6</v>
       </c>
-      <c r="K16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AW16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>34</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>3.3</v>
-      </c>
       <c r="BG16" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3663,179 +3663,179 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="G17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.16</v>
       </c>
-      <c r="H17" t="n">
-        <v>24</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="P17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>710</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
         <v>32</v>
       </c>
-      <c r="J17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="AI17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>240</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR17" t="n">
         <v>11</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AS17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV17" t="n">
         <v>36</v>
       </c>
-      <c r="Y17" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>330</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AW17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC17" t="n">
         <v>12.5</v>
       </c>
-      <c r="AS17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>48</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BD17" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="BE17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="BG17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="G18" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="H18" t="n">
-        <v>8.4</v>
+        <v>24</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J18" t="n">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="K18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
         <v>6.6</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.03</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE18" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.7</v>
+        <v>2.98</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>7.8</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.25</v>
+        <v>12.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.05</v>
+        <v>13</v>
       </c>
       <c r="AT18" t="n">
-        <v>5.4</v>
+        <v>9.4</v>
       </c>
       <c r="AU18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AV18" t="n">
-        <v>9</v>
-      </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AY18" t="n">
-        <v>5.7</v>
+        <v>12.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="BC18" t="n">
-        <v>6.4</v>
+        <v>13.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="BE18" t="n">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="BF18" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="BG18" t="n">
-        <v>2.72</v>
+        <v>13</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -4051,67 +4051,67 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>1.29</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>1.35</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.95</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -4120,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -4135,7 +4135,7 @@
         <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="n">
         <v>1000</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -4159,71 +4159,71 @@
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR19" t="n">
-        <v>6.8</v>
+        <v>3.25</v>
       </c>
       <c r="AS19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AT19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>6.2</v>
-      </c>
       <c r="BA19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="BC19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="BD19" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="BE19" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="BF19" t="n">
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="BG19" t="n">
-        <v>7.6</v>
+        <v>2.72</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -4254,34 +4254,34 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I20" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="J20" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.1</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.47</v>
@@ -4290,134 +4290,134 @@
         <v>2.88</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AV20" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AW20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BC20" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BD20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
         <v>1.93</v>
@@ -4457,168 +4457,168 @@
         <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
         <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AW21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BA21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BB21" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="BC21" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BE21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BF21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BG21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4628,191 +4628,191 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Q22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.01</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AV22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BB22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BC22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BD22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BF22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4822,191 +4822,191 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.26</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>2.68</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AX23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BB23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BC23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BD23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BF23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5016,191 +5016,191 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5210,36 +5210,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.95</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>4.4</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="I25" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.5</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5387,201 +5387,783 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 16:39:26</t>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CA Huracan</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Lobos UPNFM</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Platense FC</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:47:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Paraguayan Primera Division</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>2026-02-26</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Deportivo Recoleta</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Nacional (Par)</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q29" t="n">
         <v>1.01</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>2026-02-24 16:39:26</t>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>2026-02-24 18:47:22</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH29"/>
+  <dimension ref="A1:BH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         <v>1.52</v>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -801,7 +801,7 @@
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
@@ -813,7 +813,7 @@
         <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -846,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>85</v>
@@ -870,28 +870,28 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AR2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AS2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AT2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AV2" t="n">
         <v>19.5</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>8.6</v>
@@ -900,32 +900,32 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="BA2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BF2" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="BG2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
@@ -989,7 +989,7 @@
         <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -1010,7 +1010,7 @@
         <v>1.86</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -1028,13 +1028,13 @@
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
@@ -1070,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AS3" t="n">
         <v>7.8</v>
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AX3" t="n">
         <v>11.5</v>
@@ -1094,13 +1094,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>7.4</v>
       </c>
       <c r="BB3" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BC3" t="n">
         <v>6.4</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1159,13 +1159,13 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
         <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -1177,31 +1177,31 @@
         <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
         <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -1234,7 +1234,7 @@
         <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
         <v>210</v>
@@ -1246,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>240</v>
@@ -1261,59 +1261,59 @@
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AR4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS4" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
       </c>
       <c r="AV4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AW4" t="n">
         <v>9</v>
       </c>
-      <c r="AW4" t="n">
-        <v>10</v>
-      </c>
       <c r="AX4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AY4" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB4" t="n">
         <v>8.4</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>8.6</v>
       </c>
       <c r="BC4" t="n">
         <v>13</v>
       </c>
       <c r="BD4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BE4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BG4" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G5" t="n">
         <v>1.33</v>
@@ -1377,7 +1377,7 @@
         <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
         <v>1.61</v>
@@ -1401,7 +1401,7 @@
         <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>150</v>
@@ -1416,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>240</v>
@@ -1428,7 +1428,7 @@
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>180</v>
@@ -1440,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
         <v>190</v>
@@ -1455,7 +1455,7 @@
         <v>19.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AR5" t="n">
         <v>8.800000000000001</v>
@@ -1464,13 +1464,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AT5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1485,10 +1485,10 @@
         <v>24</v>
       </c>
       <c r="BA5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
         <v>12.5</v>
@@ -1497,7 +1497,7 @@
         <v>30</v>
       </c>
       <c r="BE5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF5" t="n">
         <v>3.9</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1538,19 +1538,19 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.74</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
@@ -1586,10 +1586,10 @@
         <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
@@ -1598,7 +1598,7 @@
         <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
         <v>42</v>
@@ -1640,13 +1640,13 @@
         <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
         <v>24</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>11.5</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>160</v>
@@ -1837,7 +1837,7 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP7" t="n">
         <v>9.800000000000001</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H8" t="n">
         <v>7.8</v>
@@ -1947,10 +1947,10 @@
         <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.14</v>
@@ -1980,7 +1980,7 @@
         <v>3.3</v>
       </c>
       <c r="X8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
         <v>40</v>
@@ -2034,7 +2034,7 @@
         <v>70</v>
       </c>
       <c r="AP8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ8" t="n">
         <v>36</v>
@@ -2043,7 +2043,7 @@
         <v>65</v>
       </c>
       <c r="AS8" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
         <v>6.2</v>
       </c>
       <c r="J9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.37</v>
@@ -2162,19 +2162,19 @@
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
         <v>1.19</v>
       </c>
       <c r="W9" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
         <v>20</v>
@@ -2186,7 +2186,7 @@
         <v>180</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
         <v>9.6</v>
@@ -2201,7 +2201,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
         <v>22</v>
@@ -2228,10 +2228,10 @@
         <v>90</v>
       </c>
       <c r="AP9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR9" t="n">
         <v>42</v>
@@ -2243,22 +2243,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX9" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>9</v>
       </c>
       <c r="AY9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>60</v>
@@ -2273,17 +2273,17 @@
         <v>29</v>
       </c>
       <c r="BE9" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="BF9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BG9" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -2353,7 +2353,7 @@
         <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
         <v>2.1</v>
@@ -2380,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
         <v>16</v>
@@ -2398,10 +2398,10 @@
         <v>55</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -2434,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="AT10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AU10" t="n">
         <v>10.5</v>
@@ -2455,7 +2455,7 @@
         <v>23</v>
       </c>
       <c r="BA10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BB10" t="n">
         <v>6</v>
@@ -2464,20 +2464,20 @@
         <v>5.9</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="BE10" t="n">
         <v>5.9</v>
       </c>
       <c r="BF10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BG10" t="n">
         <v>4.4</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
@@ -2526,37 +2526,37 @@
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
         <v>1.97</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
         <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
         <v>2.02</v>
@@ -2613,7 +2613,7 @@
         <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2625,10 +2625,10 @@
         <v>5</v>
       </c>
       <c r="AS11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.75</v>
+        <v>7.8</v>
       </c>
       <c r="AU11" t="n">
         <v>7.4</v>
@@ -2637,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX11" t="n">
         <v>10.5</v>
@@ -2658,7 +2658,7 @@
         <v>4.6</v>
       </c>
       <c r="BD11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BE11" t="n">
         <v>5.5</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2711,13 +2711,13 @@
         <v>5.7</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
         <v>1.43</v>
@@ -2726,10 +2726,10 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
         <v>1.91</v>
@@ -2741,19 +2741,19 @@
         <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
         <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X12" t="n">
         <v>13.5</v>
@@ -2771,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
         <v>23</v>
@@ -2831,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX12" t="n">
         <v>8.800000000000001</v>
@@ -2861,11 +2861,11 @@
         <v>10.5</v>
       </c>
       <c r="BG12" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
         <v>3.5</v>
@@ -2911,7 +2911,7 @@
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2920,7 +2920,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2929,13 +2929,13 @@
         <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
         <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T13" t="n">
         <v>1.76</v>
@@ -2965,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>14.5</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G14" t="n">
         <v>1.48</v>
@@ -3114,22 +3114,22 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
         <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
         <v>2.06</v>
@@ -3186,7 +3186,7 @@
         <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
         <v>190</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.57</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.58</v>
       </c>
       <c r="H15" t="n">
         <v>6.4</v>
@@ -3299,7 +3299,7 @@
         <v>4.7</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -3308,34 +3308,34 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
         <v>2.32</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
         <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
         <v>1.17</v>
       </c>
       <c r="W15" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
@@ -3347,7 +3347,7 @@
         <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB15" t="n">
         <v>10.5</v>
@@ -3392,19 +3392,19 @@
         <v>95</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AS15" t="n">
         <v>44</v>
       </c>
       <c r="AT15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU15" t="n">
         <v>9.6</v>
@@ -3413,19 +3413,19 @@
         <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AX15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB15" t="n">
         <v>12.5</v>
@@ -3437,17 +3437,17 @@
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="BF15" t="n">
         <v>6</v>
       </c>
       <c r="BG15" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3469,179 +3469,179 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>1.27</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>13.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>16.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>710</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>240</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BF16" t="n">
         <v>3.55</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BG16" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3663,127 +3663,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="G17" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I17" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>320</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>390</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK17" t="n">
         <v>16.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X17" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>710</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>15</v>
-      </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="AO17" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AQ17" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>11</v>
@@ -3792,50 +3792,50 @@
         <v>11.5</v>
       </c>
       <c r="AT17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV17" t="n">
         <v>10</v>
       </c>
-      <c r="AU17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>36</v>
-      </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AY17" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="BC17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="BD17" t="n">
-        <v>34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE17" t="n">
         <v>11</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="BG17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="G18" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="H18" t="n">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="I18" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="J18" t="n">
-        <v>9.6</v>
+        <v>5.9</v>
       </c>
       <c r="K18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU18" t="n">
         <v>11.5</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>330</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AV18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW18" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AG18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="AX18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BA18" t="n">
         <v>8</v>
       </c>
-      <c r="AK18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ18" t="n">
+      <c r="BB18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BC18" t="n">
         <v>11</v>
       </c>
-      <c r="AR18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BD18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BE18" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="BG18" t="n">
-        <v>13</v>
+        <v>4.7</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4051,179 +4051,179 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>1.35</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>3.95</v>
       </c>
       <c r="J19" t="n">
-        <v>5.6</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC19" t="n">
         <v>6.6</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX19" t="n">
+      <c r="BD19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BE19" t="n">
         <v>7</v>
       </c>
-      <c r="AY19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>3</v>
-      </c>
       <c r="BF19" t="n">
-        <v>4</v>
+        <v>13.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>2.72</v>
+        <v>7.6</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4245,179 +4245,179 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.65</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>1.93</v>
       </c>
       <c r="H20" t="n">
-        <v>2.48</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.58</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>1.47</v>
+        <v>2.84</v>
       </c>
       <c r="O20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.62</v>
       </c>
-      <c r="P20" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q20" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="S20" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="T20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W20" t="n">
         <v>2.06</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.37</v>
-      </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BC20" t="n">
         <v>20</v>
       </c>
-      <c r="AH20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>55</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>46</v>
-      </c>
       <c r="BD20" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="BE20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BF20" t="n">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="BG20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4439,97 +4439,97 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.87</v>
+        <v>3.65</v>
       </c>
       <c r="G21" t="n">
-        <v>1.93</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>2.46</v>
       </c>
       <c r="I21" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>1.47</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="S21" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="W21" t="n">
-        <v>2.06</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4538,80 +4538,80 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="AQ21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS21" t="n">
         <v>10</v>
       </c>
-      <c r="AR21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AT21" t="n">
-        <v>2.42</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.54</v>
+        <v>6.4</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.1</v>
+        <v>11.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.74</v>
+        <v>20</v>
       </c>
       <c r="AY21" t="n">
-        <v>2.74</v>
+        <v>14.5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA21" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="BB21" t="n">
-        <v>3.05</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="BD21" t="n">
-        <v>3.3</v>
+        <v>11.5</v>
       </c>
       <c r="BE21" t="n">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="BF21" t="n">
-        <v>3.5</v>
+        <v>70</v>
       </c>
       <c r="BG21" t="n">
-        <v>3.5</v>
+        <v>34</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="G22" t="n">
         <v>2.18</v>
@@ -4651,13 +4651,13 @@
         <v>4.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K22" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -4669,19 +4669,19 @@
         <v>1.41</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
         <v>1.41</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="S22" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -4690,7 +4690,7 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="W22" t="n">
         <v>1.84</v>
@@ -4750,52 +4750,52 @@
         <v>1000</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AV22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AZ22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BC22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BF22" t="n">
         <v>1.01</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
         <v>2.88</v>
@@ -4845,28 +4845,28 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
         <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q23" t="n">
         <v>2.68</v>
@@ -4884,7 +4884,7 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
         <v>1.53</v>
@@ -4944,52 +4944,52 @@
         <v>1000</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AV23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AX23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AZ23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BA23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BB23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BD23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BF23" t="n">
         <v>1.01</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
         <v>1.02</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P24" t="n">
         <v>1.24</v>
@@ -5066,7 +5066,7 @@
         <v>1.01</v>
       </c>
       <c r="R24" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
         <v>1.01</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -5224,16 +5224,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
         <v>3.65</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>3.4</v>
@@ -5242,152 +5242,152 @@
         <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="Q25" t="n">
         <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AV25" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AX25" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BA25" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="BB25" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="BC25" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="BD25" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BE25" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="BF25" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="BG25" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -5409,179 +5409,179 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.95</v>
+        <v>1.5</v>
       </c>
       <c r="G26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
         <v>4.4</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.96</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AU26" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AV26" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AW26" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AX26" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AY26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="BA26" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BB26" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BC26" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="BD26" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="BE26" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BF26" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BG26" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
@@ -5603,186 +5603,186 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.5</v>
+        <v>3.95</v>
       </c>
       <c r="G27" t="n">
-        <v>1.56</v>
+        <v>4.4</v>
       </c>
       <c r="H27" t="n">
-        <v>8.800000000000001</v>
+        <v>2.32</v>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>2.58</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2.68</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AU27" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AV27" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AW27" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AX27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AY27" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BA27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BB27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BC27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BD27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BE27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BF27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BG27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5792,191 +5792,191 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J28" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AU28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AV28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AW28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AX28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AY28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BA28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BB28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BC28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BD28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BF28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 18:47:22</t>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5986,184 +5986,378 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P29" t="n">
         <v>1.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="R29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>38</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>25</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>30</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>2026-02-24 20:54:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>0</v>
       </c>
-      <c r="S29" t="n">
+      <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="T29" t="n">
+      <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="U29" t="n">
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="V29" t="n">
+      <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="n">
+      <c r="K30" t="n">
         <v>0</v>
       </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH29" t="inlineStr">
-        <is>
-          <t>2026-02-24 18:47:22</t>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>48</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>40</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>48</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>2026-02-24 20:54:40</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -768,10 +768,10 @@
         <v>1.61</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
@@ -789,7 +789,7 @@
         <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
         <v>2.16</v>
@@ -798,10 +798,10 @@
         <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
@@ -810,13 +810,13 @@
         <v>1.99</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
         <v>2.62</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -828,7 +828,7 @@
         <v>230</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
@@ -846,13 +846,13 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
         <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -864,7 +864,7 @@
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -873,13 +873,13 @@
         <v>5.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AR2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AS2" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AT2" t="n">
         <v>8.199999999999999</v>
@@ -888,13 +888,13 @@
         <v>9.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>19.5</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AY2" t="n">
         <v>8.800000000000001</v>
@@ -903,29 +903,29 @@
         <v>5.9</v>
       </c>
       <c r="BA2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="BE2" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BF2" t="n">
         <v>6.2</v>
       </c>
       <c r="BG2" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
         <v>1.42</v>
@@ -989,7 +989,7 @@
         <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -1004,10 +1004,10 @@
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -1028,13 +1028,13 @@
         <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
@@ -1049,7 +1049,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -1064,7 +1064,7 @@
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -1073,7 +1073,7 @@
         <v>7.6</v>
       </c>
       <c r="AS3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AT3" t="n">
         <v>8.6</v>
@@ -1085,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AX3" t="n">
         <v>11.5</v>
@@ -1094,7 +1094,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="BA3" t="n">
         <v>7.4</v>
@@ -1106,20 +1106,20 @@
         <v>6.4</v>
       </c>
       <c r="BD3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BE3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BF3" t="n">
         <v>11.5</v>
       </c>
       <c r="BG3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
         <v>1.34</v>
@@ -1159,10 +1159,10 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -1174,7 +1174,7 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1183,7 +1183,7 @@
         <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
         <v>1.49</v>
@@ -1195,7 +1195,7 @@
         <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V4" t="n">
         <v>1.07</v>
@@ -1210,64 +1210,64 @@
         <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG4" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AS4" t="n">
-        <v>9.4</v>
+        <v>5.9</v>
       </c>
       <c r="AT4" t="n">
         <v>7</v>
@@ -1276,10 +1276,10 @@
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="AX4" t="n">
         <v>6.4</v>
@@ -1288,32 +1288,32 @@
         <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="BB4" t="n">
         <v>8.4</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD4" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="BE4" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BG4" t="n">
-        <v>9.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -1344,19 +1344,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G5" t="n">
         <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
         <v>14.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
         <v>6.8</v>
@@ -1377,7 +1377,7 @@
         <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R5" t="n">
         <v>1.61</v>
@@ -1395,19 +1395,19 @@
         <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="n">
         <v>150</v>
       </c>
       <c r="AA5" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
@@ -1446,22 +1446,22 @@
         <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO5" t="n">
         <v>310</v>
       </c>
       <c r="AP5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AR5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AS5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AT5" t="n">
         <v>9</v>
@@ -1470,10 +1470,10 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX5" t="n">
         <v>7.6</v>
@@ -1485,7 +1485,7 @@
         <v>24</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
@@ -1494,20 +1494,20 @@
         <v>12.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>30</v>
+        <v>7.4</v>
       </c>
       <c r="BE5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF5" t="n">
         <v>3.9</v>
       </c>
       <c r="BG5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -1541,10 +1541,10 @@
         <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>2.74</v>
@@ -1559,7 +1559,7 @@
         <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>4.1</v>
@@ -1571,7 +1571,7 @@
         <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
         <v>1.41</v>
@@ -1580,7 +1580,7 @@
         <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
         <v>2.28</v>
@@ -1592,19 +1592,19 @@
         <v>1.54</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1643,7 +1643,7 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
         <v>13.5</v>
@@ -1652,10 +1652,10 @@
         <v>11.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AS6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AT6" t="n">
         <v>11.5</v>
@@ -1664,7 +1664,7 @@
         <v>7.4</v>
       </c>
       <c r="AV6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>26</v>
@@ -1679,7 +1679,7 @@
         <v>15.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BB6" t="n">
         <v>36</v>
@@ -1694,14 +1694,14 @@
         <v>70</v>
       </c>
       <c r="BF6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BG6" t="n">
         <v>20</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>110</v>
@@ -1807,7 +1807,7 @@
         <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="n">
         <v>12.5</v>
@@ -1837,7 +1837,7 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="n">
         <v>9.800000000000001</v>
@@ -1846,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AS7" t="n">
         <v>10</v>
@@ -1873,7 +1873,7 @@
         <v>7.4</v>
       </c>
       <c r="BA7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
         <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.24</v>
@@ -1980,16 +1980,16 @@
         <v>3.3</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="n">
         <v>80</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB8" t="n">
         <v>14.5</v>
@@ -2031,19 +2031,19 @@
         <v>4.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP8" t="n">
         <v>30</v>
       </c>
       <c r="AQ8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>65</v>
       </c>
       <c r="AS8" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -2076,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="BD8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE8" t="n">
         <v>65</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G9" t="n">
         <v>1.67</v>
@@ -2129,10 +2129,10 @@
         <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
         <v>4.4</v>
@@ -2162,13 +2162,13 @@
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
         <v>2.48</v>
@@ -2183,7 +2183,7 @@
         <v>48</v>
       </c>
       <c r="AA9" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB9" t="n">
         <v>9</v>
@@ -2222,7 +2222,7 @@
         <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO9" t="n">
         <v>90</v>
@@ -2243,7 +2243,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV9" t="n">
         <v>20</v>
@@ -2270,20 +2270,20 @@
         <v>15</v>
       </c>
       <c r="BD9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BE9" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="BF9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BG9" t="n">
         <v>38</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -2329,37 +2329,37 @@
         <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
         <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="T10" t="n">
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
         <v>3.85</v>
@@ -2368,34 +2368,34 @@
         <v>1.07</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA10" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
         <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
         <v>140</v>
       </c>
       <c r="AG10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
@@ -2422,7 +2422,7 @@
         <v>5.6</v>
       </c>
       <c r="AP10" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AQ10" t="n">
         <v>8</v>
@@ -2434,50 +2434,50 @@
         <v>9</v>
       </c>
       <c r="AT10" t="n">
-        <v>5.3</v>
+        <v>27</v>
       </c>
       <c r="AU10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AW10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY10" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>7.4</v>
       </c>
       <c r="BA10" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="BB10" t="n">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="BC10" t="n">
-        <v>5.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF10" t="n">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="BG10" t="n">
         <v>4.4</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -2529,22 +2529,22 @@
         <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
         <v>3.2</v>
@@ -2553,7 +2553,7 @@
         <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
@@ -2565,46 +2565,46 @@
         <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
         <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>120</v>
@@ -2613,31 +2613,31 @@
         <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="AR11" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>5.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT11" t="n">
         <v>7.8</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="AX11" t="n">
         <v>10.5</v>
@@ -2646,32 +2646,32 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="BA11" t="n">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="BB11" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="BD11" t="n">
-        <v>5.1</v>
+        <v>7.8</v>
       </c>
       <c r="BE11" t="n">
-        <v>5.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF11" t="n">
         <v>10</v>
       </c>
       <c r="BG11" t="n">
-        <v>5.3</v>
+        <v>42</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2744,10 +2744,10 @@
         <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
@@ -2771,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
         <v>23</v>
@@ -2810,10 +2810,10 @@
         <v>110</v>
       </c>
       <c r="AP12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR12" t="n">
         <v>40</v>
@@ -2831,10 +2831,10 @@
         <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AX12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY12" t="n">
         <v>9.4</v>
@@ -2843,10 +2843,10 @@
         <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BC12" t="n">
         <v>17.5</v>
@@ -2858,14 +2858,14 @@
         <v>42</v>
       </c>
       <c r="BF12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BG12" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -2902,16 +2902,16 @@
         <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2950,7 +2950,7 @@
         <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
@@ -2962,7 +2962,7 @@
         <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
@@ -2974,7 +2974,7 @@
         <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -3001,13 +3001,13 @@
         <v>16.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AP13" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -3022,13 +3022,13 @@
         <v>7.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AW13" t="n">
         <v>34</v>
       </c>
       <c r="AX13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
         <v>10</v>
@@ -3040,7 +3040,7 @@
         <v>42</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>20</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
         <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
         <v>1.44</v>
@@ -3168,10 +3168,10 @@
         <v>160</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
@@ -3186,7 +3186,7 @@
         <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
         <v>190</v>
@@ -3207,7 +3207,7 @@
         <v>11.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
         <v>7.6</v>
@@ -3219,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AX14" t="n">
         <v>7.6</v>
@@ -3243,17 +3243,17 @@
         <v>34</v>
       </c>
       <c r="BE14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BF14" t="n">
         <v>6.2</v>
       </c>
       <c r="BG14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I15" t="n">
         <v>6.8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
@@ -3314,7 +3314,7 @@
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
         <v>1.71</v>
@@ -3323,46 +3323,46 @@
         <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
         <v>1.17</v>
       </c>
       <c r="W15" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z15" t="n">
         <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
@@ -3380,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
@@ -3392,28 +3392,28 @@
         <v>95</v>
       </c>
       <c r="AP15" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS15" t="n">
         <v>48</v>
       </c>
-      <c r="AS15" t="n">
-        <v>44</v>
-      </c>
       <c r="AT15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
         <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AX15" t="n">
         <v>9</v>
@@ -3422,13 +3422,13 @@
         <v>9.4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
         <v>14</v>
@@ -3437,17 +3437,17 @@
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BF15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BG15" t="n">
         <v>70</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.27</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.28</v>
-      </c>
       <c r="H16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
         <v>16.5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.26</v>
@@ -3511,7 +3511,7 @@
         <v>2.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R16" t="n">
         <v>1.74</v>
@@ -3520,19 +3520,19 @@
         <v>2.18</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="X16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="n">
         <v>55</v>
@@ -3541,7 +3541,7 @@
         <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="AB16" t="n">
         <v>12</v>
@@ -3553,10 +3553,10 @@
         <v>50</v>
       </c>
       <c r="AE16" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -3568,7 +3568,7 @@
         <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AK16" t="n">
         <v>14</v>
@@ -3580,22 +3580,22 @@
         <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>34</v>
       </c>
       <c r="AR16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AS16" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AT16" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         <v>34</v>
       </c>
       <c r="AW16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX16" t="n">
         <v>7.8</v>
@@ -3619,29 +3619,29 @@
         <v>27</v>
       </c>
       <c r="BA16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC16" t="n">
         <v>12.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="BE16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BF16" t="n">
         <v>3.55</v>
       </c>
       <c r="BG16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
         <v>1.16</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" t="n">
         <v>32</v>
@@ -3696,7 +3696,7 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.14</v>
@@ -3705,19 +3705,19 @@
         <v>2.94</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R17" t="n">
         <v>1.78</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T17" t="n">
         <v>2.58</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V17" t="n">
         <v>1.03</v>
@@ -3726,7 +3726,7 @@
         <v>7.2</v>
       </c>
       <c r="X17" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Y17" t="n">
         <v>80</v>
@@ -3738,7 +3738,7 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>26</v>
@@ -3771,7 +3771,7 @@
         <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AN17" t="n">
         <v>3.05</v>
@@ -3780,28 +3780,28 @@
         <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>28</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AR17" t="n">
         <v>10</v>
       </c>
-      <c r="AR17" t="n">
-        <v>11</v>
-      </c>
       <c r="AS17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU17" t="n">
         <v>20</v>
       </c>
       <c r="AV17" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AW17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AX17" t="n">
         <v>6.8</v>
@@ -3810,32 +3810,32 @@
         <v>12.5</v>
       </c>
       <c r="AZ17" t="n">
+        <v>42</v>
+      </c>
+      <c r="BA17" t="n">
         <v>10</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>11</v>
       </c>
       <c r="BB17" t="n">
         <v>6.8</v>
       </c>
       <c r="BC17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BD17" t="n">
-        <v>9.800000000000001</v>
+        <v>48</v>
       </c>
       <c r="BE17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="BG17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="G18" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="I18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -3893,31 +3893,31 @@
         <v>5.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
         <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S18" t="n">
         <v>2.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3926,13 +3926,13 @@
         <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
         <v>1000</v>
@@ -3941,10 +3941,10 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
@@ -3953,10 +3953,10 @@
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
@@ -3965,71 +3965,71 @@
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>8.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="AT18" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AU18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AV18" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>5.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="BA18" t="n">
         <v>8</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="BC18" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BE18" t="n">
         <v>8</v>
       </c>
       <c r="BF18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BG18" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
         <v>1.44</v>
@@ -4090,10 +4090,10 @@
         <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
         <v>1.33</v>
@@ -4108,10 +4108,10 @@
         <v>2.08</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -4126,7 +4126,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -4168,16 +4168,16 @@
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AS19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -4186,44 +4186,44 @@
         <v>6.8</v>
       </c>
       <c r="AV19" t="n">
-        <v>13</v>
+        <v>5.8</v>
       </c>
       <c r="AW19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA19" t="n">
         <v>7.6</v>
       </c>
-      <c r="AX19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BA19" t="n">
+      <c r="BB19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BE19" t="n">
         <v>8</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>7</v>
       </c>
       <c r="BF19" t="n">
         <v>13.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -4257,10 +4257,10 @@
         <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I20" t="n">
         <v>5.7</v>
@@ -4350,7 +4350,7 @@
         <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>230</v>
@@ -4368,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>8</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -4451,76 +4451,76 @@
         <v>3.65</v>
       </c>
       <c r="G21" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H21" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="J21" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="K21" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N21" t="n">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="P21" t="n">
         <v>1.47</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="S21" t="n">
         <v>6.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="U21" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="V21" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="Y21" t="n">
         <v>7.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA21" t="n">
         <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
         <v>980</v>
@@ -4529,10 +4529,10 @@
         <v>980</v>
       </c>
       <c r="AG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="n">
         <v>980</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>30</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -4547,7 +4547,7 @@
         <v>110</v>
       </c>
       <c r="AM21" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -4556,62 +4556,62 @@
         <v>55</v>
       </c>
       <c r="AP21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AR21" t="n">
         <v>12.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV21" t="n">
         <v>11.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>9.800000000000001</v>
+        <v>28</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>14.5</v>
+        <v>5.9</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="BA21" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC21" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="BD21" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="BE21" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="BF21" t="n">
-        <v>70</v>
+        <v>8.4</v>
       </c>
       <c r="BG21" t="n">
-        <v>34</v>
+        <v>7.8</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -4642,46 +4642,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J22" t="n">
         <v>2.74</v>
       </c>
       <c r="K22" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R22" t="n">
         <v>1.12</v>
       </c>
       <c r="S22" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -4690,10 +4690,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -4836,19 +4836,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="K23" t="n">
         <v>4.3</v>
@@ -4860,34 +4860,34 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
         <v>1.34</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="R23" t="n">
         <v>1.12</v>
       </c>
       <c r="S23" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
         <v>2.28</v>
@@ -5245,149 +5245,149 @@
         <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
         <v>1.82</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S25" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
         <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG25" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AH25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP25" t="n">
         <v>11</v>
       </c>
-      <c r="AD25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>2.38</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>19.5</v>
+        <v>6.4</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.68</v>
+        <v>7.4</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.22</v>
+        <v>7.8</v>
       </c>
       <c r="AU25" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="AV25" t="n">
-        <v>2.44</v>
+        <v>13.5</v>
       </c>
       <c r="AW25" t="n">
-        <v>2.64</v>
+        <v>7.2</v>
       </c>
       <c r="AX25" t="n">
-        <v>2.38</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>2.32</v>
+        <v>9.6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>2.48</v>
+        <v>5.9</v>
       </c>
       <c r="BA25" t="n">
-        <v>2.66</v>
+        <v>7.4</v>
       </c>
       <c r="BB25" t="n">
-        <v>2.56</v>
+        <v>6.4</v>
       </c>
       <c r="BC25" t="n">
-        <v>2.54</v>
+        <v>6.2</v>
       </c>
       <c r="BD25" t="n">
-        <v>2.62</v>
+        <v>7</v>
       </c>
       <c r="BE25" t="n">
-        <v>2.76</v>
+        <v>7.8</v>
       </c>
       <c r="BF25" t="n">
-        <v>2.76</v>
+        <v>14.5</v>
       </c>
       <c r="BG25" t="n">
-        <v>2.76</v>
+        <v>7.2</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
         <v>1.56</v>
       </c>
       <c r="H26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I26" t="n">
         <v>10</v>
@@ -5439,31 +5439,31 @@
         <v>1.47</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>1.66</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
         <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="V26" t="n">
         <v>1.11</v>
@@ -5472,116 +5472,116 @@
         <v>2.78</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AB26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>500</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU26" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
+      <c r="AV26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BC26" t="n">
         <v>17</v>
       </c>
-      <c r="AO26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>2.12</v>
-      </c>
       <c r="BD26" t="n">
-        <v>2.24</v>
+        <v>8</v>
       </c>
       <c r="BE26" t="n">
-        <v>2.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF26" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="BG26" t="n">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -5618,28 +5618,28 @@
         <v>4.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I27" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J27" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K27" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="N27" t="n">
-        <v>1.34</v>
+        <v>2.08</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="P27" t="n">
         <v>1.34</v>
@@ -5651,131 +5651,131 @@
         <v>1.12</v>
       </c>
       <c r="S27" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.14</v>
+        <v>2.56</v>
       </c>
       <c r="U27" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="V27" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W27" t="n">
         <v>1.29</v>
       </c>
       <c r="X27" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE27" t="n">
         <v>48</v>
       </c>
-      <c r="AB27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>55</v>
-      </c>
       <c r="AF27" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.62</v>
+        <v>5.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AR27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW27" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AS27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>3.65</v>
-      </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>3.35</v>
+        <v>18</v>
       </c>
       <c r="AZ27" t="n">
-        <v>3.55</v>
+        <v>9</v>
       </c>
       <c r="BA27" t="n">
-        <v>3.9</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="BC27" t="n">
-        <v>3.9</v>
+        <v>11</v>
       </c>
       <c r="BD27" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="BE27" t="n">
-        <v>3.9</v>
+        <v>12</v>
       </c>
       <c r="BF27" t="n">
-        <v>3.9</v>
+        <v>11.5</v>
       </c>
       <c r="BG27" t="n">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -5806,22 +5806,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="G28" t="n">
         <v>2.4</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="I28" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -5830,22 +5830,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P28" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -5854,7 +5854,7 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
         <v>1.72</v>
@@ -5914,52 +5914,52 @@
         <v>1000</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AV28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AX28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BA28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BB28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BC28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BD28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE28" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BF28" t="n">
         <v>1.01</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -6024,7 +6024,7 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O29" t="n">
         <v>1.35</v>
@@ -6033,7 +6033,7 @@
         <v>1.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
@@ -6042,10 +6042,10 @@
         <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V29" t="n">
         <v>1.01</v>
@@ -6108,52 +6108,52 @@
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AR29" t="n">
-        <v>16</v>
+        <v>1.01</v>
       </c>
       <c r="AS29" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="AT29" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV29" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW29" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AY29" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AZ29" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="BA29" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="BB29" t="n">
-        <v>25</v>
+        <v>1.01</v>
       </c>
       <c r="BC29" t="n">
-        <v>20</v>
+        <v>1.01</v>
       </c>
       <c r="BD29" t="n">
-        <v>30</v>
+        <v>1.01</v>
       </c>
       <c r="BE29" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BF29" t="n">
         <v>1.01</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -6302,52 +6302,52 @@
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AQ30" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AR30" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="AT30" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AU30" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV30" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>1.01</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AY30" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>1.01</v>
       </c>
       <c r="BA30" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="BB30" t="n">
-        <v>48</v>
+        <v>1.01</v>
       </c>
       <c r="BC30" t="n">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="BD30" t="n">
-        <v>48</v>
+        <v>1.01</v>
       </c>
       <c r="BE30" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="BF30" t="n">
         <v>1.01</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 20:54:40</t>
+          <t>2026-02-24 23:01:48</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH30"/>
+  <dimension ref="A1:BH32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G2" t="n">
         <v>1.61</v>
@@ -852,7 +852,7 @@
         <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -870,13 +870,13 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AS2" t="n">
         <v>6.8</v>
@@ -912,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="BD2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BE2" t="n">
         <v>6.6</v>
@@ -921,11 +921,11 @@
         <v>6.2</v>
       </c>
       <c r="BG2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -998,7 +998,7 @@
         <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -1064,16 +1064,16 @@
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
       </c>
       <c r="AR3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AS3" t="n">
         <v>7.6</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>8</v>
       </c>
       <c r="AT3" t="n">
         <v>8.6</v>
@@ -1094,13 +1094,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>7.4</v>
       </c>
       <c r="BB3" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="BC3" t="n">
         <v>6.4</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1159,10 @@
         <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -1261,10 +1261,10 @@
         <v>16.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AS4" t="n">
         <v>5.9</v>
@@ -1276,10 +1276,10 @@
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AX4" t="n">
         <v>6.4</v>
@@ -1288,7 +1288,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="BA4" t="n">
         <v>5.7</v>
@@ -1300,20 +1300,20 @@
         <v>13.5</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="BE4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BF4" t="n">
         <v>4.9</v>
       </c>
       <c r="BG4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
         <v>1.61</v>
@@ -1449,7 +1449,7 @@
         <v>4.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
         <v>2.74</v>
@@ -1556,10 +1556,10 @@
         <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>4.1</v>
@@ -1571,7 +1571,7 @@
         <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
         <v>1.41</v>
@@ -1598,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
         <v>40</v>
@@ -1613,7 +1613,7 @@
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="n">
         <v>18.5</v>
@@ -1625,10 +1625,10 @@
         <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1691,7 +1691,7 @@
         <v>34</v>
       </c>
       <c r="BE6" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="BF6" t="n">
         <v>21</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1777,7 +1777,7 @@
         <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
         <v>1.31</v>
@@ -1792,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
         <v>110</v>
@@ -1804,10 +1804,10 @@
         <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
         <v>12.5</v>
@@ -1816,19 +1816,19 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
         <v>160</v>
@@ -1837,7 +1837,7 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP7" t="n">
         <v>9.800000000000001</v>
@@ -1849,7 +1849,7 @@
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT7" t="n">
         <v>7</v>
@@ -1861,7 +1861,7 @@
         <v>15</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AX7" t="n">
         <v>10.5</v>
@@ -1870,10 +1870,10 @@
         <v>9.6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>7.4</v>
+        <v>18</v>
       </c>
       <c r="BA7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1882,10 +1882,10 @@
         <v>21</v>
       </c>
       <c r="BD7" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BE7" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="BF7" t="n">
         <v>17.5</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -1941,13 +1941,13 @@
         <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
         <v>7.4</v>
@@ -1980,10 +1980,10 @@
         <v>3.3</v>
       </c>
       <c r="X8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
         <v>80</v>
@@ -1998,7 +1998,7 @@
         <v>13.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
         <v>90</v>
@@ -2010,10 +2010,10 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
         <v>12.5</v>
@@ -2022,7 +2022,7 @@
         <v>12.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM8" t="n">
         <v>80</v>
@@ -2043,13 +2043,13 @@
         <v>65</v>
       </c>
       <c r="AS8" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -2076,20 +2076,20 @@
         <v>12</v>
       </c>
       <c r="BD8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BE8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BF8" t="n">
         <v>4.1</v>
       </c>
       <c r="BG8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
@@ -2141,7 +2141,7 @@
         <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>4.3</v>
@@ -2168,19 +2168,19 @@
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W9" t="n">
         <v>2.48</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
         <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="n">
         <v>160</v>
@@ -2204,7 +2204,7 @@
         <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>75</v>
@@ -2213,19 +2213,19 @@
         <v>16</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AP9" t="n">
         <v>15</v>
@@ -2279,11 +2279,11 @@
         <v>8.6</v>
       </c>
       <c r="BG9" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -2350,10 +2350,10 @@
         <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
         <v>2.1</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -2508,13 +2508,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
         <v>4.8</v>
@@ -2532,28 +2532,28 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="Q11" t="n">
         <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G12" t="n">
         <v>1.75</v>
@@ -2726,7 +2726,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.34</v>
@@ -2735,16 +2735,16 @@
         <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
         <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
         <v>1.94</v>
@@ -2762,10 +2762,10 @@
         <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB12" t="n">
         <v>8</v>
@@ -2774,7 +2774,7 @@
         <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>85</v>
@@ -2783,7 +2783,7 @@
         <v>9.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
@@ -2807,7 +2807,7 @@
         <v>11.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AP12" t="n">
         <v>12</v>
@@ -2834,7 +2834,7 @@
         <v>75</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>9.4</v>
@@ -2843,7 +2843,7 @@
         <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BB12" t="n">
         <v>16</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
         <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
@@ -2968,10 +2968,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
         <v>14</v>
@@ -2980,7 +2980,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>48</v>
@@ -2995,7 +2995,7 @@
         <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
         <v>16.5</v>
@@ -3004,7 +3004,7 @@
         <v>36</v>
       </c>
       <c r="AP13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>13.5</v>
@@ -3040,7 +3040,7 @@
         <v>42</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>20</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -3081,179 +3081,179 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="G14" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="H14" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE14" t="n">
         <v>80</v>
       </c>
-      <c r="AA14" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>160</v>
-      </c>
       <c r="AF14" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AP14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="AT14" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV14" t="n">
         <v>22</v>
       </c>
       <c r="AW14" t="n">
-        <v>11.5</v>
+        <v>70</v>
       </c>
       <c r="AX14" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AY14" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="BB14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC14" t="n">
         <v>14</v>
       </c>
       <c r="BD14" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="BE14" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="BF14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BG14" t="n">
-        <v>11.5</v>
+        <v>65</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -3275,136 +3275,136 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="W15" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
         <v>27</v>
       </c>
       <c r="Z15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>220</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>21</v>
       </c>
-      <c r="AI15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
       <c r="AR15" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>48</v>
+        <v>14.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU15" t="n">
         <v>10</v>
@@ -3413,41 +3413,41 @@
         <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AY15" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
         <v>14</v>
       </c>
       <c r="BD15" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BE15" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="BF15" t="n">
         <v>6.2</v>
       </c>
       <c r="BG15" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
         <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
         <v>6.8</v>
@@ -3556,7 +3556,7 @@
         <v>220</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -3568,10 +3568,10 @@
         <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
         <v>38</v>
@@ -3583,7 +3583,7 @@
         <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
@@ -3592,10 +3592,10 @@
         <v>34</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AT16" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         <v>34</v>
       </c>
       <c r="AW16" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AX16" t="n">
         <v>7.8</v>
@@ -3619,7 +3619,7 @@
         <v>27</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>8.800000000000001</v>
@@ -3631,17 +3631,17 @@
         <v>28</v>
       </c>
       <c r="BE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BF16" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="BG16" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -3663,179 +3663,179 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.14</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>1.16</v>
+        <v>2.24</v>
       </c>
       <c r="H17" t="n">
-        <v>24</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>9.800000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>11.5</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR17" t="n">
         <v>6.6</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="AS17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BD17" t="n">
         <v>7.2</v>
       </c>
-      <c r="X17" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>320</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>390</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="BE17" t="n">
         <v>8</v>
       </c>
-      <c r="AK17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>410</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>42</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>48</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>10</v>
-      </c>
       <c r="BF17" t="n">
-        <v>2.7</v>
+        <v>13.5</v>
       </c>
       <c r="BG17" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="G18" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="H18" t="n">
+        <v>24</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>320</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR18" t="n">
         <v>10.5</v>
       </c>
-      <c r="I18" t="n">
-        <v>14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AS18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AT18" t="n">
         <v>9.6</v>
       </c>
-      <c r="AG18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="AU18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY18" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="BA18" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="BC18" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD18" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="BE18" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="BF18" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="BG18" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4051,67 +4051,67 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>1.29</v>
       </c>
       <c r="G19" t="n">
-        <v>2.24</v>
+        <v>1.33</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>10.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -4120,13 +4120,13 @@
         <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -4135,10 +4135,10 @@
         <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG19" t="n">
         <v>1000</v>
@@ -4147,10 +4147,10 @@
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>
@@ -4159,71 +4159,71 @@
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>6.6</v>
       </c>
-      <c r="AS19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AT19" t="n">
+      <c r="BA19" t="n">
         <v>8</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="BB19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BD19" t="n">
         <v>6.8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>7.2</v>
       </c>
       <c r="BE19" t="n">
         <v>8</v>
       </c>
       <c r="BF19" t="n">
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="BG19" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
         <v>2.84</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
         <v>3.85</v>
@@ -4460,7 +4460,7 @@
         <v>2.66</v>
       </c>
       <c r="J21" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="K21" t="n">
         <v>3.1</v>
@@ -4472,16 +4472,16 @@
         <v>1.15</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O21" t="n">
         <v>1.64</v>
       </c>
       <c r="P21" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="R21" t="n">
         <v>1.16</v>
@@ -4499,7 +4499,7 @@
         <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
         <v>8.6</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4645,34 +4645,34 @@
         <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q22" t="n">
         <v>2.42</v>
@@ -4681,19 +4681,19 @@
         <v>1.12</v>
       </c>
       <c r="S22" t="n">
-        <v>2.42</v>
+        <v>2.92</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V22" t="n">
         <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5051,10 +5051,10 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.38</v>
@@ -5069,13 +5069,13 @@
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
         <v>1.01</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -5308,7 +5308,7 @@
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>65</v>
@@ -5341,7 +5341,7 @@
         <v>6.4</v>
       </c>
       <c r="AS25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AT25" t="n">
         <v>7.8</v>
@@ -5383,11 +5383,11 @@
         <v>14.5</v>
       </c>
       <c r="BG25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G26" t="n">
         <v>1.56</v>
@@ -5448,7 +5448,7 @@
         <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q26" t="n">
         <v>2.28</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5618,13 +5618,13 @@
         <v>4.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I27" t="n">
         <v>2.54</v>
       </c>
       <c r="J27" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="K27" t="n">
         <v>2.96</v>
@@ -5636,10 +5636,10 @@
         <v>1.19</v>
       </c>
       <c r="N27" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="O27" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P27" t="n">
         <v>1.34</v>
@@ -5651,7 +5651,7 @@
         <v>1.12</v>
       </c>
       <c r="S27" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="T27" t="n">
         <v>2.56</v>
@@ -5720,7 +5720,7 @@
         <v>60</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AQ27" t="n">
         <v>5.4</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -5809,10 +5809,10 @@
         <v>1.88</v>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H28" t="n">
-        <v>2.74</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
         <v>5</v>
@@ -5824,16 +5824,16 @@
         <v>980</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>1.61</v>
+        <v>2.36</v>
       </c>
       <c r="O28" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="P28" t="n">
         <v>1.61</v>
@@ -5848,16 +5848,16 @@
         <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V28" t="n">
         <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>
@@ -6215,10 +6215,10 @@
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O30" t="n">
         <v>1.43</v>
@@ -6233,13 +6233,13 @@
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V30" t="n">
         <v>1.01</v>
@@ -6357,7 +6357,395 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 23:01:48</t>
+          <t>2026-02-25 01:09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>13</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>2026-02-25 01:09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CD Marathon</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Genesis Huracan</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>2026-02-25 01:09:12</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH32"/>
+  <dimension ref="A1:BH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G2" t="n">
         <v>1.61</v>
@@ -786,28 +786,28 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
         <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.15</v>
@@ -864,25 +864,25 @@
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>6.4</v>
       </c>
       <c r="AS2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AT2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AU2" t="n">
         <v>9.4</v>
@@ -891,19 +891,19 @@
         <v>6</v>
       </c>
       <c r="AW2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA2" t="n">
         <v>6.6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>6.4</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -915,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BF2" t="n">
         <v>6.2</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -983,13 +983,13 @@
         <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -998,7 +998,7 @@
         <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -1010,7 +1010,7 @@
         <v>1.84</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -1025,7 +1025,7 @@
         <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -1058,13 +1058,13 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -1091,10 +1091,10 @@
         <v>11.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="BA3" t="n">
         <v>7.4</v>
@@ -1103,10 +1103,10 @@
         <v>7.2</v>
       </c>
       <c r="BC3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BD3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BE3" t="n">
         <v>7.8</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G4" t="n">
         <v>1.34</v>
@@ -1162,13 +1162,13 @@
         <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1186,10 +1186,10 @@
         <v>1.74</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
         <v>2.26</v>
@@ -1201,13 +1201,13 @@
         <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>160</v>
@@ -1222,10 +1222,10 @@
         <v>16</v>
       </c>
       <c r="AD4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1237,7 +1237,7 @@
         <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
@@ -1246,74 +1246,74 @@
         <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
       </c>
       <c r="AP4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AT4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AY4" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="BA4" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="BB4" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC4" t="n">
         <v>13.5</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="BE4" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="BF4" t="n">
         <v>4.9</v>
       </c>
       <c r="BG4" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1356,10 +1356,10 @@
         <v>14.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
@@ -1377,7 +1377,7 @@
         <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
         <v>1.61</v>
@@ -1395,13 +1395,13 @@
         <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>150</v>
@@ -1458,7 +1458,7 @@
         <v>7.6</v>
       </c>
       <c r="AR5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -1473,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>7.6</v>
@@ -1488,7 +1488,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BB5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC5" t="n">
         <v>12.5</v>
@@ -1500,14 +1500,14 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BG5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>2.74</v>
@@ -1562,7 +1562,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1571,7 +1571,7 @@
         <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
         <v>1.41</v>
@@ -1604,7 +1604,7 @@
         <v>40</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8</v>
@@ -1688,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="BD6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BE6" t="n">
         <v>34</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1735,13 +1735,13 @@
         <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
         <v>3.4</v>
@@ -1756,13 +1756,13 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
         <v>2.32</v>
@@ -1774,13 +1774,13 @@
         <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
         <v>1.86</v>
@@ -1798,7 +1798,7 @@
         <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
         <v>7.8</v>
@@ -1807,7 +1807,7 @@
         <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
         <v>12.5</v>
@@ -1828,19 +1828,19 @@
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>85</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>11</v>
@@ -1849,10 +1849,10 @@
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AU7" t="n">
         <v>6.8</v>
@@ -1873,7 +1873,7 @@
         <v>18</v>
       </c>
       <c r="BA7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1885,17 +1885,17 @@
         <v>10.5</v>
       </c>
       <c r="BE7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BF7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BG7" t="n">
-        <v>60</v>
+        <v>11.5</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
         <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.24</v>
@@ -1962,7 +1962,7 @@
         <v>1.44</v>
       </c>
       <c r="R8" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>2.1</v>
@@ -1971,7 +1971,7 @@
         <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
@@ -2040,16 +2040,16 @@
         <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -2061,13 +2061,13 @@
         <v>10.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ8" t="n">
         <v>19</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB8" t="n">
         <v>12</v>
@@ -2085,11 +2085,11 @@
         <v>4.1</v>
       </c>
       <c r="BG8" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2138,10 +2138,10 @@
         <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>4.3</v>
@@ -2168,7 +2168,7 @@
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
         <v>2.48</v>
@@ -2243,13 +2243,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>20</v>
       </c>
       <c r="AW9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AX9" t="n">
         <v>9.199999999999999</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2317,10 +2317,10 @@
         <v>11.5</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I10" t="n">
         <v>1.35</v>
@@ -2350,7 +2350,7 @@
         <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
         <v>2.62</v>
@@ -2359,13 +2359,13 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="V10" t="n">
         <v>3.85</v>
       </c>
       <c r="W10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X10" t="n">
         <v>26</v>
@@ -2392,7 +2392,7 @@
         <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -2407,22 +2407,22 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AL10" t="n">
         <v>180</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AO10" t="n">
         <v>5.6</v>
       </c>
       <c r="AP10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AQ10" t="n">
         <v>8</v>
@@ -2434,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="AT10" t="n">
-        <v>27</v>
+        <v>7.8</v>
       </c>
       <c r="AU10" t="n">
         <v>10</v>
@@ -2449,10 +2449,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AY10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BA10" t="n">
         <v>7.8</v>
@@ -2461,13 +2461,13 @@
         <v>9.6</v>
       </c>
       <c r="BC10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BD10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BE10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BF10" t="n">
         <v>9.4</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>1.88</v>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="H11" t="n">
         <v>4.2</v>
@@ -2520,7 +2520,7 @@
         <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
@@ -2532,19 +2532,19 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
         <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
         <v>3.35</v>
@@ -2553,13 +2553,13 @@
         <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -2667,11 +2667,11 @@
         <v>10</v>
       </c>
       <c r="BG11" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2714,13 +2714,13 @@
         <v>5.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2732,7 +2732,7 @@
         <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
         <v>2.04</v>
@@ -2741,7 +2741,7 @@
         <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
         <v>1.98</v>
@@ -2759,7 +2759,7 @@
         <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
         <v>42</v>
@@ -2777,7 +2777,7 @@
         <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="n">
         <v>9.6</v>
@@ -2804,7 +2804,7 @@
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>100</v>
@@ -2831,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2840,7 +2840,7 @@
         <v>9.4</v>
       </c>
       <c r="AZ12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA12" t="n">
         <v>75</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
         <v>3.45</v>
@@ -2923,7 +2923,7 @@
         <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
         <v>2.04</v>
@@ -2932,7 +2932,7 @@
         <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
         <v>3.35</v>
@@ -2950,13 +2950,13 @@
         <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>65</v>
@@ -2983,16 +2983,16 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
@@ -3007,19 +3007,19 @@
         <v>14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
       </c>
       <c r="AS13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AT13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV13" t="n">
         <v>13.5</v>
@@ -3043,13 +3043,13 @@
         <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD13" t="n">
         <v>32</v>
       </c>
       <c r="BE13" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BF13" t="n">
         <v>15</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.58</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.59</v>
-      </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
         <v>4.8</v>
@@ -3117,7 +3117,7 @@
         <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
         <v>2.34</v>
@@ -3129,16 +3129,16 @@
         <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
         <v>2.7</v>
@@ -3156,7 +3156,7 @@
         <v>180</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
@@ -3186,7 +3186,7 @@
         <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
         <v>100</v>
@@ -3207,7 +3207,7 @@
         <v>50</v>
       </c>
       <c r="AS14" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AT14" t="n">
         <v>9.4</v>
@@ -3219,28 +3219,28 @@
         <v>22</v>
       </c>
       <c r="AW14" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AX14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY14" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BC14" t="n">
         <v>14</v>
       </c>
       <c r="BD14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BE14" t="n">
         <v>38</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G15" t="n">
         <v>1.48</v>
@@ -3299,7 +3299,7 @@
         <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.37</v>
@@ -3317,19 +3317,19 @@
         <v>2.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
         <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V15" t="n">
         <v>1.12</v>
@@ -3338,10 +3338,10 @@
         <v>3.05</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z15" t="n">
         <v>80</v>
@@ -3425,7 +3425,7 @@
         <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
@@ -3434,7 +3434,7 @@
         <v>14</v>
       </c>
       <c r="BD15" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="BE15" t="n">
         <v>14</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3481,22 +3481,22 @@
         <v>1.26</v>
       </c>
       <c r="G16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H16" t="n">
         <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>7.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3508,10 +3508,10 @@
         <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
         <v>1.74</v>
@@ -3523,7 +3523,7 @@
         <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
         <v>1.07</v>
@@ -3535,16 +3535,16 @@
         <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
         <v>16.5</v>
@@ -3556,7 +3556,7 @@
         <v>220</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -3574,40 +3574,40 @@
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS16" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AU16" t="n">
         <v>14.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AW16" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AX16" t="n">
         <v>7.8</v>
@@ -3619,29 +3619,29 @@
         <v>27</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BC16" t="n">
         <v>12.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="BE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BF16" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
         <v>32</v>
       </c>
       <c r="J18" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>11.5</v>
@@ -3896,19 +3896,19 @@
         <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T18" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="U18" t="n">
         <v>1.56</v>
@@ -3920,7 +3920,7 @@
         <v>7.2</v>
       </c>
       <c r="X18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="n">
         <v>80</v>
@@ -3932,7 +3932,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
         <v>26</v>
@@ -3950,22 +3950,22 @@
         <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI18" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
         <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="AN18" t="n">
         <v>3.05</v>
@@ -3974,16 +3974,16 @@
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AQ18" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT18" t="n">
         <v>9.6</v>
@@ -3992,10 +3992,10 @@
         <v>20</v>
       </c>
       <c r="AV18" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AW18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AX18" t="n">
         <v>6.8</v>
@@ -4004,10 +4004,10 @@
         <v>12.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BB18" t="n">
         <v>6.8</v>
@@ -4016,20 +4016,20 @@
         <v>13</v>
       </c>
       <c r="BD18" t="n">
-        <v>48</v>
+        <v>10.5</v>
       </c>
       <c r="BE18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BF18" t="n">
         <v>2.7</v>
       </c>
       <c r="BG18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
         <v>1.33</v>
       </c>
       <c r="H19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I19" t="n">
         <v>14</v>
@@ -4108,10 +4108,10 @@
         <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -4138,10 +4138,10 @@
         <v>230</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
@@ -4171,25 +4171,25 @@
         <v>6.4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AR19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>8.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="AU19" t="n">
         <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AW19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX19" t="n">
         <v>7</v>
@@ -4198,32 +4198,32 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ19" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BA19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB19" t="n">
         <v>5.4</v>
       </c>
       <c r="BC19" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="BD19" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BE19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BG19" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
         <v>5.3</v>
       </c>
       <c r="I20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J20" t="n">
         <v>3.35</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G21" t="n">
         <v>3.85</v>
@@ -4457,10 +4457,10 @@
         <v>2.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J21" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>3.1</v>
@@ -4472,7 +4472,7 @@
         <v>1.15</v>
       </c>
       <c r="N21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.64</v>
@@ -4481,7 +4481,7 @@
         <v>1.46</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="R21" t="n">
         <v>1.16</v>
@@ -4499,7 +4499,7 @@
         <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
         <v>8.6</v>
@@ -4508,7 +4508,7 @@
         <v>7.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
         <v>980</v>
@@ -4529,7 +4529,7 @@
         <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
@@ -4553,7 +4553,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AP21" t="n">
         <v>6.6</v>
@@ -4586,7 +4586,7 @@
         <v>5.9</v>
       </c>
       <c r="AZ21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BA21" t="n">
         <v>8.199999999999999</v>
@@ -4595,13 +4595,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BC21" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="BD21" t="n">
         <v>8.4</v>
       </c>
       <c r="BE21" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF21" t="n">
         <v>8.4</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4642,58 +4642,58 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="G22" t="n">
         <v>2.12</v>
       </c>
       <c r="H22" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J22" t="n">
         <v>2.78</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="L22" t="n">
         <v>1.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="P22" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92</v>
+        <v>1.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.05</v>
+        <v>2.38</v>
       </c>
       <c r="U22" t="n">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -4750,62 +4750,62 @@
         <v>1000</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.01</v>
+        <v>2.7</v>
       </c>
       <c r="AU22" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="AV22" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AW22" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AZ22" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BC22" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BE22" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BF22" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J23" t="n">
         <v>2.56</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="L23" t="n">
         <v>1.53</v>
@@ -4866,16 +4866,16 @@
         <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R23" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T23" t="n">
         <v>1.05</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="T24" t="n">
         <v>1.05</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -5227,13 +5227,13 @@
         <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
         <v>3.65</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
         <v>3.4</v>
@@ -5248,7 +5248,7 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -5275,7 +5275,7 @@
         <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X25" t="n">
         <v>15</v>
@@ -5353,7 +5353,7 @@
         <v>13.5</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5368,16 +5368,16 @@
         <v>7.4</v>
       </c>
       <c r="BB25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BC25" t="n">
         <v>6.4</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>6.2</v>
       </c>
       <c r="BD25" t="n">
         <v>7</v>
       </c>
       <c r="BE25" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BF25" t="n">
         <v>14.5</v>
@@ -5387,14 +5387,14 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5404,184 +5404,184 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="G26" t="n">
-        <v>1.56</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="n">
-        <v>8.6</v>
+        <v>1.04</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L26" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>1.08</v>
       </c>
       <c r="O26" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.66</v>
+        <v>1.08</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="T26" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AP26" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR26" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AS26" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AT26" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV26" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AW26" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AX26" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AY26" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BA26" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BB26" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC26" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BD26" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="BE26" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BF26" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="BG26" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
@@ -5603,186 +5603,186 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.95</v>
+        <v>1.5</v>
       </c>
       <c r="G27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.4</v>
       </c>
-      <c r="H27" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.96</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M27" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.04</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="U27" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="V27" t="n">
-        <v>1.65</v>
+        <v>1.11</v>
       </c>
       <c r="W27" t="n">
-        <v>1.29</v>
+        <v>2.78</v>
       </c>
       <c r="X27" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="AA27" t="n">
-        <v>42</v>
+        <v>510</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="n">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
         <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AJ27" t="n">
-        <v>140</v>
+        <v>14.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="AN27" t="n">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.4</v>
+        <v>18.5</v>
       </c>
       <c r="AR27" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AS27" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV27" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="AW27" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX27" t="n">
-        <v>18.5</v>
+        <v>6.6</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="AZ27" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB27" t="n">
         <v>11.5</v>
       </c>
       <c r="BC27" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BD27" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="BE27" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF27" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="BG27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5792,191 +5792,191 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Defensor Sporting</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="G28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H28" t="n">
         <v>2.36</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q28" t="n">
         <v>3.5</v>
       </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="R28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH28" t="n">
         <v>980</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AU28" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AV28" t="n">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AW28" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX28" t="n">
-        <v>1.01</v>
+        <v>18.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="BB28" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BC28" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="BD28" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BE28" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="BF28" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="BG28" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5986,72 +5986,72 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>1.25</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.34</v>
+        <v>2.16</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>1.35</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -6066,10 +6066,10 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
         <v>1000</v>
@@ -6108,69 +6108,69 @@
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AV29" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AW29" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AX29" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AY29" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AZ29" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BA29" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BB29" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BC29" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BE29" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="BF29" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6180,60 +6180,60 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P30" t="n">
         <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="T30" t="n">
         <v>1.05</v>
@@ -6357,14 +6357,14 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6374,72 +6374,72 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P31" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>1.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>1.56</v>
+        <v>1.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -6481,7 +6481,7 @@
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
@@ -6496,256 +6496,450 @@
         <v>1000</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AU31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AY31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BA31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BC31" t="n">
         <v>1.01</v>
       </c>
       <c r="BD31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BE31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 01:09:12</t>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="X32" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>2026-02-25 03:16:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>2026-02-26</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>CD Marathon</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Genesis Huracan</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="F33" t="n">
         <v>1.04</v>
       </c>
-      <c r="G32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="G33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.04</v>
       </c>
-      <c r="I32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="I33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P33" t="n">
         <v>1.08</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q33" t="n">
         <v>1.25</v>
       </c>
-      <c r="P32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="R33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S33" t="n">
         <v>1.25</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>30</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>36</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>50</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BH32" t="inlineStr">
-        <is>
-          <t>2026-02-25 01:09:12</t>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>2026-02-25 03:16:49</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
         <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
@@ -810,10 +810,10 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
@@ -846,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>85</v>
@@ -870,7 +870,7 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AQ2" t="n">
         <v>19</v>
@@ -882,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="AT2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AU2" t="n">
         <v>9.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AW2" t="n">
         <v>6.8</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -977,28 +977,28 @@
         <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.31</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -1007,13 +1007,13 @@
         <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -1022,7 +1022,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>8.800000000000001</v>
@@ -1031,10 +1031,10 @@
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
@@ -1049,7 +1049,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -1058,55 +1058,55 @@
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AS3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AX3" t="n">
         <v>11.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BA3" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BC3" t="n">
-        <v>6.6</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE3" t="n">
         <v>7.8</v>
@@ -1115,11 +1115,11 @@
         <v>11.5</v>
       </c>
       <c r="BG3" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H4" t="n">
         <v>12</v>
@@ -1165,7 +1165,7 @@
         <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
         <v>1.35</v>
@@ -1186,7 +1186,7 @@
         <v>1.74</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
         <v>2.88</v>
@@ -1195,13 +1195,13 @@
         <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
         <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1219,22 +1219,22 @@
         <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AG4" t="n">
         <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>230</v>
@@ -1243,16 +1243,16 @@
         <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1261,25 +1261,25 @@
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="AS4" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AX4" t="n">
         <v>6.8</v>
@@ -1288,32 +1288,32 @@
         <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="BA4" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BC4" t="n">
         <v>13.5</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="BE4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF4" t="n">
         <v>4.9</v>
       </c>
       <c r="BG4" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G5" t="n">
         <v>1.33</v>
@@ -1353,10 +1353,10 @@
         <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
         <v>6.6</v>
@@ -1395,7 +1395,7 @@
         <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1538,16 +1538,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
         <v>3.6</v>
@@ -1580,16 +1580,16 @@
         <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X6" t="n">
         <v>14.5</v>
@@ -1610,10 +1610,10 @@
         <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
         <v>18.5</v>
@@ -1622,7 +1622,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>38</v>
@@ -1643,7 +1643,7 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP6" t="n">
         <v>13.5</v>
@@ -1658,10 +1658,10 @@
         <v>36</v>
       </c>
       <c r="AT6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
@@ -1670,7 +1670,7 @@
         <v>26</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY6" t="n">
         <v>11.5</v>
@@ -1694,14 +1694,14 @@
         <v>34</v>
       </c>
       <c r="BF6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BG6" t="n">
         <v>20</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
         <v>1.86</v>
@@ -1795,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
         <v>7.8</v>
@@ -1807,7 +1807,7 @@
         <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
         <v>12.5</v>
@@ -1846,10 +1846,10 @@
         <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT7" t="n">
         <v>7.2</v>
@@ -1861,19 +1861,19 @@
         <v>15</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX7" t="n">
         <v>10.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ7" t="n">
         <v>18</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1882,20 +1882,20 @@
         <v>21</v>
       </c>
       <c r="BD7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BE7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BF7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BG7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G8" t="n">
         <v>1.43</v>
@@ -1935,13 +1935,13 @@
         <v>7.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>1.24</v>
@@ -1956,7 +1956,7 @@
         <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
         <v>1.44</v>
@@ -1965,7 +1965,7 @@
         <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T8" t="n">
         <v>1.69</v>
@@ -1974,7 +1974,7 @@
         <v>2.36</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
         <v>3.3</v>
@@ -1986,13 +1986,13 @@
         <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>280</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
         <v>13.5</v>
@@ -2001,10 +2001,10 @@
         <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
@@ -2016,7 +2016,7 @@
         <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>12.5</v>
@@ -2031,19 +2031,19 @@
         <v>4.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP8" t="n">
         <v>30</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AR8" t="n">
         <v>60</v>
       </c>
       <c r="AS8" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -2070,7 +2070,7 @@
         <v>55</v>
       </c>
       <c r="BB8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -2082,14 +2082,14 @@
         <v>70</v>
       </c>
       <c r="BF8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BG8" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2126,10 +2126,10 @@
         <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
@@ -2165,7 +2165,7 @@
         <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
         <v>1.2</v>
@@ -2195,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="n">
         <v>9.800000000000001</v>
@@ -2222,7 +2222,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>85</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>4.8</v>
@@ -2359,7 +2359,7 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
         <v>3.85</v>
@@ -2383,10 +2383,10 @@
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>980</v>
@@ -2419,10 +2419,10 @@
         <v>310</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ10" t="n">
         <v>8</v>
@@ -2434,7 +2434,7 @@
         <v>9</v>
       </c>
       <c r="AT10" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU10" t="n">
         <v>10</v>
@@ -2446,38 +2446,38 @@
         <v>12.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="BA10" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="BC10" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="BE10" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="BF10" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="BG10" t="n">
         <v>4.4</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2511,55 +2511,55 @@
         <v>1.88</v>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -2574,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
         <v>8.800000000000001</v>
@@ -2586,10 +2586,10 @@
         <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -2610,22 +2610,22 @@
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP11" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.6</v>
+        <v>26</v>
       </c>
       <c r="AS11" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AT11" t="n">
         <v>7.8</v>
@@ -2634,44 +2634,44 @@
         <v>7.6</v>
       </c>
       <c r="AV11" t="n">
-        <v>6.4</v>
+        <v>15.5</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="BA11" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="BB11" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="BC11" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BD11" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="BE11" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="BF11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG11" t="n">
-        <v>8.6</v>
+        <v>55</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2747,7 +2747,7 @@
         <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
@@ -2831,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -2902,19 +2902,19 @@
         <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
         <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2923,7 +2923,7 @@
         <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
         <v>2.04</v>
@@ -2932,25 +2932,25 @@
         <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
         <v>3.35</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
         <v>14</v>
@@ -3004,7 +3004,7 @@
         <v>36</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>13</v>
@@ -3013,7 +3013,7 @@
         <v>21</v>
       </c>
       <c r="AS13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AT13" t="n">
         <v>9.800000000000001</v>
@@ -3049,7 +3049,7 @@
         <v>32</v>
       </c>
       <c r="BE13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BF13" t="n">
         <v>15</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3117,22 +3117,22 @@
         <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
         <v>2.34</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R14" t="n">
         <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -3141,7 +3141,7 @@
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="X14" t="n">
         <v>19</v>
@@ -3156,13 +3156,13 @@
         <v>180</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
         <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
         <v>80</v>
@@ -3207,13 +3207,13 @@
         <v>50</v>
       </c>
       <c r="AS14" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AT14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AV14" t="n">
         <v>22</v>
@@ -3222,7 +3222,7 @@
         <v>50</v>
       </c>
       <c r="AX14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AY14" t="n">
         <v>9.4</v>
@@ -3231,7 +3231,7 @@
         <v>19.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB14" t="n">
         <v>12.5</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.37</v>
@@ -3317,16 +3317,16 @@
         <v>2.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
         <v>1.85</v>
@@ -3335,10 +3335,10 @@
         <v>1.12</v>
       </c>
       <c r="W15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
         <v>26</v>
@@ -3362,10 +3362,10 @@
         <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
@@ -3374,10 +3374,10 @@
         <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL15" t="n">
         <v>44</v>
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="n">
         <v>16</v>
@@ -3398,13 +3398,13 @@
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AS15" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AT15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AU15" t="n">
         <v>10</v>
@@ -3413,7 +3413,7 @@
         <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX15" t="n">
         <v>7.6</v>
@@ -3422,32 +3422,32 @@
         <v>9.4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BB15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BC15" t="n">
         <v>14</v>
       </c>
       <c r="BD15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BF15" t="n">
         <v>6.2</v>
       </c>
       <c r="BG15" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
         <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
         <v>7</v>
@@ -3496,7 +3496,7 @@
         <v>7.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3511,16 +3511,16 @@
         <v>2.78</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="R16" t="n">
         <v>1.74</v>
       </c>
       <c r="S16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -3568,7 +3568,7 @@
         <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -3580,22 +3580,22 @@
         <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
         <v>300</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
         <v>10.5</v>
@@ -3604,10 +3604,10 @@
         <v>14.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AW16" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AX16" t="n">
         <v>7.8</v>
@@ -3616,32 +3616,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC16" t="n">
         <v>12.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BE16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BF16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="BG16" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
         <v>1.14</v>
       </c>
       <c r="G18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H18" t="n">
         <v>24</v>
@@ -3911,7 +3911,7 @@
         <v>2.62</v>
       </c>
       <c r="U18" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
         <v>1.03</v>
@@ -3926,7 +3926,7 @@
         <v>80</v>
       </c>
       <c r="Z18" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -3980,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AS18" t="n">
         <v>11.5</v>
@@ -4022,14 +4022,14 @@
         <v>11.5</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="BG18" t="n">
         <v>11.5</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
         <v>1.33</v>
       </c>
       <c r="H19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="I19" t="n">
         <v>14</v>
@@ -4090,19 +4090,19 @@
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
         <v>2.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U19" t="n">
         <v>1.84</v>
@@ -4141,7 +4141,7 @@
         <v>8.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
@@ -4150,7 +4150,7 @@
         <v>170</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>
@@ -4168,16 +4168,16 @@
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AQ19" t="n">
         <v>7.2</v>
       </c>
       <c r="AR19" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS19" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AT19" t="n">
         <v>4.9</v>
@@ -4186,10 +4186,10 @@
         <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AW19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AX19" t="n">
         <v>7</v>
@@ -4201,29 +4201,29 @@
         <v>6.8</v>
       </c>
       <c r="BA19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BB19" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="BC19" t="n">
         <v>5.9</v>
       </c>
       <c r="BD19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BF19" t="n">
         <v>4.1</v>
       </c>
       <c r="BG19" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
         <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -4278,13 +4278,13 @@
         <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O20" t="n">
         <v>1.48</v>
       </c>
       <c r="P20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q20" t="n">
         <v>2.42</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
         <v>3.85</v>
@@ -4457,10 +4457,10 @@
         <v>2.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K21" t="n">
         <v>3.1</v>
@@ -4472,7 +4472,7 @@
         <v>1.15</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O21" t="n">
         <v>1.64</v>
@@ -4496,7 +4496,7 @@
         <v>1.71</v>
       </c>
       <c r="V21" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W21" t="n">
         <v>1.36</v>
@@ -4583,7 +4583,7 @@
         <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>5.9</v>
+        <v>14.5</v>
       </c>
       <c r="AZ21" t="n">
         <v>6.8</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -4642,40 +4642,40 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="G22" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I22" t="n">
         <v>7.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="K22" t="n">
-        <v>500</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O22" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R22" t="n">
         <v>1.14</v>
@@ -4684,16 +4684,16 @@
         <v>1.05</v>
       </c>
       <c r="T22" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U22" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V22" t="n">
         <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -4750,62 +4750,62 @@
         <v>1000</v>
       </c>
       <c r="AP22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AR22" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AS22" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="AU22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AV22" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AX22" t="n">
         <v>3.2</v>
       </c>
       <c r="AY22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="BA22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD22" t="n">
         <v>4.3</v>
       </c>
-      <c r="BB22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BC22" t="n">
+      <c r="BE22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF22" t="n">
         <v>3.9</v>
       </c>
-      <c r="BD22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BG22" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -4839,61 +4839,61 @@
         <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.53</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="O23" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="P23" t="n">
         <v>1.46</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>2.56</v>
+        <v>4.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="U23" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -4902,10 +4902,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -4944,62 +4944,62 @@
         <v>1000</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="AV23" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AW23" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AX23" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BA23" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BB23" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BD23" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BE23" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BF23" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BG23" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -5224,10 +5224,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G25" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H25" t="n">
         <v>3.65</v>
@@ -5236,7 +5236,7 @@
         <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
         <v>3.65</v>
@@ -5275,7 +5275,7 @@
         <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
         <v>15</v>
@@ -5290,7 +5290,7 @@
         <v>80</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
         <v>8.4</v>
@@ -5338,10 +5338,10 @@
         <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AS25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AT25" t="n">
         <v>7.8</v>
@@ -5353,7 +5353,7 @@
         <v>13.5</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.4</v>
+        <v>38</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5362,10 +5362,10 @@
         <v>9.6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BB25" t="n">
         <v>6.6</v>
@@ -5374,20 +5374,20 @@
         <v>6.4</v>
       </c>
       <c r="BD25" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF25" t="n">
         <v>14.5</v>
       </c>
       <c r="BG25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
         <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
         <v>8.6</v>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J27" t="n">
         <v>4</v>
@@ -5762,7 +5762,7 @@
         <v>17</v>
       </c>
       <c r="BD27" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="BE27" t="n">
         <v>8.800000000000001</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -5812,16 +5812,16 @@
         <v>4.4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I28" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J28" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="K28" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -5872,10 +5872,10 @@
         <v>42</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
         <v>14.5</v>
@@ -5923,7 +5923,7 @@
         <v>11.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AT28" t="n">
         <v>8</v>
@@ -5935,7 +5935,7 @@
         <v>12.5</v>
       </c>
       <c r="AW28" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AX28" t="n">
         <v>18.5</v>
@@ -5944,32 +5944,32 @@
         <v>18</v>
       </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="BA28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD28" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BE28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF28" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BG28" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
         <v>11.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
         <v>5.2</v>
@@ -6624,13 +6624,13 @@
         <v>3.8</v>
       </c>
       <c r="T32" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U32" t="n">
         <v>1.69</v>
       </c>
       <c r="V32" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W32" t="n">
         <v>2.78</v>
@@ -6690,62 +6690,62 @@
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="AQ32" t="n">
-        <v>4.7</v>
+        <v>2.48</v>
       </c>
       <c r="AR32" t="n">
-        <v>2.64</v>
+        <v>1.92</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU32" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AX32" t="n">
         <v>4.4</v>
       </c>
-      <c r="AV32" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>3.85</v>
-      </c>
       <c r="AY32" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AZ32" t="n">
-        <v>5.9</v>
+        <v>2.74</v>
       </c>
       <c r="BA32" t="n">
-        <v>2.68</v>
+        <v>1.94</v>
       </c>
       <c r="BB32" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="BC32" t="n">
-        <v>5.3</v>
+        <v>2.66</v>
       </c>
       <c r="BD32" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="BE32" t="n">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="BF32" t="n">
         <v>8</v>
       </c>
       <c r="BG32" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>
@@ -6779,16 +6779,16 @@
         <v>1.04</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="K33" t="n">
         <v>1000</v>
@@ -6827,7 +6827,7 @@
         <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 03:16:49</t>
+          <t>2026-02-25 05:24:15</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH33"/>
+  <dimension ref="A1:BH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -748,75 +748,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>CSA Steaua Bucuresti</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>CSM Slatina</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>1.08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>1.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>1.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -825,13 +825,13 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -840,16 +840,16 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -861,71 +861,71 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>1.01</v>
       </c>
       <c r="AR2" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AS2" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AT2" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AV2" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="BA2" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="BD2" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="BF2" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="BG2" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -947,179 +947,179 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="V3" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>2.66</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AY3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AZ3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BB3" t="n">
         <v>12</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="BE3" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="BF3" t="n">
-        <v>11.5</v>
+        <v>6.2</v>
       </c>
       <c r="BG3" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -1141,179 +1141,179 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.32</v>
       </c>
-      <c r="G4" t="n">
+      <c r="S4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.35</v>
       </c>
-      <c r="H4" t="n">
+      <c r="W4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12</v>
       </c>
-      <c r="I4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AW4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>16</v>
       </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN4" t="n">
+      <c r="BA4" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE4" t="n">
         <v>5.4</v>
       </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>7</v>
-      </c>
       <c r="BF4" t="n">
-        <v>4.9</v>
+        <v>13</v>
       </c>
       <c r="BG4" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -1335,186 +1335,186 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
         <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="U5" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="V5" t="n">
         <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="n">
         <v>150</v>
       </c>
       <c r="AA5" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AF5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BB5" t="n">
         <v>9</v>
       </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="BC5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>7.4</v>
+        <v>4.6</v>
       </c>
       <c r="BE5" t="n">
-        <v>8.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="BG5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1529,179 +1529,179 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.82</v>
+        <v>1.29</v>
       </c>
       <c r="G6" t="n">
-        <v>2.86</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>11.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.72</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.53</v>
+        <v>3.9</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>560</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>24</v>
       </c>
-      <c r="AO6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU6" t="n">
+      <c r="BA6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BD6" t="n">
         <v>7.6</v>
       </c>
-      <c r="AV6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>36</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>36</v>
-      </c>
       <c r="BE6" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="BF6" t="n">
-        <v>22</v>
+        <v>3.95</v>
       </c>
       <c r="BG6" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -1723,179 +1723,179 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AR7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>38</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE7" t="n">
         <v>65</v>
       </c>
-      <c r="AF7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="BF7" t="n">
+        <v>22</v>
+      </c>
+      <c r="BG7" t="n">
         <v>20</v>
       </c>
-      <c r="AS7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -1917,145 +1917,145 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="G8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.43</v>
       </c>
-      <c r="H8" t="n">
+      <c r="P8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
         <v>7.8</v>
       </c>
-      <c r="I8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.3</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AP8" t="n">
-        <v>30</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ8" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AW8" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="AX8" t="n">
         <v>10.5</v>
@@ -2064,32 +2064,32 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA8" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="BB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BG8" t="n">
         <v>11.5</v>
       </c>
-      <c r="BC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>22</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>70</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>55</v>
-      </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -2111,186 +2111,186 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J9" t="n">
         <v>5.8</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.15</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW9" t="n">
         <v>75</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>65</v>
-      </c>
       <c r="AX9" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ9" t="n">
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB9" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD9" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="BE9" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="BF9" t="n">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="BG9" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,184 +2300,184 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11.5</v>
+        <v>1.64</v>
       </c>
       <c r="G10" t="n">
-        <v>13.5</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>1.31</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.35</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>3.85</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>1.08</v>
+        <v>2.52</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AX10" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>230</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>310</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>12</v>
-      </c>
       <c r="AY10" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ10" t="n">
-        <v>9.4</v>
+        <v>19.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
-        <v>5</v>
+        <v>14.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BE10" t="n">
-        <v>12.5</v>
+        <v>95</v>
       </c>
       <c r="BF10" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="BG10" t="n">
-        <v>4.4</v>
+        <v>75</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -2499,186 +2499,186 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.88</v>
+        <v>11.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.94</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>1.31</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>1.35</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>5.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>1.95</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>3.85</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>1.08</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB11" t="n">
         <v>980</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
         <v>980</v>
       </c>
-      <c r="AA11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG11" t="n">
         <v>980</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>310</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>5.1</v>
       </c>
       <c r="AP11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AW11" t="n">
         <v>12.5</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AW11" t="n">
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
         <v>10</v>
       </c>
-      <c r="AX11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="BA11" t="n">
         <v>10</v>
       </c>
       <c r="BB11" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="BC11" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BE11" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="BF11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BG11" t="n">
-        <v>55</v>
+        <v>4.4</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2688,184 +2688,184 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="H12" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>3.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.9</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.04</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
         <v>42</v>
       </c>
       <c r="AA12" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17.5</v>
+        <v>4.1</v>
       </c>
       <c r="AR12" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AW12" t="n">
-        <v>55</v>
+        <v>4.9</v>
       </c>
       <c r="AX12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY12" t="n">
         <v>9</v>
       </c>
-      <c r="AY12" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>75</v>
+        <v>4.9</v>
       </c>
       <c r="BB12" t="n">
-        <v>16</v>
+        <v>4.3</v>
       </c>
       <c r="BC12" t="n">
-        <v>17.5</v>
+        <v>4.3</v>
       </c>
       <c r="BD12" t="n">
-        <v>36</v>
+        <v>4.6</v>
       </c>
       <c r="BE12" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="BF12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG12" t="n">
-        <v>38</v>
+        <v>4.9</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -2887,179 +2887,179 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="G13" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>5.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.91</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="X13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB13" t="n">
         <v>16</v>
       </c>
-      <c r="Y13" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="BC13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG13" t="n">
         <v>38</v>
       </c>
-      <c r="AF13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>42</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>27</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>32</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>75</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>15</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>30</v>
-      </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -3081,179 +3081,179 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
-        <v>1.58</v>
+        <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>6.6</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT14" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AU14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>27</v>
+      </c>
+      <c r="BC14" t="n">
         <v>21</v>
       </c>
-      <c r="AI14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="BD14" t="n">
+        <v>32</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>75</v>
+      </c>
+      <c r="BF14" t="n">
         <v>15</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="BG14" t="n">
         <v>30</v>
       </c>
-      <c r="AM14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>28</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>38</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>65</v>
-      </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -3275,186 +3275,186 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="G15" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="I15" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.8</v>
       </c>
-      <c r="K15" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="U15" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="W15" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z15" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AA15" t="n">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="AS15" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AT15" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>14.5</v>
+        <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
         <v>14</v>
       </c>
       <c r="BD15" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="BF15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BG15" t="n">
-        <v>15.5</v>
+        <v>70</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3469,109 +3469,109 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="G16" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="I16" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="K16" t="n">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.78</v>
+        <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="R16" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="X16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
         <v>32</v>
       </c>
-      <c r="Y16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>640</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>50</v>
-      </c>
       <c r="AE16" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>36</v>
@@ -3580,68 +3580,68 @@
         <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AQ16" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AT16" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AU16" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AW16" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AX16" t="n">
         <v>7.8</v>
       </c>
       <c r="AY16" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="BB16" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="BC16" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="BD16" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="BE16" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="BF16" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -3663,179 +3663,179 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.2</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="T17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN17" t="n">
         <v>3.75</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.6</v>
+        <v>15.5</v>
       </c>
       <c r="AS17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX17" t="n">
         <v>7.8</v>
       </c>
-      <c r="AT17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AY17" t="n">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="BB17" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="BC17" t="n">
-        <v>6.4</v>
+        <v>12.5</v>
       </c>
       <c r="BD17" t="n">
-        <v>7.2</v>
+        <v>27</v>
       </c>
       <c r="BE17" t="n">
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="BF17" t="n">
-        <v>13.5</v>
+        <v>3.4</v>
       </c>
       <c r="BG17" t="n">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.14</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>1.15</v>
+        <v>2.24</v>
       </c>
       <c r="H18" t="n">
-        <v>24</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>32</v>
+        <v>3.95</v>
       </c>
       <c r="J18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
         <v>10</v>
       </c>
-      <c r="K18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>340</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>430</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ18" t="n">
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="AS18" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>11</v>
+        <v>5.8</v>
       </c>
       <c r="AW18" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AX18" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AY18" t="n">
-        <v>12.5</v>
+        <v>5.3</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="BA18" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="BB18" t="n">
         <v>6.8</v>
       </c>
       <c r="BC18" t="n">
-        <v>13</v>
+        <v>6.4</v>
       </c>
       <c r="BD18" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="BE18" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.76</v>
+        <v>13.5</v>
       </c>
       <c r="BG18" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -4051,186 +4051,186 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="G19" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="H19" t="n">
+        <v>24</v>
+      </c>
+      <c r="I19" t="n">
+        <v>32</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>340</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>420</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP19" t="n">
         <v>10.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ19" t="n">
+      <c r="AQ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS19" t="n">
         <v>12</v>
       </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>8</v>
-      </c>
       <c r="AT19" t="n">
-        <v>4.9</v>
+        <v>9.4</v>
       </c>
       <c r="AU19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW19" t="n">
         <v>12</v>
       </c>
-      <c r="AV19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AX19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AY19" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AZ19" t="n">
+        <v>48</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BB19" t="n">
         <v>6.8</v>
       </c>
-      <c r="BA19" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BC19" t="n">
-        <v>5.9</v>
+        <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>7.2</v>
+        <v>48</v>
       </c>
       <c r="BE19" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="BF19" t="n">
-        <v>4.1</v>
+        <v>2.76</v>
       </c>
       <c r="BG19" t="n">
-        <v>4.7</v>
+        <v>12</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4240,184 +4240,184 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.87</v>
+        <v>1.3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.8</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>6.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>2.86</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>1.63</v>
+        <v>2.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>1.59</v>
       </c>
       <c r="R20" t="n">
-        <v>1.22</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>4.9</v>
+        <v>2.48</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>12</v>
       </c>
-      <c r="Y20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
         <v>190</v>
       </c>
-      <c r="AB20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AN20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AR20" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>8</v>
       </c>
       <c r="AT20" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>18.5</v>
+        <v>7.6</v>
       </c>
       <c r="AW20" t="n">
         <v>7.8</v>
       </c>
       <c r="AX20" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AY20" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BB20" t="n">
-        <v>18.5</v>
+        <v>5.2</v>
       </c>
       <c r="BC20" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
-        <v>7.2</v>
+        <v>27</v>
       </c>
       <c r="BE20" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BF20" t="n">
-        <v>14.5</v>
+        <v>4.2</v>
       </c>
       <c r="BG20" t="n">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -4439,186 +4439,186 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.45</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>3.85</v>
+        <v>1.94</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N21" t="n">
         <v>2.86</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.38</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="R21" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="U21" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX21" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AY21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD21" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY21" t="n">
+      <c r="BE21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BC21" t="n">
+      <c r="BG21" t="n">
         <v>8</v>
       </c>
-      <c r="BD21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>7.8</v>
-      </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4628,184 +4628,184 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS22" t="n">
         <v>5.1</v>
       </c>
-      <c r="I22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AT22" t="n">
-        <v>2.74</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU22" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV22" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.2</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>3.4</v>
+        <v>14.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="BA22" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="BB22" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="BC22" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="BD22" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="BE22" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BF22" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="BG22" t="n">
-        <v>4.5</v>
+        <v>34</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -4827,186 +4827,186 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>1.59</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
       </c>
       <c r="K23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY23" t="n">
         <v>3.4</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AZ23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BC23" t="n">
         <v>4</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>4.1</v>
       </c>
       <c r="BD23" t="n">
         <v>4.3</v>
       </c>
       <c r="BE23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BF23" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="BG23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5016,75 +5016,75 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="O24" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S24" t="n">
         <v>1.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="U24" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -5096,10 +5096,10 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -5138,69 +5138,69 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="AY24" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BA24" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BE24" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BF24" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5210,191 +5210,191 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>1.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.82</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>1.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AR25" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AS25" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AT25" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.8</v>
+        <v>1.01</v>
       </c>
       <c r="AV25" t="n">
-        <v>13.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW25" t="n">
-        <v>38</v>
+        <v>1.01</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AY25" t="n">
-        <v>9.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ25" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="BA25" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="BB25" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="BC25" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="BD25" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BE25" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="BF25" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="BG25" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5409,186 +5409,186 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="H26" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>1.08</v>
+        <v>3.35</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.08</v>
+        <v>1.82</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R26" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AU26" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AV26" t="n">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="AW26" t="n">
-        <v>1.01</v>
+        <v>42</v>
       </c>
       <c r="AX26" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BB26" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BC26" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="BD26" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BE26" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BF26" t="n">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="BG26" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5598,184 +5598,184 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="G27" t="n">
-        <v>1.56</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>8.6</v>
+        <v>1.04</v>
       </c>
       <c r="I27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L27" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>1.03</v>
       </c>
       <c r="O27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1.43</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.28</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="S27" t="n">
-        <v>4.2</v>
+        <v>1.43</v>
       </c>
       <c r="T27" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AP27" t="n">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AQ27" t="n">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="AR27" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="AT27" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV27" t="n">
-        <v>7.4</v>
+        <v>1.01</v>
       </c>
       <c r="AW27" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AX27" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AY27" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AZ27" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BA27" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BB27" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="BC27" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BD27" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BE27" t="n">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="BF27" t="n">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="BG27" t="n">
-        <v>9</v>
+        <v>1.01</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
@@ -5797,186 +5797,186 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CA Huracan</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.95</v>
+        <v>1.5</v>
       </c>
       <c r="G28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.4</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.96</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M28" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="P28" t="n">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="U28" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="V28" t="n">
-        <v>1.64</v>
+        <v>1.11</v>
       </c>
       <c r="W28" t="n">
-        <v>1.29</v>
+        <v>2.78</v>
       </c>
       <c r="X28" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="Z28" t="n">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="AA28" t="n">
-        <v>42</v>
+        <v>510</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="n">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>980</v>
       </c>
       <c r="AI28" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AJ28" t="n">
-        <v>140</v>
+        <v>14.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="AN28" t="n">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AP28" t="n">
-        <v>5.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5.4</v>
+        <v>18.5</v>
       </c>
       <c r="AR28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BB28" t="n">
         <v>11.5</v>
       </c>
-      <c r="AS28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>12</v>
-      </c>
       <c r="BC28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BD28" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="BE28" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF28" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="BG28" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5986,191 +5986,191 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Estudiantes Rio Cuarto</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Defensor Sporting</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.04</v>
+        <v>3.95</v>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>2.58</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>2.94</v>
       </c>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>1.76</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="O29" t="n">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="P29" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>2.56</v>
       </c>
       <c r="U29" t="n">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="W29" t="n">
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="AR29" t="n">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>4.9</v>
+        <v>10</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.35</v>
+        <v>8</v>
       </c>
       <c r="AU29" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV29" t="n">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.8</v>
+        <v>40</v>
       </c>
       <c r="AX29" t="n">
-        <v>3.8</v>
+        <v>18.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>3.65</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="BA29" t="n">
-        <v>4.9</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
-        <v>4.4</v>
+        <v>12</v>
       </c>
       <c r="BC29" t="n">
-        <v>4.4</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
-        <v>4.7</v>
+        <v>12.5</v>
       </c>
       <c r="BE29" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BF29" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>4.9</v>
+        <v>11</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6180,72 +6180,72 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lobos UPNFM</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>2.38</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.34</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S30" t="n">
-        <v>1.35</v>
+        <v>2.28</v>
       </c>
       <c r="T30" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="U30" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -6260,10 +6260,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -6302,69 +6302,69 @@
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AY30" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AZ30" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BA30" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BB30" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BC30" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BD30" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BE30" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="BF30" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BG30" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6374,60 +6374,60 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P31" t="n">
         <v>1.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="T31" t="n">
         <v>1.05</v>
@@ -6551,14 +6551,14 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6568,378 +6568,572 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.77</v>
+        <v>1.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>3.8</v>
+        <v>1.05</v>
       </c>
       <c r="T32" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="U32" t="n">
-        <v>1.69</v>
+        <v>1.05</v>
       </c>
       <c r="V32" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="AR32" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="AT32" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AU32" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="AV32" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="AX32" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="AY32" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="AZ32" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="BA32" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="BB32" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="BC32" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="BD32" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="BE32" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="BF32" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="BG32" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 05:24:15</t>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="X33" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>2026-02-25 07:31:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>2026-02-26</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>CD Marathon</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Genesis Huracan</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="F34" t="n">
         <v>1.04</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>1.95</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>2.1</v>
       </c>
-      <c r="I33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J34" t="n">
         <v>2.08</v>
       </c>
-      <c r="K33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="K34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O34" t="n">
         <v>1.25</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P34" t="n">
         <v>1.08</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q34" t="n">
         <v>1.25</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R34" t="n">
         <v>1.08</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S34" t="n">
         <v>1.25</v>
       </c>
-      <c r="T33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W33" t="n">
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W34" t="n">
         <v>2.04</v>
       </c>
-      <c r="X33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BH33" t="inlineStr">
-        <is>
-          <t>2026-02-25 05:24:15</t>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>2026-02-25 07:31:48</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,58 +762,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.08</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
         <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.35</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>1.35</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -870,62 +870,62 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G3" t="n">
         <v>1.6</v>
@@ -971,7 +971,7 @@
         <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -986,10 +986,10 @@
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
         <v>1.47</v>
@@ -1013,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -1022,7 +1022,7 @@
         <v>230</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
         <v>12</v>
@@ -1037,7 +1037,7 @@
         <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
@@ -1058,7 +1058,7 @@
         <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -1070,10 +1070,10 @@
         <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AS3" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="AT3" t="n">
         <v>8.199999999999999</v>
@@ -1085,19 +1085,19 @@
         <v>19.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>8.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>19.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1106,20 +1106,20 @@
         <v>13.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="BE3" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF3" t="n">
         <v>6.2</v>
       </c>
       <c r="BG3" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
         <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
@@ -1171,16 +1171,16 @@
         <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -1189,10 +1189,10 @@
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1201,10 +1201,10 @@
         <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
         <v>16</v>
@@ -1243,7 +1243,7 @@
         <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1258,7 +1258,7 @@
         <v>60</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AT4" t="n">
         <v>8.199999999999999</v>
@@ -1279,7 +1279,7 @@
         <v>13.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.2</v>
+        <v>38</v>
       </c>
       <c r="AX4" t="n">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16</v>
+        <v>4.5</v>
       </c>
       <c r="BA4" t="n">
         <v>42</v>
@@ -1300,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="BD4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BE4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="BF4" t="n">
         <v>13</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
         <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
         <v>14</v>
@@ -1374,16 +1374,16 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
         <v>2.24</v>
@@ -1410,7 +1410,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
         <v>15.5</v>
@@ -1422,16 +1422,16 @@
         <v>290</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1446,7 +1446,7 @@
         <v>250</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1455,13 +1455,13 @@
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
         <v>7.4</v>
@@ -1470,10 +1470,10 @@
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1485,7 +1485,7 @@
         <v>28</v>
       </c>
       <c r="BA5" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
@@ -1494,20 +1494,20 @@
         <v>13.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="BE5" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="BF5" t="n">
         <v>4.8</v>
       </c>
       <c r="BG5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H6" t="n">
         <v>11.5</v>
@@ -1619,10 +1619,10 @@
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
         <v>170</v>
@@ -1649,13 +1649,13 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1667,7 +1667,7 @@
         <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AX6" t="n">
         <v>7.6</v>
@@ -1679,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB6" t="n">
         <v>9.199999999999999</v>
@@ -1688,20 +1688,20 @@
         <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BE6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF6" t="n">
         <v>3.95</v>
       </c>
       <c r="BG6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>2.86</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
         <v>2.64</v>
@@ -1756,16 +1756,16 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.41</v>
@@ -1774,7 +1774,7 @@
         <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
         <v>2.28</v>
@@ -1783,7 +1783,7 @@
         <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
         <v>14.5</v>
@@ -1798,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1816,7 +1816,7 @@
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
         <v>38</v>
@@ -1834,7 +1834,7 @@
         <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>22</v>
@@ -1843,7 +1843,7 @@
         <v>13.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
         <v>16.5</v>
@@ -1855,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -1947,10 +1947,10 @@
         <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
         <v>1.43</v>
@@ -2055,7 +2055,7 @@
         <v>15</v>
       </c>
       <c r="AW8" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AX8" t="n">
         <v>10.5</v>
@@ -2067,7 +2067,7 @@
         <v>18</v>
       </c>
       <c r="BA8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BB8" t="n">
         <v>22</v>
@@ -2076,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="BD8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BE8" t="n">
         <v>12.5</v>
@@ -2085,11 +2085,11 @@
         <v>18.5</v>
       </c>
       <c r="BG8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
         <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
         <v>8.4</v>
@@ -2135,13 +2135,13 @@
         <v>5.8</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>7.4</v>
@@ -2156,10 +2156,10 @@
         <v>1.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.69</v>
@@ -2174,13 +2174,13 @@
         <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="n">
         <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
         <v>280</v>
@@ -2204,7 +2204,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>70</v>
@@ -2222,7 +2222,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO9" t="n">
         <v>65</v>
@@ -2237,7 +2237,7 @@
         <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AT9" t="n">
         <v>13</v>
@@ -2261,7 +2261,7 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB9" t="n">
         <v>11.5</v>
@@ -2273,17 +2273,17 @@
         <v>22</v>
       </c>
       <c r="BE9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BF9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BG9" t="n">
         <v>55</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
@@ -2359,7 +2359,7 @@
         <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>1.19</v>
@@ -2386,7 +2386,7 @@
         <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>80</v>
@@ -2419,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2446,7 +2446,7 @@
         <v>65</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>9.199999999999999</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -2702,10 +2702,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H12" t="n">
         <v>4.4</v>
@@ -2714,46 +2714,46 @@
         <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
         <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
         <v>17.5</v>
@@ -2762,7 +2762,7 @@
         <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
@@ -2777,95 +2777,95 @@
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
         <v>13.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>23</v>
       </c>
-      <c r="AI12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>25</v>
-      </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP12" t="n">
         <v>15</v>
       </c>
-      <c r="AO12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="AR12" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AT12" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.3</v>
+        <v>17</v>
       </c>
       <c r="BC12" t="n">
-        <v>4.3</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="BE12" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="BF12" t="n">
         <v>10</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
         <v>1.76</v>
       </c>
       <c r="H13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I13" t="n">
         <v>5.7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
@@ -2935,16 +2935,16 @@
         <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
         <v>2.32</v>
@@ -2962,7 +2962,7 @@
         <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
         <v>8.6</v>
@@ -2983,7 +2983,7 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
         <v>17</v>
@@ -2992,25 +2992,25 @@
         <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AP13" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AR13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AS13" t="n">
         <v>42</v>
@@ -3025,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AX13" t="n">
         <v>9.199999999999999</v>
@@ -3055,11 +3055,11 @@
         <v>11</v>
       </c>
       <c r="BG13" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
         <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>3.45</v>
@@ -3126,7 +3126,7 @@
         <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
         <v>3.35</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -3284,70 +3284,70 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H15" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
@@ -3356,55 +3356,55 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AR15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS15" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AT15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU15" t="n">
         <v>9.800000000000001</v>
@@ -3413,41 +3413,41 @@
         <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AX15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY15" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="BC15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BD15" t="n">
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="BF15" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="BG15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -3481,37 +3481,37 @@
         <v>1.47</v>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H16" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
         <v>2.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
         <v>1.44</v>
@@ -3520,16 +3520,16 @@
         <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U16" t="n">
         <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -3550,7 +3550,7 @@
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE16" t="n">
         <v>140</v>
@@ -3559,7 +3559,7 @@
         <v>8.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
         <v>26</v>
@@ -3583,7 +3583,7 @@
         <v>7</v>
       </c>
       <c r="AO16" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AP16" t="n">
         <v>16</v>
@@ -3598,7 +3598,7 @@
         <v>110</v>
       </c>
       <c r="AT16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>42</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AY16" t="n">
         <v>9.4</v>
@@ -3631,7 +3631,7 @@
         <v>32</v>
       </c>
       <c r="BE16" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BF16" t="n">
         <v>6.6</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -3672,16 +3672,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I17" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J17" t="n">
         <v>7</v>
@@ -3702,28 +3702,28 @@
         <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
         <v>1.74</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T17" t="n">
         <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
@@ -3744,10 +3744,10 @@
         <v>16.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE17" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF17" t="n">
         <v>9</v>
@@ -3759,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.800000000000001</v>
@@ -3771,7 +3771,7 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
         <v>3.75</v>
@@ -3786,13 +3786,13 @@
         <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AU17" t="n">
         <v>14.5</v>
@@ -3801,7 +3801,7 @@
         <v>34</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
         <v>7.8</v>
@@ -3813,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>8.4</v>
@@ -3822,20 +3822,20 @@
         <v>12.5</v>
       </c>
       <c r="BD17" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG17" t="n">
         <v>15.5</v>
       </c>
-      <c r="BF17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>16</v>
-      </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -3890,19 +3890,19 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
         <v>1.94</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
         <v>3.45</v>
@@ -3980,10 +3980,10 @@
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AS18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AT18" t="n">
         <v>8.199999999999999</v>
@@ -3995,10 +3995,10 @@
         <v>5.8</v>
       </c>
       <c r="AW18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AY18" t="n">
         <v>5.3</v>
@@ -4007,29 +4007,29 @@
         <v>6</v>
       </c>
       <c r="BA18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BB18" t="n">
         <v>6.8</v>
       </c>
       <c r="BC18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="BD18" t="n">
         <v>7.2</v>
       </c>
       <c r="BE18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BF18" t="n">
         <v>13.5</v>
       </c>
       <c r="BG18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -4066,16 +4066,16 @@
         <v>1.15</v>
       </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.23</v>
@@ -4084,25 +4084,25 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="U19" t="n">
         <v>1.56</v>
@@ -4111,28 +4111,28 @@
         <v>1.03</v>
       </c>
       <c r="W19" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="X19" t="n">
         <v>38</v>
       </c>
       <c r="Y19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z19" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD19" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -4141,28 +4141,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -4171,7 +4171,7 @@
         <v>10.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
         <v>11.5</v>
@@ -4180,13 +4180,13 @@
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
         <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
@@ -4204,26 +4204,26 @@
         <v>11.5</v>
       </c>
       <c r="BB19" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="BC19" t="n">
         <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="BE19" t="n">
         <v>11.5</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="BG19" t="n">
         <v>12</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
         <v>14</v>
@@ -4278,7 +4278,7 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
@@ -4287,13 +4287,13 @@
         <v>2.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
         <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T20" t="n">
         <v>2.06</v>
@@ -4305,7 +4305,7 @@
         <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -4335,7 +4335,7 @@
         <v>8.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
         <v>1000</v>
@@ -4344,7 +4344,7 @@
         <v>170</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
@@ -4362,16 +4362,16 @@
         <v>1000</v>
       </c>
       <c r="AP20" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS20" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AT20" t="n">
         <v>8.800000000000001</v>
@@ -4380,10 +4380,10 @@
         <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AX20" t="n">
         <v>7.4</v>
@@ -4392,13 +4392,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="BA20" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB20" t="n">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4407,17 +4407,17 @@
         <v>27</v>
       </c>
       <c r="BE20" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF20" t="n">
         <v>4.2</v>
       </c>
       <c r="BG20" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.53</v>
@@ -4472,7 +4472,7 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
         <v>1.49</v>
@@ -4493,10 +4493,10 @@
         <v>2.12</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
         <v>2.06</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
         <v>3.5</v>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H22" t="n">
         <v>2.5</v>
@@ -4690,10 +4690,10 @@
         <v>1.71</v>
       </c>
       <c r="V22" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X22" t="n">
         <v>8.6</v>
@@ -4708,7 +4708,7 @@
         <v>48</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
@@ -4759,7 +4759,7 @@
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AT22" t="n">
         <v>8.199999999999999</v>
@@ -4771,41 +4771,41 @@
         <v>11.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX22" t="n">
         <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BA22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BB22" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="BC22" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="BD22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BE22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF22" t="n">
         <v>5.5</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>5.4</v>
       </c>
       <c r="BG22" t="n">
         <v>34</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>1.59</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H23" t="n">
         <v>5.1</v>
@@ -4887,7 +4887,7 @@
         <v>1.11</v>
       </c>
       <c r="W23" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -4944,25 +4944,25 @@
         <v>1000</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AR23" t="n">
         <v>4.3</v>
       </c>
       <c r="AS23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="AU23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AV23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AW23" t="n">
         <v>4.5</v>
@@ -4971,7 +4971,7 @@
         <v>3.2</v>
       </c>
       <c r="AY23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AZ23" t="n">
         <v>4.1</v>
@@ -4986,20 +4986,20 @@
         <v>4</v>
       </c>
       <c r="BD23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BF23" t="n">
         <v>3.9</v>
       </c>
       <c r="BG23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
         <v>2.16</v>
       </c>
       <c r="G24" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
@@ -5042,13 +5042,13 @@
         <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M24" t="n">
         <v>1.14</v>
@@ -5057,7 +5057,7 @@
         <v>2.34</v>
       </c>
       <c r="O24" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P24" t="n">
         <v>1.46</v>
@@ -5069,7 +5069,7 @@
         <v>1.16</v>
       </c>
       <c r="S24" t="n">
-        <v>1.05</v>
+        <v>5.2</v>
       </c>
       <c r="T24" t="n">
         <v>2.24</v>
@@ -5081,7 +5081,7 @@
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X24" t="n">
         <v>9.199999999999999</v>
@@ -5141,22 +5141,22 @@
         <v>3</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AR24" t="n">
         <v>4</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AW24" t="n">
         <v>4.3</v>
@@ -5171,29 +5171,29 @@
         <v>3.95</v>
       </c>
       <c r="BA24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BB24" t="n">
         <v>4</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BD24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE24" t="n">
         <v>4.4</v>
       </c>
       <c r="BF24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -5418,13 +5418,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
         <v>4.1</v>
@@ -5451,16 +5451,16 @@
         <v>1.82</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R26" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
         <v>2.02</v>
@@ -5469,13 +5469,13 @@
         <v>1.32</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
         <v>980</v>
@@ -5532,10 +5532,10 @@
         <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AS26" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT26" t="n">
         <v>7.8</v>
@@ -5547,7 +5547,7 @@
         <v>13.5</v>
       </c>
       <c r="AW26" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
@@ -5556,32 +5556,32 @@
         <v>9.6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BA26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BB26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC26" t="n">
         <v>6.8</v>
       </c>
-      <c r="BC26" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BD26" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BE26" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF26" t="n">
         <v>14.5</v>
       </c>
       <c r="BG26" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.02</v>
@@ -5654,10 +5654,10 @@
         <v>1.43</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
         <v>1.01</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -5809,7 +5809,7 @@
         <v>1.5</v>
       </c>
       <c r="G28" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H28" t="n">
         <v>8.6</v>
@@ -5836,7 +5836,7 @@
         <v>1.43</v>
       </c>
       <c r="P28" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q28" t="n">
         <v>2.28</v>
@@ -5845,10 +5845,10 @@
         <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U28" t="n">
         <v>1.63</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -6000,22 +6000,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>4.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I29" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="J29" t="n">
         <v>2.76</v>
       </c>
       <c r="K29" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L29" t="n">
         <v>1.76</v>
@@ -6039,16 +6039,16 @@
         <v>1.12</v>
       </c>
       <c r="S29" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U29" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W29" t="n">
         <v>1.29</v>
@@ -6057,7 +6057,7 @@
         <v>6.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z29" t="n">
         <v>13.5</v>
@@ -6117,7 +6117,7 @@
         <v>11.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AT29" t="n">
         <v>8</v>
@@ -6129,7 +6129,7 @@
         <v>12.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AX29" t="n">
         <v>18.5</v>
@@ -6138,32 +6138,32 @@
         <v>18</v>
       </c>
       <c r="AZ29" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="BE29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BF29" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H30" t="n">
         <v>3.55</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -6224,28 +6224,28 @@
         <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R30" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>2.28</v>
+        <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
         <v>1.96</v>
       </c>
       <c r="V30" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W30" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -6878,7 +6878,7 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -6887,49 +6887,49 @@
         <v>4.1</v>
       </c>
       <c r="AQ33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AR33" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AS33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA33" t="n">
         <v>5.4</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>5.3</v>
       </c>
       <c r="BB33" t="n">
         <v>4.1</v>
       </c>
       <c r="BC33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BD33" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BE33" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BF33" t="n">
         <v>8</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 07:31:48</t>
+          <t>2026-02-25 09:39:52</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -774,10 +774,10 @@
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -786,28 +786,28 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
@@ -882,7 +882,7 @@
         <v>4.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="AU2" t="n">
         <v>3.05</v>
@@ -918,14 +918,14 @@
         <v>4.2</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="BG2" t="n">
         <v>4.1</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
@@ -989,13 +989,13 @@
         <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
         <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T3" t="n">
         <v>1.84</v>
@@ -1007,7 +1007,7 @@
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
         <v>25</v>
@@ -1040,7 +1040,7 @@
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
         <v>85</v>
@@ -1070,7 +1070,7 @@
         <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS3" t="n">
         <v>8.4</v>
@@ -1082,7 +1082,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AV3" t="n">
-        <v>19.5</v>
+        <v>7.4</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -1097,7 +1097,7 @@
         <v>19.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1106,7 +1106,7 @@
         <v>13.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE3" t="n">
         <v>8.199999999999999</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G4" t="n">
         <v>2.28</v>
@@ -1162,7 +1162,7 @@
         <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
@@ -1174,16 +1174,16 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
@@ -1204,7 +1204,7 @@
         <v>1.78</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
         <v>16</v>
@@ -1219,7 +1219,7 @@
         <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>17</v>
@@ -1240,10 +1240,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1255,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1267,10 +1267,10 @@
         <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AT4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
@@ -1288,7 +1288,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="BA4" t="n">
         <v>42</v>
@@ -1300,20 +1300,20 @@
         <v>20</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="BE4" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="BF4" t="n">
         <v>13</v>
       </c>
       <c r="BG4" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G5" t="n">
         <v>1.36</v>
@@ -1353,7 +1353,7 @@
         <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1392,7 +1392,7 @@
         <v>1.72</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
         <v>3.8</v>
@@ -1455,10 +1455,10 @@
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AR5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -1547,10 +1547,10 @@
         <v>11.5</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="K6" t="n">
         <v>6.6</v>
@@ -1586,10 +1586,10 @@
         <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1607,7 +1607,7 @@
         <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
@@ -1649,13 +1649,13 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS6" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1667,7 +1667,7 @@
         <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AX6" t="n">
         <v>7.6</v>
@@ -1679,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BB6" t="n">
         <v>9.199999999999999</v>
@@ -1688,20 +1688,20 @@
         <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BE6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BF6" t="n">
         <v>3.95</v>
       </c>
       <c r="BG6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G7" t="n">
         <v>2.88</v>
@@ -1741,10 +1741,10 @@
         <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
@@ -1765,7 +1765,7 @@
         <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
         <v>1.41</v>
@@ -1774,19 +1774,19 @@
         <v>3.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
         <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W7" t="n">
         <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1798,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1876,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="BB7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
         <v>2.16</v>
@@ -1935,13 +1935,13 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1950,13 +1950,13 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
         <v>2.32</v>
@@ -1974,40 +1974,40 @@
         <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
         <v>1.86</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
         <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -2016,7 +2016,7 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
         <v>26</v>
@@ -2025,71 +2025,71 @@
         <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AP8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AQ8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AT8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU8" t="n">
         <v>7</v>
       </c>
-      <c r="AU8" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AV8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AW8" t="n">
         <v>50</v>
       </c>
       <c r="AX8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>44</v>
+      </c>
+      <c r="BE8" t="n">
         <v>18</v>
       </c>
-      <c r="BA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BF8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BG8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -2150,16 +2150,16 @@
         <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q9" t="n">
         <v>1.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T9" t="n">
         <v>1.69</v>
@@ -2174,13 +2174,13 @@
         <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="n">
         <v>280</v>
@@ -2198,16 +2198,16 @@
         <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2231,22 +2231,22 @@
         <v>30</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AR9" t="n">
         <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AT9" t="n">
         <v>13</v>
       </c>
       <c r="AU9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
         <v>75</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
@@ -2356,10 +2356,10 @@
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.19</v>
@@ -2437,7 +2437,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>20</v>
@@ -2473,11 +2473,11 @@
         <v>8.4</v>
       </c>
       <c r="BG10" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
         <v>13</v>
@@ -2541,13 +2541,13 @@
         <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T11" t="n">
         <v>2.1</v>
@@ -2604,7 +2604,7 @@
         <v>230</v>
       </c>
       <c r="AL11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AM11" t="n">
         <v>190</v>
@@ -2616,7 +2616,7 @@
         <v>5.1</v>
       </c>
       <c r="AP11" t="n">
-        <v>8.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>8</v>
@@ -2628,7 +2628,7 @@
         <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
@@ -2643,7 +2643,7 @@
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AZ11" t="n">
         <v>9.4</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.33</v>
@@ -2726,37 +2726,37 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
         <v>2.06</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>19</v>
@@ -2765,7 +2765,7 @@
         <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
@@ -2774,16 +2774,16 @@
         <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2798,13 +2798,13 @@
         <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO12" t="n">
         <v>60</v>
@@ -2813,16 +2813,16 @@
         <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="AR12" t="n">
         <v>30</v>
       </c>
       <c r="AS12" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="AT12" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2831,7 +2831,7 @@
         <v>14.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2843,29 +2843,29 @@
         <v>15.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>5.9</v>
       </c>
       <c r="BC12" t="n">
         <v>16</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.5</v>
+        <v>27</v>
       </c>
       <c r="BE12" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="BF12" t="n">
         <v>10</v>
       </c>
       <c r="BG12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>1.76</v>
       </c>
       <c r="H13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
         <v>5.7</v>
@@ -2911,7 +2911,7 @@
         <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
@@ -2920,16 +2920,16 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
         <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
         <v>1.34</v>
@@ -2938,7 +2938,7 @@
         <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>1.94</v>
@@ -2947,13 +2947,13 @@
         <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
         <v>42</v>
@@ -2968,13 +2968,13 @@
         <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG13" t="n">
         <v>9.6</v>
@@ -2986,7 +2986,7 @@
         <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK13" t="n">
         <v>18</v>
@@ -3004,7 +3004,7 @@
         <v>95</v>
       </c>
       <c r="AP13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>17</v>
@@ -3025,10 +3025,10 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>9.4</v>
@@ -3037,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
         <v>16</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.85</v>
@@ -3123,10 +3123,10 @@
         <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
         <v>3.35</v>
@@ -3135,16 +3135,16 @@
         <v>1.77</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
         <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
         <v>14</v>
@@ -3159,7 +3159,7 @@
         <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
         <v>14</v>
@@ -3195,7 +3195,7 @@
         <v>16.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP14" t="n">
         <v>14.5</v>
@@ -3213,7 +3213,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>13.5</v>
@@ -3228,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA14" t="n">
         <v>42</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -3284,16 +3284,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G15" t="n">
         <v>1.52</v>
       </c>
       <c r="H15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
         <v>4.8</v>
@@ -3320,7 +3320,7 @@
         <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
         <v>2.8</v>
@@ -3332,7 +3332,7 @@
         <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
         <v>2.92</v>
@@ -3341,25 +3341,25 @@
         <v>19.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
         <v>9.199999999999999</v>
@@ -3371,16 +3371,16 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>14.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>130</v>
@@ -3389,7 +3389,7 @@
         <v>6.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AP15" t="n">
         <v>18.5</v>
@@ -3401,16 +3401,16 @@
         <v>55</v>
       </c>
       <c r="AS15" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AT15" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
         <v>85</v>
@@ -3425,10 +3425,10 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BB15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
         <v>13.5</v>
@@ -3437,17 +3437,17 @@
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="BF15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BG15" t="n">
         <v>80</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -3490,16 +3490,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>4.3</v>
@@ -3523,13 +3523,13 @@
         <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X16" t="n">
         <v>17.5</v>
@@ -3559,7 +3559,7 @@
         <v>8.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH16" t="n">
         <v>26</v>
@@ -3586,7 +3586,7 @@
         <v>170</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>23</v>
@@ -3610,7 +3610,7 @@
         <v>42</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY16" t="n">
         <v>9.4</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
         <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I17" t="n">
         <v>16.5</v>
@@ -3705,7 +3705,7 @@
         <v>2.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R17" t="n">
         <v>1.74</v>
@@ -3738,7 +3738,7 @@
         <v>640</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>16.5</v>
@@ -3747,7 +3747,7 @@
         <v>55</v>
       </c>
       <c r="AE17" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF17" t="n">
         <v>9</v>
@@ -3783,16 +3783,16 @@
         <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AR17" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AU17" t="n">
         <v>14.5</v>
@@ -3801,7 +3801,7 @@
         <v>34</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>7.8</v>
@@ -3813,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="BB17" t="n">
         <v>8.4</v>
@@ -3825,17 +3825,17 @@
         <v>32</v>
       </c>
       <c r="BE17" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="BF17" t="n">
         <v>3.35</v>
       </c>
       <c r="BG17" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="G19" t="n">
         <v>1.15</v>
@@ -4069,13 +4069,13 @@
         <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1.23</v>
@@ -4084,25 +4084,25 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
         <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="U19" t="n">
         <v>1.56</v>
@@ -4111,7 +4111,7 @@
         <v>1.03</v>
       </c>
       <c r="W19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X19" t="n">
         <v>38</v>
@@ -4120,7 +4120,7 @@
         <v>85</v>
       </c>
       <c r="Z19" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -4138,46 +4138,46 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="AJ19" t="n">
         <v>7.6</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR19" t="n">
         <v>11.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AT19" t="n">
         <v>10</v>
@@ -4186,10 +4186,10 @@
         <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AX19" t="n">
         <v>6.8</v>
@@ -4204,26 +4204,26 @@
         <v>11.5</v>
       </c>
       <c r="BB19" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BC19" t="n">
         <v>13</v>
       </c>
       <c r="BD19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE19" t="n">
         <v>11</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BF19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BG19" t="n">
         <v>11.5</v>
       </c>
-      <c r="BF19" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>12</v>
-      </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
         <v>1.3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H20" t="n">
         <v>11</v>
@@ -4386,7 +4386,7 @@
         <v>8.4</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AY20" t="n">
         <v>9.800000000000001</v>
@@ -4398,7 +4398,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="BC20" t="n">
         <v>6</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -4457,7 +4457,7 @@
         <v>5.3</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
@@ -4496,7 +4496,7 @@
         <v>1.74</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
         <v>2.06</v>
@@ -4559,7 +4559,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>5.3</v>
       </c>
       <c r="AR21" t="n">
         <v>7</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G22" t="n">
         <v>3.85</v>
@@ -4651,10 +4651,10 @@
         <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K22" t="n">
         <v>3.05</v>
@@ -4801,11 +4801,11 @@
         <v>5.5</v>
       </c>
       <c r="BG22" t="n">
-        <v>34</v>
+        <v>5.3</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G23" t="n">
         <v>2.04</v>
@@ -4845,13 +4845,13 @@
         <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.51</v>
@@ -4860,7 +4860,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -4887,7 +4887,7 @@
         <v>1.11</v>
       </c>
       <c r="W23" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
         <v>2.34</v>
       </c>
       <c r="O24" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="P24" t="n">
         <v>1.46</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -5421,13 +5421,13 @@
         <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
         <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -5442,10 +5442,10 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P26" t="n">
         <v>1.82</v>
@@ -5454,7 +5454,7 @@
         <v>2.06</v>
       </c>
       <c r="R26" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S26" t="n">
         <v>3.75</v>
@@ -5466,10 +5466,10 @@
         <v>2.02</v>
       </c>
       <c r="V26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -5645,13 +5645,13 @@
         <v>1.08</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R27" t="n">
         <v>1.08</v>
       </c>
       <c r="S27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
         <v>1.05</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -5842,13 +5842,13 @@
         <v>2.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
         <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="U28" t="n">
         <v>1.63</v>
@@ -5878,7 +5878,7 @@
         <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
         <v>260</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
         <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H30" t="n">
         <v>3.55</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
         <v>1.1</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G33" t="n">
         <v>1.56</v>
@@ -6788,13 +6788,13 @@
         <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -6824,7 +6824,7 @@
         <v>1.69</v>
       </c>
       <c r="V33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W33" t="n">
         <v>2.78</v>
@@ -6854,10 +6854,10 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
         <v>36</v>
@@ -6878,68 +6878,68 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="AQ33" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="AR33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BC33" t="n">
         <v>5.4</v>
       </c>
-      <c r="AS33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BD33" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="BE33" t="n">
-        <v>5.5</v>
+        <v>2.76</v>
       </c>
       <c r="BF33" t="n">
         <v>8</v>
       </c>
       <c r="BG33" t="n">
-        <v>5.3</v>
+        <v>1.87</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -7003,7 +7003,7 @@
         <v>1.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="R34" t="n">
         <v>1.08</v>
@@ -7012,10 +7012,10 @@
         <v>1.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V34" t="n">
         <v>1.01</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 09:39:52</t>
+          <t>2026-02-25 11:47:56</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -870,10 +870,10 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AR2" t="n">
         <v>3.95</v>
@@ -882,34 +882,34 @@
         <v>4.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AW2" t="n">
         <v>4.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AY2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="BA2" t="n">
         <v>4.1</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BD2" t="n">
         <v>3.95</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>1.55</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
@@ -980,16 +980,16 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
         <v>1.47</v>
@@ -1001,16 +1001,16 @@
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -1025,7 +1025,7 @@
         <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -1052,7 +1052,7 @@
         <v>16.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>140</v>
@@ -1064,16 +1064,16 @@
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>19</v>
       </c>
       <c r="AR3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS3" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>8.4</v>
       </c>
       <c r="AT3" t="n">
         <v>8.199999999999999</v>
@@ -1082,22 +1082,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AV3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AX3" t="n">
         <v>8.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
         <v>19.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1106,20 +1106,20 @@
         <v>13.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="BE3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BF3" t="n">
         <v>6.2</v>
       </c>
       <c r="BG3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -1174,13 +1174,13 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
         <v>2.06</v>
@@ -1189,7 +1189,7 @@
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
@@ -1198,19 +1198,19 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.78</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1228,7 +1228,7 @@
         <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
@@ -1267,7 +1267,7 @@
         <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AT4" t="n">
         <v>8</v>
@@ -1288,7 +1288,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="BA4" t="n">
         <v>42</v>
@@ -1300,20 +1300,20 @@
         <v>20</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="BE4" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="BF4" t="n">
         <v>13</v>
       </c>
       <c r="BG4" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
         <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.35</v>
@@ -1374,7 +1374,7 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1383,10 +1383,10 @@
         <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U5" t="n">
         <v>1.72</v>
@@ -1395,85 +1395,85 @@
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>36</v>
       </c>
       <c r="Z5" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT5" t="n">
         <v>7.8</v>
       </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>6.2</v>
+        <v>28</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1485,7 +1485,7 @@
         <v>28</v>
       </c>
       <c r="BA5" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
@@ -1494,20 +1494,20 @@
         <v>13.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="BE5" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BG5" t="n">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -1547,10 +1547,10 @@
         <v>11.5</v>
       </c>
       <c r="I6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
         <v>6.6</v>
@@ -1583,13 +1583,13 @@
         <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1601,7 +1601,7 @@
         <v>140</v>
       </c>
       <c r="AA6" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>10.5</v>
@@ -1655,7 +1655,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AS6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1679,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB6" t="n">
         <v>9.199999999999999</v>
@@ -1694,14 +1694,14 @@
         <v>9.4</v>
       </c>
       <c r="BF6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="BG6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
         <v>2.88</v>
@@ -1765,19 +1765,19 @@
         <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
         <v>1.59</v>
@@ -1786,7 +1786,7 @@
         <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1798,16 +1798,16 @@
         <v>40</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
         <v>19</v>
@@ -1831,7 +1831,7 @@
         <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
         <v>25</v>
@@ -1852,7 +1852,7 @@
         <v>34</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AU7" t="n">
         <v>7.4</v>
@@ -1876,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="BB7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G8" t="n">
         <v>2.16</v>
@@ -1935,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1944,10 +1944,10 @@
         <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.2</v>
@@ -1956,7 +1956,7 @@
         <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" t="n">
         <v>2.32</v>
@@ -1971,7 +1971,7 @@
         <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
         <v>1.31</v>
@@ -1995,7 +1995,7 @@
         <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
         <v>17</v>
@@ -2085,11 +2085,11 @@
         <v>19</v>
       </c>
       <c r="BG8" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
         <v>8</v>
@@ -2132,10 +2132,10 @@
         <v>8.4</v>
       </c>
       <c r="J9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.24</v>
@@ -2150,16 +2150,16 @@
         <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T9" t="n">
         <v>1.69</v>
@@ -2174,13 +2174,13 @@
         <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
         <v>280</v>
@@ -2222,7 +2222,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO9" t="n">
         <v>65</v>
@@ -2231,19 +2231,19 @@
         <v>30</v>
       </c>
       <c r="AQ9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS9" t="n">
         <v>65</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>48</v>
       </c>
       <c r="AT9" t="n">
         <v>13</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2261,7 +2261,7 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BB9" t="n">
         <v>11.5</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -2347,10 +2347,10 @@
         <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
@@ -2377,7 +2377,7 @@
         <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
         <v>9</v>
@@ -2467,7 +2467,7 @@
         <v>30</v>
       </c>
       <c r="BE10" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="BF10" t="n">
         <v>8.4</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -2541,19 +2541,19 @@
         <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
         <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
         <v>3.85</v>
@@ -2643,7 +2643,7 @@
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AZ11" t="n">
         <v>9.4</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -2702,58 +2702,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G12" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H12" t="n">
         <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
         <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2789,7 +2789,7 @@
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
@@ -2801,7 +2801,7 @@
         <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
         <v>11.5</v>
@@ -2810,19 +2810,19 @@
         <v>60</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AR12" t="n">
-        <v>30</v>
+        <v>6.8</v>
       </c>
       <c r="AS12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2831,41 +2831,41 @@
         <v>14.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>44</v>
+        <v>7.2</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ12" t="n">
         <v>15.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BB12" t="n">
-        <v>5.9</v>
+        <v>17.5</v>
       </c>
       <c r="BC12" t="n">
         <v>16</v>
       </c>
       <c r="BD12" t="n">
-        <v>27</v>
+        <v>6.4</v>
       </c>
       <c r="BE12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BF12" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="BG12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -2896,31 +2896,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G13" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.35</v>
@@ -2929,7 +2929,7 @@
         <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>1.34</v>
@@ -2938,79 +2938,79 @@
         <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
         <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="n">
         <v>8</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK13" t="n">
         <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AS13" t="n">
         <v>42</v>
@@ -3019,16 +3019,16 @@
         <v>7.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>50</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY13" t="n">
         <v>9.4</v>
@@ -3037,13 +3037,13 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BC13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>36</v>
@@ -3052,14 +3052,14 @@
         <v>42</v>
       </c>
       <c r="BF13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
         <v>3.85</v>
@@ -3117,10 +3117,10 @@
         <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
         <v>1.91</v>
@@ -3162,7 +3162,7 @@
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
         <v>38</v>
@@ -3174,7 +3174,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
         <v>46</v>
@@ -3192,7 +3192,7 @@
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>34</v>
@@ -3228,13 +3228,13 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BA14" t="n">
         <v>42</v>
       </c>
       <c r="BB14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC14" t="n">
         <v>21</v>
@@ -3246,14 +3246,14 @@
         <v>75</v>
       </c>
       <c r="BF14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BG14" t="n">
         <v>30</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
         <v>7.2</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J15" t="n">
         <v>4.8</v>
@@ -3308,28 +3308,28 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
         <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
         <v>1.15</v>
@@ -3344,10 +3344,10 @@
         <v>28</v>
       </c>
       <c r="Z15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
@@ -3362,7 +3362,7 @@
         <v>100</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
@@ -3371,10 +3371,10 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK15" t="n">
         <v>14.5</v>
@@ -3383,40 +3383,40 @@
         <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP15" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR15" t="n">
         <v>55</v>
       </c>
       <c r="AS15" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AT15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU15" t="n">
         <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
         <v>85</v>
       </c>
       <c r="AX15" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>9.6</v>
@@ -3428,7 +3428,7 @@
         <v>75</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BC15" t="n">
         <v>13.5</v>
@@ -3437,17 +3437,17 @@
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BF15" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="BG15" t="n">
         <v>80</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>8.199999999999999</v>
@@ -3490,34 +3490,34 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.9</v>
       </c>
-      <c r="K16" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
         <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
         <v>2.08</v>
@@ -3526,40 +3526,40 @@
         <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
         <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AB16" t="n">
         <v>8.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
         <v>30</v>
       </c>
       <c r="AE16" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="n">
         <v>8.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
         <v>26</v>
@@ -3568,28 +3568,28 @@
         <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
         <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO16" t="n">
         <v>170</v>
       </c>
       <c r="AP16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>65</v>
@@ -3601,10 +3601,10 @@
         <v>7.8</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW16" t="n">
         <v>42</v>
@@ -3616,32 +3616,32 @@
         <v>9.4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA16" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="BB16" t="n">
         <v>11.5</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BD16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BE16" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="BF16" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BG16" t="n">
         <v>46</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -3672,22 +3672,22 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.25</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.27</v>
-      </c>
       <c r="H17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K17" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L17" t="n">
         <v>1.26</v>
@@ -3696,25 +3696,25 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R17" t="n">
         <v>1.74</v>
       </c>
       <c r="S17" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="n">
         <v>1.81</v>
@@ -3723,7 +3723,7 @@
         <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
@@ -3732,19 +3732,19 @@
         <v>50</v>
       </c>
       <c r="Z17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA17" t="n">
-        <v>640</v>
+        <v>790</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE17" t="n">
         <v>220</v>
@@ -3756,10 +3756,10 @@
         <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.800000000000001</v>
@@ -3768,40 +3768,40 @@
         <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
         <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AP17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AU17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX17" t="n">
         <v>7.8</v>
@@ -3810,10 +3810,10 @@
         <v>10.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BB17" t="n">
         <v>8.4</v>
@@ -3822,20 +3822,20 @@
         <v>12.5</v>
       </c>
       <c r="BD17" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="BE17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="BG17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -3878,13 +3878,13 @@
         <v>3.95</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3911,13 +3911,13 @@
         <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
         <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3974,10 +3974,10 @@
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>6.8</v>
@@ -3986,10 +3986,10 @@
         <v>8</v>
       </c>
       <c r="AT18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV18" t="n">
         <v>5.8</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G19" t="n">
         <v>1.15</v>
       </c>
       <c r="H19" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K19" t="n">
         <v>11.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1.23</v>
@@ -4090,19 +4090,19 @@
         <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R19" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T19" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="U19" t="n">
         <v>1.56</v>
@@ -4117,10 +4117,10 @@
         <v>38</v>
       </c>
       <c r="Y19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="n">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -4132,7 +4132,7 @@
         <v>28</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -4141,28 +4141,28 @@
         <v>7.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -4171,25 +4171,25 @@
         <v>28</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR19" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AS19" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
         <v>10</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AX19" t="n">
         <v>6.8</v>
@@ -4201,7 +4201,7 @@
         <v>48</v>
       </c>
       <c r="BA19" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="BB19" t="n">
         <v>6.8</v>
@@ -4210,20 +4210,20 @@
         <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="BE19" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="BG19" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -4260,13 +4260,13 @@
         <v>1.34</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I20" t="n">
         <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K20" t="n">
         <v>6.8</v>
@@ -4290,7 +4290,7 @@
         <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>2.5</v>
@@ -4365,7 +4365,7 @@
         <v>7</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
         <v>8.800000000000001</v>
@@ -4374,7 +4374,7 @@
         <v>8.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>8.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
@@ -4386,28 +4386,28 @@
         <v>8.4</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AY20" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ20" t="n">
-        <v>25</v>
+        <v>7.2</v>
       </c>
       <c r="BA20" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BB20" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BD20" t="n">
         <v>27</v>
       </c>
       <c r="BE20" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF20" t="n">
         <v>4.2</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H21" t="n">
         <v>5.3</v>
@@ -4463,7 +4463,7 @@
         <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
         <v>1.53</v>
@@ -4475,7 +4475,7 @@
         <v>2.84</v>
       </c>
       <c r="O21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
         <v>1.63</v>
@@ -4499,7 +4499,7 @@
         <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
@@ -4559,7 +4559,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5.3</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>7</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
         <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
         <v>100</v>
@@ -4780,7 +4780,7 @@
         <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BA22" t="n">
         <v>5.4</v>
@@ -4798,14 +4798,14 @@
         <v>5.7</v>
       </c>
       <c r="BF22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BG22" t="n">
         <v>5.3</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G23" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H23" t="n">
         <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="J23" t="n">
         <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L23" t="n">
         <v>1.51</v>
@@ -4860,22 +4860,22 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P23" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R23" t="n">
         <v>1.12</v>
       </c>
       <c r="S23" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T23" t="n">
         <v>1.05</v>
@@ -4884,10 +4884,10 @@
         <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -4944,62 +4944,62 @@
         <v>1000</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AR23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AV23" t="n">
         <v>4.3</v>
       </c>
-      <c r="AS23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AV23" t="n">
+      <c r="AW23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BB23" t="n">
         <v>4.1</v>
       </c>
-      <c r="AW23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AZ23" t="n">
+      <c r="BC23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF23" t="n">
         <v>4.1</v>
       </c>
-      <c r="BA23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>3.9</v>
-      </c>
       <c r="BG23" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -5048,34 +5048,34 @@
         <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="O24" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S24" t="n">
         <v>5.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
         <v>1.27</v>
@@ -5138,62 +5138,62 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AR24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AS24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BD24" t="n">
         <v>4.4</v>
       </c>
-      <c r="AT24" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>4.3</v>
-      </c>
       <c r="BE24" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="BF24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G26" t="n">
         <v>2.22</v>
@@ -5430,7 +5430,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K26" t="n">
         <v>3.65</v>
@@ -5442,7 +5442,7 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O26" t="n">
         <v>1.37</v>
@@ -5451,7 +5451,7 @@
         <v>1.82</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R26" t="n">
         <v>1.3</v>
@@ -5562,10 +5562,10 @@
         <v>8</v>
       </c>
       <c r="BB26" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BC26" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="BD26" t="n">
         <v>7.6</v>
@@ -5577,11 +5577,11 @@
         <v>14.5</v>
       </c>
       <c r="BG26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -5824,13 +5824,13 @@
         <v>4.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
         <v>1.43</v>
@@ -5839,7 +5839,7 @@
         <v>1.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
         <v>1.25</v>
@@ -5848,7 +5848,7 @@
         <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U28" t="n">
         <v>1.63</v>
@@ -5857,7 +5857,7 @@
         <v>1.11</v>
       </c>
       <c r="W28" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X28" t="n">
         <v>12</v>
@@ -5962,14 +5962,14 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BF28" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="BG28" t="n">
         <v>9</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -6000,22 +6000,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G29" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K29" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="L29" t="n">
         <v>1.76</v>
@@ -6024,13 +6024,13 @@
         <v>1.19</v>
       </c>
       <c r="N29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O29" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="P29" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q29" t="n">
         <v>3.5</v>
@@ -6048,10 +6048,10 @@
         <v>1.55</v>
       </c>
       <c r="V29" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W29" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X29" t="n">
         <v>6.2</v>
@@ -6066,7 +6066,7 @@
         <v>42</v>
       </c>
       <c r="AB29" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
         <v>7.2</v>
@@ -6078,10 +6078,10 @@
         <v>48</v>
       </c>
       <c r="AF29" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>980</v>
@@ -6099,7 +6099,7 @@
         <v>180</v>
       </c>
       <c r="AM29" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AN29" t="n">
         <v>210</v>
@@ -6117,7 +6117,7 @@
         <v>11.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AT29" t="n">
         <v>8</v>
@@ -6129,41 +6129,41 @@
         <v>12.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX29" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
       </c>
       <c r="AZ29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BB29" t="n">
         <v>10</v>
       </c>
-      <c r="BA29" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>13</v>
-      </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD29" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="BE29" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="BF29" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="BG29" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -6224,10 +6224,10 @@
         <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
         <v>1.21</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -6785,16 +6785,16 @@
         <v>7.6</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J33" t="n">
         <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -6833,7 +6833,7 @@
         <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
         <v>90</v>
@@ -6848,7 +6848,7 @@
         <v>970</v>
       </c>
       <c r="AD33" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
@@ -6860,13 +6860,13 @@
         <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AK33" t="n">
         <v>970</v>
@@ -6884,62 +6884,62 @@
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU33" t="n">
         <v>4.6</v>
       </c>
-      <c r="AQ33" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AT33" t="n">
+      <c r="AV33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BD33" t="n">
         <v>3.65</v>
       </c>
-      <c r="AU33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>6.4</v>
-      </c>
       <c r="BE33" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="BF33" t="n">
         <v>8</v>
       </c>
       <c r="BG33" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 11:47:56</t>
+          <t>2026-02-25 13:56:25</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -795,7 +795,7 @@
         <v>1.69</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
@@ -804,16 +804,16 @@
         <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -870,46 +870,46 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>3.5</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AR2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AS2" t="n">
         <v>4.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU2" t="n">
         <v>3.2</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AW2" t="n">
         <v>4.1</v>
       </c>
       <c r="AX2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY2" t="n">
         <v>3.35</v>
       </c>
-      <c r="AY2" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="BA2" t="n">
         <v>4.1</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="BD2" t="n">
         <v>3.95</v>
@@ -918,14 +918,14 @@
         <v>4.2</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="BG2" t="n">
         <v>4.1</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
@@ -968,10 +968,10 @@
         <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -980,7 +980,7 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -989,31 +989,31 @@
         <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
         <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T3" t="n">
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="X3" t="n">
         <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -1022,7 +1022,7 @@
         <v>230</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>11.5</v>
@@ -1040,7 +1040,7 @@
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>85</v>
@@ -1049,43 +1049,43 @@
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>16.5</v>
+        <v>6.8</v>
       </c>
       <c r="AQ3" t="n">
         <v>19</v>
       </c>
       <c r="AR3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AS3" t="n">
         <v>8</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="AT3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AV3" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AX3" t="n">
         <v>8.6</v>
@@ -1097,7 +1097,7 @@
         <v>19.5</v>
       </c>
       <c r="BA3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1106,20 +1106,20 @@
         <v>13.5</v>
       </c>
       <c r="BD3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BG3" t="n">
         <v>8</v>
       </c>
-      <c r="BE3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>8.4</v>
-      </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H4" t="n">
         <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
@@ -1174,22 +1174,22 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
         <v>2.06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
@@ -1201,16 +1201,16 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1222,28 +1222,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
         <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1267,10 +1267,10 @@
         <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
@@ -1279,41 +1279,41 @@
         <v>13.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.7</v>
+        <v>16.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="BB4" t="n">
         <v>19.5</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="BE4" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BF4" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1344,19 +1344,19 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.32</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.35</v>
-      </c>
       <c r="H5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
         <v>14.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
@@ -1377,31 +1377,31 @@
         <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
         <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
         <v>2.28</v>
       </c>
       <c r="U5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
         <v>130</v>
@@ -1410,19 +1410,19 @@
         <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
         <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1431,49 +1431,49 @@
         <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN5" t="n">
         <v>5.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="AP5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>30</v>
       </c>
       <c r="AR5" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AU5" t="n">
         <v>11.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1482,32 +1482,32 @@
         <v>10</v>
       </c>
       <c r="AZ5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA5" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC5" t="n">
         <v>13.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="BE5" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="BG5" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.32</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.34</v>
       </c>
       <c r="H6" t="n">
         <v>11.5</v>
@@ -1550,10 +1550,10 @@
         <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.3</v>
@@ -1562,16 +1562,16 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
         <v>2.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>1.61</v>
@@ -1589,31 +1589,31 @@
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AE6" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1622,40 +1622,40 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AS6" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1667,19 +1667,19 @@
         <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY6" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="BB6" t="n">
         <v>9.199999999999999</v>
@@ -1688,20 +1688,20 @@
         <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="BE6" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="BF6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="BG6" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1759,7 +1759,7 @@
         <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
         <v>2.04</v>
@@ -1774,16 +1774,16 @@
         <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
         <v>14.5</v>
@@ -1795,7 +1795,7 @@
         <v>17.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
         <v>12.5</v>
@@ -1846,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AS7" t="n">
         <v>34</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
         <v>2.16</v>
@@ -1935,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1947,7 +1947,7 @@
         <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>3.2</v>
@@ -1962,16 +1962,16 @@
         <v>2.32</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
         <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
         <v>1.31</v>
@@ -1983,10 +1983,10 @@
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA8" t="n">
         <v>95</v>
@@ -2019,22 +2019,22 @@
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>75</v>
       </c>
       <c r="AP8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
         <v>11.5</v>
@@ -2046,7 +2046,7 @@
         <v>55</v>
       </c>
       <c r="AT8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -2079,7 +2079,7 @@
         <v>44</v>
       </c>
       <c r="BE8" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="BF8" t="n">
         <v>19</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -2126,16 +2126,16 @@
         <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I9" t="n">
         <v>8.4</v>
       </c>
       <c r="J9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K9" t="n">
         <v>5.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.24</v>
@@ -2156,10 +2156,10 @@
         <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T9" t="n">
         <v>1.69</v>
@@ -2171,16 +2171,16 @@
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>280</v>
@@ -2204,7 +2204,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>75</v>
@@ -2213,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>24</v>
@@ -2225,7 +2225,7 @@
         <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP9" t="n">
         <v>30</v>
@@ -2234,10 +2234,10 @@
         <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AT9" t="n">
         <v>13</v>
@@ -2246,7 +2246,7 @@
         <v>12.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>75</v>
@@ -2261,19 +2261,19 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BB9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BC9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BF9" t="n">
         <v>4.1</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.64</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.65</v>
       </c>
       <c r="H10" t="n">
         <v>6</v>
@@ -2332,7 +2332,7 @@
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2347,25 +2347,25 @@
         <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X10" t="n">
         <v>16</v>
@@ -2377,7 +2377,7 @@
         <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
         <v>9</v>
@@ -2413,13 +2413,13 @@
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2443,10 +2443,10 @@
         <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY10" t="n">
         <v>9.199999999999999</v>
@@ -2455,29 +2455,29 @@
         <v>19.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB10" t="n">
         <v>14.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BD10" t="n">
         <v>30</v>
       </c>
       <c r="BE10" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="BF10" t="n">
         <v>8.4</v>
       </c>
       <c r="BG10" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
         <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
         <v>4.8</v>
@@ -2547,7 +2547,7 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T11" t="n">
         <v>2.1</v>
@@ -2562,34 +2562,34 @@
         <v>1.08</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
         <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
         <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>130</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -2598,7 +2598,7 @@
         <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AK11" t="n">
         <v>230</v>
@@ -2607,13 +2607,13 @@
         <v>170</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
         <v>310</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2625,53 +2625,53 @@
         <v>7.2</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AV11" t="n">
         <v>9.6</v>
       </c>
       <c r="AW11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC11" t="n">
         <v>10</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BD11" t="n">
         <v>10</v>
       </c>
-      <c r="BB11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>12</v>
-      </c>
       <c r="BE11" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="BF11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
         <v>1.92</v>
@@ -2711,22 +2711,22 @@
         <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2735,58 +2735,58 @@
         <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
         <v>2.08</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
         <v>110</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2795,16 +2795,16 @@
         <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>60</v>
@@ -2813,37 +2813,37 @@
         <v>16</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5.7</v>
+        <v>13</v>
       </c>
       <c r="AR12" t="n">
-        <v>6.8</v>
+        <v>30</v>
       </c>
       <c r="AS12" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AW12" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="BB12" t="n">
         <v>17.5</v>
@@ -2852,20 +2852,20 @@
         <v>16</v>
       </c>
       <c r="BD12" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="BE12" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="BF12" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="BG12" t="n">
-        <v>7.2</v>
+        <v>38</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G13" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I13" t="n">
         <v>5.8</v>
       </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
@@ -2926,7 +2926,7 @@
         <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q13" t="n">
         <v>2.04</v>
@@ -2938,28 +2938,28 @@
         <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
         <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA13" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
         <v>8</v>
@@ -2971,28 +2971,28 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
         <v>140</v>
@@ -3001,7 +3001,7 @@
         <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
@@ -3016,34 +3016,34 @@
         <v>42</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU13" t="n">
         <v>8.4</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>50</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY13" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BD13" t="n">
         <v>36</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -3090,25 +3090,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.4</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
         <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -3120,7 +3120,7 @@
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
         <v>1.91</v>
@@ -3135,13 +3135,13 @@
         <v>1.77</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
         <v>16.5</v>
@@ -3153,22 +3153,22 @@
         <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
         <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
         <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -3192,7 +3192,7 @@
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>34</v>
@@ -3201,7 +3201,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -3222,7 +3222,7 @@
         <v>34</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY14" t="n">
         <v>10</v>
@@ -3246,14 +3246,14 @@
         <v>75</v>
       </c>
       <c r="BF14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BG14" t="n">
         <v>30</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -3284,121 +3284,121 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="G15" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W15" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA15" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AB15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AP15" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS15" t="n">
         <v>75</v>
@@ -3407,47 +3407,47 @@
         <v>9.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AY15" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BB15" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BF15" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="BG15" t="n">
         <v>80</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -3478,16 +3478,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J16" t="n">
         <v>4.7</v>
@@ -3502,16 +3502,16 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
@@ -3520,16 +3520,16 @@
         <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
         <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="X16" t="n">
         <v>16.5</v>
@@ -3541,10 +3541,10 @@
         <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
         <v>10.5</v>
@@ -3577,10 +3577,10 @@
         <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO16" t="n">
         <v>170</v>
@@ -3589,25 +3589,25 @@
         <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS16" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AT16" t="n">
         <v>7.8</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX16" t="n">
         <v>7.8</v>
@@ -3616,32 +3616,32 @@
         <v>9.4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA16" t="n">
         <v>40</v>
       </c>
       <c r="BB16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BC16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>34</v>
       </c>
       <c r="BE16" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BF16" t="n">
         <v>7</v>
       </c>
       <c r="BG16" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>1.24</v>
       </c>
       <c r="G17" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
         <v>13.5</v>
@@ -3687,7 +3687,7 @@
         <v>7.2</v>
       </c>
       <c r="K17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
         <v>1.26</v>
@@ -3702,7 +3702,7 @@
         <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q17" t="n">
         <v>1.48</v>
@@ -3723,22 +3723,22 @@
         <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z17" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="n">
-        <v>790</v>
+        <v>700</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
         <v>17</v>
@@ -3747,7 +3747,7 @@
         <v>50</v>
       </c>
       <c r="AE17" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AF17" t="n">
         <v>9</v>
@@ -3762,7 +3762,7 @@
         <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>13</v>
@@ -3774,7 +3774,7 @@
         <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO17" t="n">
         <v>270</v>
@@ -3786,10 +3786,10 @@
         <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AS17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT17" t="n">
         <v>10</v>
@@ -3801,7 +3801,7 @@
         <v>38</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AX17" t="n">
         <v>7.8</v>
@@ -3810,32 +3810,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
         <v>8.4</v>
       </c>
       <c r="BC17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BD17" t="n">
         <v>27</v>
       </c>
       <c r="BE17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="BF17" t="n">
         <v>3.4</v>
       </c>
       <c r="BG17" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
         <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
@@ -3896,10 +3896,10 @@
         <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>1.34</v>
@@ -3917,10 +3917,10 @@
         <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -3935,7 +3935,7 @@
         <v>10</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -3947,7 +3947,7 @@
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
@@ -3956,7 +3956,7 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
@@ -3968,68 +3968,68 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AT18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AW18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE18" t="n">
         <v>7.6</v>
       </c>
-      <c r="AX18" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>8.4</v>
-      </c>
       <c r="BF18" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="BG18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -4066,16 +4066,16 @@
         <v>1.15</v>
       </c>
       <c r="H19" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I19" t="n">
         <v>32</v>
       </c>
       <c r="J19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1.23</v>
@@ -4084,25 +4084,25 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R19" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S19" t="n">
         <v>2.12</v>
       </c>
       <c r="T19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="n">
         <v>1.56</v>
@@ -4111,10 +4111,10 @@
         <v>1.03</v>
       </c>
       <c r="W19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="n">
         <v>80</v>
@@ -4126,7 +4126,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
         <v>28</v>
@@ -4144,22 +4144,22 @@
         <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI19" t="n">
         <v>400</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="AN19" t="n">
         <v>3.2</v>
@@ -4171,16 +4171,16 @@
         <v>28</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AR19" t="n">
         <v>9.6</v>
       </c>
       <c r="AS19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU19" t="n">
         <v>19</v>
@@ -4189,41 +4189,41 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AW19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AY19" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="BA19" t="n">
         <v>9.6</v>
       </c>
       <c r="BB19" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BC19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="BE19" t="n">
         <v>9.6</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="BG19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -4254,22 +4254,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
         <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -4302,10 +4302,10 @@
         <v>1.85</v>
       </c>
       <c r="V20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -4320,7 +4320,7 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
         <v>1000</v>
@@ -4329,10 +4329,10 @@
         <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
@@ -4341,7 +4341,7 @@
         <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -4356,68 +4356,68 @@
         <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
       </c>
       <c r="AP20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AV20" t="n">
         <v>7</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>8</v>
-      </c>
       <c r="AW20" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX20" t="n">
         <v>7.2</v>
       </c>
       <c r="AY20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7.2</v>
+        <v>25</v>
       </c>
       <c r="BA20" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="BB20" t="n">
         <v>5.2</v>
       </c>
       <c r="BC20" t="n">
-        <v>6.2</v>
+        <v>12</v>
       </c>
       <c r="BD20" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="BE20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BG20" t="n">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -4451,16 +4451,16 @@
         <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
         <v>3.55</v>
@@ -4484,10 +4484,10 @@
         <v>2.42</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
         <v>2.12</v>
@@ -4496,37 +4496,37 @@
         <v>1.74</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA21" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AB21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -4535,7 +4535,7 @@
         <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ21" t="n">
         <v>23</v>
@@ -4547,7 +4547,7 @@
         <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="n">
         <v>21</v>
@@ -4559,13 +4559,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AT21" t="n">
         <v>5.9</v>
@@ -4574,10 +4574,10 @@
         <v>7</v>
       </c>
       <c r="AV21" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>60</v>
+        <v>7.6</v>
       </c>
       <c r="AX21" t="n">
         <v>8.6</v>
@@ -4589,29 +4589,29 @@
         <v>21</v>
       </c>
       <c r="BA21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BB21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BC21" t="n">
         <v>20</v>
       </c>
       <c r="BD21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BE21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BF21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BG21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
         <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
         <v>3.05</v>
@@ -4681,7 +4681,7 @@
         <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
         <v>2.24</v>
@@ -4693,13 +4693,13 @@
         <v>1.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
@@ -4708,31 +4708,31 @@
         <v>48</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
         <v>48</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AK22" t="n">
         <v>75</v>
@@ -4750,7 +4750,7 @@
         <v>55</v>
       </c>
       <c r="AP22" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AQ22" t="n">
         <v>6.4</v>
@@ -4759,7 +4759,7 @@
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="AT22" t="n">
         <v>8.199999999999999</v>
@@ -4771,41 +4771,41 @@
         <v>11.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY22" t="n">
         <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="BA22" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="BD22" t="n">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="BE22" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="BF22" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="BG22" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -4836,37 +4836,37 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
         <v>1.99</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>1.31</v>
       </c>
       <c r="P23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q23" t="n">
         <v>2.42</v>
@@ -4884,10 +4884,10 @@
         <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -4902,7 +4902,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
         <v>1000</v>
@@ -4944,62 +4944,62 @@
         <v>1000</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.25</v>
+        <v>6.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AR23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AS23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW23" t="n">
         <v>4.9</v>
       </c>
-      <c r="AT23" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AW23" t="n">
+      <c r="AX23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD23" t="n">
         <v>4.8</v>
       </c>
-      <c r="AX23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BE23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BF23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BG23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -5030,64 +5030,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M24" t="n">
         <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O24" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P24" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q24" t="n">
         <v>2.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
         <v>5.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V24" t="n">
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="X24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -5096,7 +5096,7 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
         <v>8.6</v>
@@ -5111,7 +5111,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -5138,62 +5138,62 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT24" t="n">
         <v>3.1</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.94</v>
-      </c>
       <c r="AU24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AX24" t="n">
         <v>3.55</v>
       </c>
       <c r="AY24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AZ24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BB24" t="n">
         <v>4.1</v>
       </c>
-      <c r="BA24" t="n">
+      <c r="BC24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE24" t="n">
         <v>4.5</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>4.6</v>
       </c>
       <c r="BF24" t="n">
         <v>4.2</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -5424,16 +5424,16 @@
         <v>2.22</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -5448,16 +5448,16 @@
         <v>1.37</v>
       </c>
       <c r="P26" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R26" t="n">
         <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T26" t="n">
         <v>1.86</v>
@@ -5469,7 +5469,7 @@
         <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
@@ -5478,22 +5478,22 @@
         <v>14</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
         <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
         <v>14</v>
@@ -5508,22 +5508,22 @@
         <v>65</v>
       </c>
       <c r="AJ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
         <v>980</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>44</v>
       </c>
       <c r="AM26" t="n">
         <v>130</v>
       </c>
       <c r="AN26" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AP26" t="n">
         <v>11</v>
@@ -5532,22 +5532,22 @@
         <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>6.8</v>
+        <v>19.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AT26" t="n">
         <v>7.8</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
         <v>13.5</v>
       </c>
       <c r="AW26" t="n">
-        <v>38</v>
+        <v>7.2</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
@@ -5556,32 +5556,32 @@
         <v>9.6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6.2</v>
+        <v>16.5</v>
       </c>
       <c r="BA26" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="BB26" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="BC26" t="n">
-        <v>6.6</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="BE26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="BF26" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="BG26" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -5636,19 +5636,19 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="O27" t="n">
         <v>1.02</v>
       </c>
       <c r="P27" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
         <v>1.44</v>
       </c>
       <c r="R27" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="S27" t="n">
         <v>1.44</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -5806,13 +5806,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G28" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I28" t="n">
         <v>10</v>
@@ -5821,7 +5821,7 @@
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.48</v>
@@ -5836,19 +5836,19 @@
         <v>1.43</v>
       </c>
       <c r="P28" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q28" t="n">
         <v>2.3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U28" t="n">
         <v>1.63</v>
@@ -5857,37 +5857,37 @@
         <v>1.11</v>
       </c>
       <c r="W28" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="n">
         <v>510</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC28" t="n">
         <v>10.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="n">
         <v>8</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
         <v>980</v>
@@ -5899,16 +5899,16 @@
         <v>14.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO28" t="n">
         <v>500</v>
@@ -5920,10 +5920,10 @@
         <v>18.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="AS28" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AT28" t="n">
         <v>5.5</v>
@@ -5932,22 +5932,22 @@
         <v>8.6</v>
       </c>
       <c r="AV28" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="AW28" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AY28" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="BA28" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="BB28" t="n">
         <v>11.5</v>
@@ -5956,20 +5956,20 @@
         <v>17</v>
       </c>
       <c r="BD28" t="n">
-        <v>42</v>
+        <v>6.2</v>
       </c>
       <c r="BE28" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="BF28" t="n">
         <v>10</v>
       </c>
       <c r="BG28" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -6009,10 +6009,10 @@
         <v>2.32</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J29" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K29" t="n">
         <v>2.96</v>
@@ -6030,7 +6030,7 @@
         <v>1.81</v>
       </c>
       <c r="P29" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q29" t="n">
         <v>3.5</v>
@@ -6042,13 +6042,13 @@
         <v>8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U29" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="V29" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W29" t="n">
         <v>1.28</v>
@@ -6060,28 +6060,28 @@
         <v>6</v>
       </c>
       <c r="Z29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
         <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>980</v>
@@ -6090,19 +6090,19 @@
         <v>120</v>
       </c>
       <c r="AJ29" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK29" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL29" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AM29" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="AN29" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AO29" t="n">
         <v>60</v>
@@ -6111,59 +6111,59 @@
         <v>5.4</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AR29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AT29" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>8.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="AX29" t="n">
         <v>20</v>
       </c>
       <c r="AY29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="BA29" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BB29" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC29" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE29" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="BF29" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="BG29" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -6224,13 +6224,13 @@
         <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
         <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
         <v>3.45</v>
@@ -6302,62 +6302,62 @@
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AW30" t="n">
         <v>5.4</v>
       </c>
-      <c r="AT30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AX30" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AY30" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AZ30" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BA30" t="n">
         <v>5.4</v>
       </c>
       <c r="BB30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC30" t="n">
         <v>4.9</v>
       </c>
-      <c r="BC30" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BD30" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BE30" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BF30" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="BG30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="T31" t="n">
         <v>1.05</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G33" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H33" t="n">
         <v>7.6</v>
       </c>
       <c r="I33" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K33" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.38</v>
@@ -6812,7 +6812,7 @@
         <v>2.1</v>
       </c>
       <c r="R33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
         <v>3.8</v>
@@ -6824,10 +6824,10 @@
         <v>1.69</v>
       </c>
       <c r="V33" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W33" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X33" t="n">
         <v>970</v>
@@ -6836,22 +6836,22 @@
         <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
         <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF33" t="n">
         <v>970</v>
@@ -6863,7 +6863,7 @@
         <v>970</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ33" t="n">
         <v>970</v>
@@ -6878,68 +6878,68 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AR33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AZ33" t="n">
         <v>3.75</v>
       </c>
-      <c r="AS33" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>6.2</v>
-      </c>
       <c r="BA33" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="BB33" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="BC33" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="BD33" t="n">
-        <v>3.65</v>
+        <v>2.46</v>
       </c>
       <c r="BE33" t="n">
-        <v>2.84</v>
+        <v>1.78</v>
       </c>
       <c r="BF33" t="n">
         <v>8</v>
       </c>
       <c r="BG33" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>
@@ -6994,19 +6994,19 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q34" t="n">
         <v>1.24</v>
       </c>
       <c r="R34" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
         <v>1.25</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 13:56:25</t>
+          <t>2026-02-25 16:07:13</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -870,10 +870,10 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>3.55</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>3.5</v>
       </c>
       <c r="AR2" t="n">
         <v>3.9</v>
@@ -885,10 +885,10 @@
         <v>3.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AW2" t="n">
         <v>4.1</v>
@@ -897,10 +897,10 @@
         <v>3.4</v>
       </c>
       <c r="AY2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BA2" t="n">
         <v>4.1</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="G3" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -986,10 +986,10 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
         <v>1.47</v>
@@ -1001,19 +1001,19 @@
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="X3" t="n">
         <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -1028,7 +1028,7 @@
         <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -1043,7 +1043,7 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1064,28 +1064,28 @@
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
         <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AS3" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AT3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AU3" t="n">
         <v>9.6</v>
       </c>
       <c r="AV3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AW3" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX3" t="n">
         <v>8.6</v>
@@ -1094,10 +1094,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1106,20 +1106,20 @@
         <v>13.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BE3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BF3" t="n">
         <v>6.4</v>
       </c>
       <c r="BG3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
         <v>2.26</v>
@@ -1162,7 +1162,7 @@
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>3.65</v>
@@ -1198,10 +1198,10 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1216,7 +1216,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1225,7 +1225,7 @@
         <v>16.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
@@ -1267,7 +1267,7 @@
         <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AT4" t="n">
         <v>8.199999999999999</v>
@@ -1285,13 +1285,13 @@
         <v>11.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ4" t="n">
         <v>16.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BB4" t="n">
         <v>19.5</v>
@@ -1300,20 +1300,20 @@
         <v>21</v>
       </c>
       <c r="BD4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE4" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BF4" t="n">
         <v>16.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -1347,10 +1347,10 @@
         <v>1.31</v>
       </c>
       <c r="G5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
         <v>14.5</v>
@@ -1377,7 +1377,7 @@
         <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R5" t="n">
         <v>1.48</v>
@@ -1386,7 +1386,7 @@
         <v>2.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
         <v>1.7</v>
@@ -1410,10 +1410,10 @@
         <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
         <v>48</v>
@@ -1437,13 +1437,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
         <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AN5" t="n">
         <v>5.3</v>
@@ -1458,22 +1458,22 @@
         <v>30</v>
       </c>
       <c r="AR5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AS5" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>7.6</v>
       </c>
       <c r="AU5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>38</v>
       </c>
       <c r="AW5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1494,20 +1494,20 @@
         <v>13.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="BE5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BG5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
         <v>11.5</v>
@@ -1553,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.3</v>
@@ -1571,7 +1571,7 @@
         <v>2.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
         <v>1.61</v>
@@ -1586,13 +1586,13 @@
         <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
         <v>48</v>
@@ -1607,7 +1607,7 @@
         <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
         <v>50</v>
@@ -1652,10 +1652,10 @@
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AS6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1667,7 +1667,7 @@
         <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AX6" t="n">
         <v>7.8</v>
@@ -1679,7 +1679,7 @@
         <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BB6" t="n">
         <v>9.199999999999999</v>
@@ -1691,17 +1691,17 @@
         <v>6.8</v>
       </c>
       <c r="BE6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF6" t="n">
         <v>3.95</v>
       </c>
       <c r="BG6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -1732,19 +1732,19 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.88</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.9</v>
-      </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I7" t="n">
         <v>2.66</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
@@ -1756,25 +1756,25 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
         <v>2.26</v>
@@ -1783,7 +1783,7 @@
         <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
         <v>14.5</v>
@@ -1846,7 +1846,7 @@
         <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AS7" t="n">
         <v>34</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -1941,13 +1941,13 @@
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.2</v>
@@ -1956,10 +1956,10 @@
         <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1971,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
         <v>1.31</v>
@@ -1983,7 +1983,7 @@
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>27</v>
@@ -2019,7 +2019,7 @@
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>48</v>
@@ -2064,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA8" t="n">
         <v>60</v>
@@ -2076,10 +2076,10 @@
         <v>22</v>
       </c>
       <c r="BD8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="BE8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BF8" t="n">
         <v>19</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -2126,16 +2126,16 @@
         <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
         <v>8.4</v>
       </c>
       <c r="J9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.24</v>
@@ -2144,7 +2144,7 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.14</v>
@@ -2162,7 +2162,7 @@
         <v>2.12</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
         <v>2.36</v>
@@ -2171,10 +2171,10 @@
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="n">
         <v>38</v>
@@ -2186,7 +2186,7 @@
         <v>280</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
         <v>13.5</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>75</v>
@@ -2216,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM9" t="n">
         <v>80</v>
@@ -2225,7 +2225,7 @@
         <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP9" t="n">
         <v>30</v>
@@ -2237,16 +2237,16 @@
         <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AT9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AU9" t="n">
         <v>12.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
         <v>75</v>
@@ -2261,7 +2261,7 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB9" t="n">
         <v>12</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I10" t="n">
         <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
@@ -2338,37 +2338,37 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
@@ -2377,22 +2377,22 @@
         <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
@@ -2401,7 +2401,7 @@
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
         <v>15.5</v>
@@ -2422,7 +2422,7 @@
         <v>85</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>19.5</v>
@@ -2431,53 +2431,53 @@
         <v>42</v>
       </c>
       <c r="AS10" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AT10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV10" t="n">
         <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AY10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AZ10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BA10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>15</v>
       </c>
       <c r="BD10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BF10" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="BG10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -2511,19 +2511,19 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="I11" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="J11" t="n">
         <v>5.7</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.27</v>
@@ -2532,16 +2532,16 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
         <v>2.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
@@ -2556,19 +2556,19 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X11" t="n">
         <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA11" t="n">
         <v>11</v>
@@ -2577,7 +2577,7 @@
         <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AD11" t="n">
         <v>11</v>
@@ -2592,7 +2592,7 @@
         <v>50</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
         <v>980</v>
@@ -2640,38 +2640,38 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AY11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BB11" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="BD11" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="BE11" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="BF11" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -2705,13 +2705,13 @@
         <v>1.81</v>
       </c>
       <c r="G12" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="H12" t="n">
         <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.9</v>
@@ -2735,25 +2735,25 @@
         <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
         <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X12" t="n">
         <v>22</v>
@@ -2783,7 +2783,7 @@
         <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>20</v>
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>36</v>
@@ -2819,7 +2819,7 @@
         <v>30</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>9.6</v>
@@ -2831,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.2</v>
+        <v>44</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2843,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="BB12" t="n">
         <v>17.5</v>
@@ -2852,20 +2852,20 @@
         <v>16</v>
       </c>
       <c r="BD12" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="BE12" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="BF12" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BG12" t="n">
         <v>38</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -2905,10 +2905,10 @@
         <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>4.1</v>
@@ -2920,16 +2920,16 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
         <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
         <v>1.34</v>
@@ -2944,16 +2944,16 @@
         <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
         <v>2.34</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
         <v>42</v>
@@ -2962,7 +2962,7 @@
         <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
@@ -2974,7 +2974,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
@@ -3004,10 +3004,10 @@
         <v>100</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AR13" t="n">
         <v>40</v>
@@ -3034,7 +3034,7 @@
         <v>9.4</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
         <v>55</v>
@@ -3043,10 +3043,10 @@
         <v>16</v>
       </c>
       <c r="BC13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BE13" t="n">
         <v>42</v>
@@ -3055,11 +3055,11 @@
         <v>10.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -3096,16 +3096,16 @@
         <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.4</v>
@@ -3114,37 +3114,37 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.42</v>
       </c>
       <c r="W14" t="n">
         <v>1.79</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
         <v>14</v>
@@ -3156,7 +3156,7 @@
         <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
@@ -3165,7 +3165,7 @@
         <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
         <v>14.5</v>
@@ -3174,7 +3174,7 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>46</v>
@@ -3192,16 +3192,16 @@
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>34</v>
       </c>
       <c r="AP14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -3210,13 +3210,13 @@
         <v>50</v>
       </c>
       <c r="AT14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>34</v>
@@ -3240,20 +3240,20 @@
         <v>21</v>
       </c>
       <c r="BD14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BE14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BF14" t="n">
         <v>15</v>
       </c>
       <c r="BG14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -3317,19 +3317,19 @@
         <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
         <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>1.17</v>
@@ -3350,13 +3350,13 @@
         <v>170</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
         <v>80</v>
@@ -3374,13 +3374,13 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
@@ -3398,7 +3398,7 @@
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AS15" t="n">
         <v>75</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -3481,16 +3481,16 @@
         <v>1.49</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
         <v>4.9</v>
@@ -3502,22 +3502,22 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
         <v>2.06</v>
@@ -3529,7 +3529,7 @@
         <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
         <v>16.5</v>
@@ -3544,7 +3544,7 @@
         <v>280</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
         <v>10.5</v>
@@ -3586,7 +3586,7 @@
         <v>170</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>22</v>
@@ -3595,7 +3595,7 @@
         <v>60</v>
       </c>
       <c r="AS16" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AT16" t="n">
         <v>7.8</v>
@@ -3604,28 +3604,28 @@
         <v>9.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA16" t="n">
         <v>40</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BC16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BD16" t="n">
         <v>34</v>
@@ -3637,11 +3637,11 @@
         <v>7</v>
       </c>
       <c r="BG16" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H17" t="n">
         <v>13.5</v>
@@ -3687,7 +3687,7 @@
         <v>7.2</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.26</v>
@@ -3723,7 +3723,7 @@
         <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
@@ -3732,7 +3732,7 @@
         <v>70</v>
       </c>
       <c r="Z17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA17" t="n">
         <v>700</v>
@@ -3747,7 +3747,7 @@
         <v>50</v>
       </c>
       <c r="AE17" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF17" t="n">
         <v>9</v>
@@ -3759,22 +3759,22 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AK17" t="n">
         <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AO17" t="n">
         <v>270</v>
@@ -3783,13 +3783,13 @@
         <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AR17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
         <v>10</v>
@@ -3798,10 +3798,10 @@
         <v>15</v>
       </c>
       <c r="AV17" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AW17" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
         <v>7.8</v>
@@ -3810,32 +3810,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BC17" t="n">
         <v>12</v>
       </c>
       <c r="BD17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BE17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BG17" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
@@ -3878,10 +3878,10 @@
         <v>3.95</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -3896,7 +3896,7 @@
         <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
         <v>2.08</v>
@@ -3905,7 +3905,7 @@
         <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
         <v>1.75</v>
@@ -3917,7 +3917,7 @@
         <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="X18" t="n">
         <v>16.5</v>
@@ -3956,7 +3956,7 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
@@ -3995,7 +3995,7 @@
         <v>6</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AX18" t="n">
         <v>11.5</v>
@@ -4019,17 +4019,17 @@
         <v>7</v>
       </c>
       <c r="BE18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF18" t="n">
         <v>6.2</v>
       </c>
       <c r="BG18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.14</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.15</v>
-      </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J19" t="n">
         <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.23</v>
@@ -4105,13 +4105,13 @@
         <v>2.6</v>
       </c>
       <c r="U19" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V19" t="n">
         <v>1.03</v>
       </c>
       <c r="W19" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
         <v>44</v>
@@ -4126,7 +4126,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
         <v>28</v>
@@ -4141,7 +4141,7 @@
         <v>7.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
         <v>70</v>
@@ -4159,49 +4159,49 @@
         <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR19" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AT19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AY19" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="BA19" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="BB19" t="n">
         <v>7</v>
@@ -4210,20 +4210,20 @@
         <v>12.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="BE19" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="BF19" t="n">
         <v>2.74</v>
       </c>
       <c r="BG19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -4254,22 +4254,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H20" t="n">
         <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J20" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="K20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -4284,13 +4284,13 @@
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
         <v>2.5</v>
@@ -4299,13 +4299,13 @@
         <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -4332,7 +4332,7 @@
         <v>240</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
@@ -4362,16 +4362,16 @@
         <v>1000</v>
       </c>
       <c r="AP20" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AS20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT20" t="n">
         <v>8.800000000000001</v>
@@ -4380,13 +4380,13 @@
         <v>11.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AW20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AY20" t="n">
         <v>9.6</v>
@@ -4395,29 +4395,29 @@
         <v>25</v>
       </c>
       <c r="BA20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BC20" t="n">
         <v>12</v>
       </c>
       <c r="BD20" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BE20" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BG20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -4451,10 +4451,10 @@
         <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="n">
         <v>6</v>
@@ -4463,7 +4463,7 @@
         <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.53</v>
@@ -4499,10 +4499,10 @@
         <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
         <v>15.5</v>
@@ -4562,10 +4562,10 @@
         <v>12.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AS21" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AT21" t="n">
         <v>5.9</v>
@@ -4577,7 +4577,7 @@
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AX21" t="n">
         <v>8.6</v>
@@ -4589,7 +4589,7 @@
         <v>21</v>
       </c>
       <c r="BA21" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BB21" t="n">
         <v>18</v>
@@ -4598,20 +4598,20 @@
         <v>20</v>
       </c>
       <c r="BD21" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BE21" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BF21" t="n">
         <v>14</v>
       </c>
       <c r="BG21" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -4648,13 +4648,13 @@
         <v>3.85</v>
       </c>
       <c r="H22" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I22" t="n">
         <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K22" t="n">
         <v>3.05</v>
@@ -4666,7 +4666,7 @@
         <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O22" t="n">
         <v>1.63</v>
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB22" t="n">
         <v>10.5</v>
@@ -4717,10 +4717,10 @@
         <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
         <v>17</v>
@@ -4747,7 +4747,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP22" t="n">
         <v>6.8</v>
@@ -4759,7 +4759,7 @@
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
         <v>8.199999999999999</v>
@@ -4771,7 +4771,7 @@
         <v>11.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AX22" t="n">
         <v>18</v>
@@ -4780,32 +4780,32 @@
         <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BC22" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BD22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BG22" t="n">
         <v>7.2</v>
       </c>
-      <c r="BE22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>6.8</v>
-      </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>1.67</v>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H23" t="n">
         <v>4.7</v>
@@ -4848,10 +4848,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -4860,16 +4860,16 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>1.31</v>
       </c>
       <c r="P23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="R23" t="n">
         <v>1.12</v>
@@ -4884,10 +4884,10 @@
         <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -4965,7 +4965,7 @@
         <v>4.5</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
         <v>3.5</v>
@@ -4989,17 +4989,17 @@
         <v>4.8</v>
       </c>
       <c r="BE23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BF23" t="n">
         <v>4.2</v>
       </c>
       <c r="BG23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -5030,19 +5030,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G24" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I24" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="K24" t="n">
         <v>3.3</v>
@@ -5057,7 +5057,7 @@
         <v>2.52</v>
       </c>
       <c r="O24" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P24" t="n">
         <v>1.51</v>
@@ -5072,16 +5072,16 @@
         <v>5.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="U24" t="n">
         <v>1.72</v>
       </c>
       <c r="V24" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W24" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="X24" t="n">
         <v>9.800000000000001</v>
@@ -5138,13 +5138,13 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AS24" t="n">
         <v>4.4</v>
@@ -5153,19 +5153,19 @@
         <v>3.1</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AW24" t="n">
         <v>4.4</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AY24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AZ24" t="n">
         <v>4</v>
@@ -5174,10 +5174,10 @@
         <v>4.4</v>
       </c>
       <c r="BB24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BC24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BD24" t="n">
         <v>4.3</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
         <v>1.81</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>1.3</v>
@@ -5478,7 +5478,7 @@
         <v>14</v>
       </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
         <v>85</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O27" t="n">
         <v>1.02</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G28" t="n">
         <v>1.57</v>
@@ -5815,7 +5815,7 @@
         <v>8.4</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
@@ -5848,7 +5848,7 @@
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U28" t="n">
         <v>1.63</v>
@@ -5863,7 +5863,7 @@
         <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
         <v>85</v>
@@ -5920,7 +5920,7 @@
         <v>18.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AS28" t="n">
         <v>6.8</v>
@@ -5932,10 +5932,10 @@
         <v>8.6</v>
       </c>
       <c r="AV28" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AW28" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AX28" t="n">
         <v>6.4</v>
@@ -5944,7 +5944,7 @@
         <v>9.4</v>
       </c>
       <c r="AZ28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BA28" t="n">
         <v>6.6</v>
@@ -5959,7 +5959,7 @@
         <v>6.2</v>
       </c>
       <c r="BE28" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BF28" t="n">
         <v>10</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
         <v>4.1</v>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
         <v>2.32</v>
@@ -6051,7 +6051,7 @@
         <v>1.68</v>
       </c>
       <c r="W29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X29" t="n">
         <v>6.2</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
         <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
@@ -6224,7 +6224,7 @@
         <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q30" t="n">
         <v>1.98</v>
@@ -6305,7 +6305,7 @@
         <v>9.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AR30" t="n">
         <v>5</v>
@@ -6314,13 +6314,13 @@
         <v>5.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AU30" t="n">
         <v>3.8</v>
       </c>
       <c r="AV30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AW30" t="n">
         <v>5.4</v>
@@ -6329,10 +6329,10 @@
         <v>4.3</v>
       </c>
       <c r="AY30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AZ30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BA30" t="n">
         <v>5.4</v>
@@ -6347,7 +6347,7 @@
         <v>5.3</v>
       </c>
       <c r="BE30" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="BF30" t="n">
         <v>5.1</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="T31" t="n">
         <v>1.05</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -6582,22 +6582,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -6606,34 +6606,34 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>1.1</v>
+        <v>2.48</v>
       </c>
       <c r="O32" t="n">
         <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>1.05</v>
+        <v>3.7</v>
       </c>
       <c r="T32" t="n">
         <v>1.05</v>
       </c>
       <c r="U32" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="V32" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="W32" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -6702,7 +6702,7 @@
         <v>1.01</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU32" t="n">
         <v>1.01</v>
@@ -6717,7 +6717,7 @@
         <v>1.01</v>
       </c>
       <c r="AY32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AZ32" t="n">
         <v>1.01</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -6785,10 +6785,10 @@
         <v>7.6</v>
       </c>
       <c r="I33" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K33" t="n">
         <v>4.7</v>
@@ -6830,10 +6830,10 @@
         <v>2.74</v>
       </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z33" t="n">
         <v>80</v>
@@ -6842,34 +6842,34 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC33" t="n">
         <v>11.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE33" t="n">
         <v>200</v>
       </c>
       <c r="AF33" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG33" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH33" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI33" t="n">
         <v>180</v>
       </c>
       <c r="AJ33" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AK33" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL33" t="n">
         <v>60</v>
@@ -6887,28 +6887,28 @@
         <v>5.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AR33" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AU33" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AV33" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="AW33" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AX33" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AY33" t="n">
         <v>4.9</v>
@@ -6917,7 +6917,7 @@
         <v>3.75</v>
       </c>
       <c r="BA33" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="BB33" t="n">
         <v>5.6</v>
@@ -6926,20 +6926,20 @@
         <v>6.4</v>
       </c>
       <c r="BD33" t="n">
-        <v>2.46</v>
+        <v>3.95</v>
       </c>
       <c r="BE33" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="BF33" t="n">
         <v>8</v>
       </c>
       <c r="BG33" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 16:07:13</t>
+          <t>2026-02-25 18:22:02</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -765,7 +765,7 @@
         <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
@@ -774,7 +774,7 @@
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
@@ -792,7 +792,7 @@
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
         <v>1.85</v>
@@ -810,13 +810,13 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -828,10 +828,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -840,22 +840,22 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -864,68 +864,68 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.55</v>
+        <v>16.5</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="AS2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>4.2</v>
       </c>
-      <c r="AT2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>3.7</v>
-      </c>
       <c r="BA2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.34</v>
@@ -983,143 +983,143 @@
         <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
         <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AP3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>85</v>
+      </c>
+      <c r="BF3" t="n">
         <v>7</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>6.4</v>
-      </c>
       <c r="BG3" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
@@ -1189,7 +1189,7 @@
         <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
@@ -1198,122 +1198,122 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
         <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.8</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD4" t="n">
         <v>34</v>
       </c>
-      <c r="AX4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BE4" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="BF4" t="n">
         <v>16.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -1347,10 +1347,10 @@
         <v>1.31</v>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
         <v>14.5</v>
@@ -1362,7 +1362,7 @@
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1377,19 +1377,19 @@
         <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
         <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
         <v>2.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
         <v>1.07</v>
@@ -1401,7 +1401,7 @@
         <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="n">
         <v>130</v>
@@ -1410,16 +1410,16 @@
         <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
         <v>7.6</v>
@@ -1428,13 +1428,13 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
@@ -1443,22 +1443,22 @@
         <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
         <v>12.5</v>
@@ -1467,16 +1467,16 @@
         <v>7.6</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AY5" t="n">
         <v>10</v>
@@ -1485,29 +1485,29 @@
         <v>30</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
         <v>13.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="BE5" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="BG5" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
         <v>11.5</v>
       </c>
       <c r="I6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
@@ -1565,7 +1565,7 @@
         <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
         <v>2.52</v>
@@ -1577,7 +1577,7 @@
         <v>1.61</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
         <v>2.04</v>
@@ -1592,10 +1592,10 @@
         <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>150</v>
@@ -1604,10 +1604,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>50</v>
@@ -1622,7 +1622,7 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
         <v>180</v>
@@ -1631,13 +1631,13 @@
         <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
         <v>4.6</v>
@@ -1652,22 +1652,22 @@
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AX6" t="n">
         <v>7.8</v>
@@ -1676,10 +1676,10 @@
         <v>9.6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="BB6" t="n">
         <v>9.199999999999999</v>
@@ -1688,20 +1688,20 @@
         <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.8</v>
+        <v>32</v>
       </c>
       <c r="BE6" t="n">
-        <v>7.8</v>
+        <v>44</v>
       </c>
       <c r="BF6" t="n">
         <v>3.95</v>
       </c>
       <c r="BG6" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
         <v>2.02</v>
@@ -1768,10 +1768,10 @@
         <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.76</v>
@@ -1786,13 +1786,13 @@
         <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>38</v>
@@ -1810,7 +1810,7 @@
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1840,13 +1840,13 @@
         <v>22</v>
       </c>
       <c r="AP7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ7" t="n">
         <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AS7" t="n">
         <v>34</v>
@@ -1879,13 +1879,13 @@
         <v>38</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD7" t="n">
         <v>36</v>
       </c>
       <c r="BE7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BF7" t="n">
         <v>22</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.5</v>
@@ -1950,31 +1950,31 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
         <v>1.86</v>
@@ -1989,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="n">
         <v>8</v>
@@ -1998,10 +1998,10 @@
         <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -2019,37 +2019,37 @@
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AP8" t="n">
         <v>10</v>
       </c>
       <c r="AQ8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AT8" t="n">
         <v>7.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV8" t="n">
         <v>15.5</v>
@@ -2070,16 +2070,16 @@
         <v>60</v>
       </c>
       <c r="BB8" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC8" t="n">
         <v>23</v>
       </c>
-      <c r="BC8" t="n">
-        <v>22</v>
-      </c>
       <c r="BD8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BE8" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="BF8" t="n">
         <v>19</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -2120,13 +2120,13 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.41</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.42</v>
-      </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>8.4</v>
@@ -2144,7 +2144,7 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.14</v>
@@ -2162,28 +2162,28 @@
         <v>2.12</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="AB9" t="n">
         <v>13.5</v>
@@ -2192,10 +2192,10 @@
         <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -2204,7 +2204,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>75</v>
@@ -2219,25 +2219,25 @@
         <v>25</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
         <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="n">
         <v>30</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AR9" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AS9" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AT9" t="n">
         <v>12.5</v>
@@ -2246,22 +2246,22 @@
         <v>12.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AX9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB9" t="n">
         <v>12</v>
@@ -2279,11 +2279,11 @@
         <v>4.1</v>
       </c>
       <c r="BG9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
@@ -2338,103 +2338,103 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>690</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
         <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>42</v>
       </c>
       <c r="AS10" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AT10" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU10" t="n">
         <v>8.800000000000001</v>
@@ -2443,41 +2443,41 @@
         <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AZ10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BC10" t="n">
         <v>15</v>
       </c>
       <c r="BD10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BE10" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="BF10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG10" t="n">
         <v>65</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -2511,19 +2511,19 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="I11" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="J11" t="n">
         <v>5.7</v>
       </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.27</v>
@@ -2532,7 +2532,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.24</v>
@@ -2547,37 +2547,37 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T11" t="n">
         <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X11" t="n">
         <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AC11" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
         <v>11</v>
@@ -2592,25 +2592,25 @@
         <v>50</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="AK11" t="n">
         <v>230</v>
       </c>
       <c r="AL11" t="n">
-        <v>170</v>
+        <v>520</v>
       </c>
       <c r="AM11" t="n">
         <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AO11" t="n">
         <v>5.2</v>
@@ -2619,13 +2619,13 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AR11" t="n">
         <v>7.2</v>
       </c>
       <c r="AS11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AT11" t="n">
         <v>30</v>
@@ -2634,44 +2634,44 @@
         <v>11.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>8.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="AZ11" t="n">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>7.4</v>
+        <v>32</v>
       </c>
       <c r="BB11" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="BC11" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="BE11" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="BF11" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G12" t="n">
         <v>1.88</v>
@@ -2765,10 +2765,10 @@
         <v>42</v>
       </c>
       <c r="AA12" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
@@ -2777,7 +2777,7 @@
         <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>320</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2789,10 +2789,10 @@
         <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>20</v>
@@ -2801,13 +2801,13 @@
         <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
         <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="AP12" t="n">
         <v>16</v>
@@ -2819,7 +2819,7 @@
         <v>30</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AT12" t="n">
         <v>9.6</v>
@@ -2843,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="BB12" t="n">
         <v>17.5</v>
@@ -2852,10 +2852,10 @@
         <v>16</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.6</v>
+        <v>16</v>
       </c>
       <c r="BE12" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="BF12" t="n">
         <v>9.199999999999999</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -2896,16 +2896,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2920,16 +2920,16 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>1.34</v>
@@ -2938,31 +2938,31 @@
         <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
@@ -2971,7 +2971,7 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
         <v>9.6</v>
@@ -3004,10 +3004,10 @@
         <v>100</v>
       </c>
       <c r="AP13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR13" t="n">
         <v>40</v>
@@ -3016,7 +3016,7 @@
         <v>42</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AU13" t="n">
         <v>8.4</v>
@@ -3025,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AX13" t="n">
         <v>9.199999999999999</v>
@@ -3034,10 +3034,10 @@
         <v>9.4</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BB13" t="n">
         <v>16</v>
@@ -3055,11 +3055,11 @@
         <v>10.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
         <v>2.26</v>
@@ -3102,7 +3102,7 @@
         <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
         <v>3.9</v>
@@ -3114,7 +3114,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -3132,7 +3132,7 @@
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
         <v>2.26</v>
@@ -3141,10 +3141,10 @@
         <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
         <v>14</v>
@@ -3165,7 +3165,7 @@
         <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
         <v>14.5</v>
@@ -3192,7 +3192,7 @@
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>34</v>
@@ -3207,7 +3207,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AT14" t="n">
         <v>10</v>
@@ -3240,20 +3240,20 @@
         <v>21</v>
       </c>
       <c r="BD14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BE14" t="n">
         <v>60</v>
       </c>
       <c r="BF14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.34</v>
@@ -3320,16 +3320,16 @@
         <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
         <v>1.17</v>
@@ -3341,7 +3341,7 @@
         <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
         <v>55</v>
@@ -3350,7 +3350,7 @@
         <v>170</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3392,13 +3392,13 @@
         <v>85</v>
       </c>
       <c r="AP15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AS15" t="n">
         <v>75</v>
@@ -3425,19 +3425,19 @@
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BC15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BD15" t="n">
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="BF15" t="n">
         <v>6.6</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J16" t="n">
         <v>4.8</v>
@@ -3508,10 +3508,10 @@
         <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
@@ -3523,7 +3523,7 @@
         <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V16" t="n">
         <v>1.13</v>
@@ -3532,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
         <v>70</v>
@@ -3544,7 +3544,7 @@
         <v>280</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
         <v>10.5</v>
@@ -3553,13 +3553,13 @@
         <v>30</v>
       </c>
       <c r="AE16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF16" t="n">
         <v>8.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>26</v>
@@ -3574,7 +3574,7 @@
         <v>15.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>150</v>
@@ -3583,25 +3583,25 @@
         <v>7.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AP16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
         <v>60</v>
       </c>
       <c r="AS16" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AT16" t="n">
         <v>7.8</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV16" t="n">
         <v>28</v>
@@ -3613,7 +3613,7 @@
         <v>8</v>
       </c>
       <c r="AY16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AZ16" t="n">
         <v>24</v>
@@ -3637,11 +3637,11 @@
         <v>7</v>
       </c>
       <c r="BG16" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -3675,10 +3675,10 @@
         <v>1.25</v>
       </c>
       <c r="G17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I17" t="n">
         <v>16</v>
@@ -3693,7 +3693,7 @@
         <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
         <v>6.4</v>
@@ -3708,7 +3708,7 @@
         <v>1.48</v>
       </c>
       <c r="R17" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S17" t="n">
         <v>2.18</v>
@@ -3723,13 +3723,13 @@
         <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="Z17" t="n">
         <v>150</v>
@@ -3741,7 +3741,7 @@
         <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD17" t="n">
         <v>50</v>
@@ -3750,7 +3750,7 @@
         <v>230</v>
       </c>
       <c r="AF17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -3759,7 +3759,7 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.6</v>
@@ -3783,13 +3783,13 @@
         <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AR17" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
         <v>10</v>
@@ -3801,7 +3801,7 @@
         <v>42</v>
       </c>
       <c r="AW17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
         <v>7.8</v>
@@ -3813,10 +3813,10 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="BB17" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC17" t="n">
         <v>12</v>
@@ -3825,17 +3825,17 @@
         <v>30</v>
       </c>
       <c r="BE17" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="BG17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -3869,13 +3869,13 @@
         <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
@@ -3887,85 +3887,85 @@
         <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q18" t="n">
         <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
         <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W18" t="n">
         <v>1.81</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>20</v>
@@ -3980,19 +3980,19 @@
         <v>11.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="AS18" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AT18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="AW18" t="n">
         <v>32</v>
@@ -4004,32 +4004,32 @@
         <v>9.6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>5.9</v>
+        <v>12.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB18" t="n">
-        <v>6.4</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE18" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="BF18" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="BG18" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G19" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J19" t="n">
         <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1.23</v>
@@ -4087,10 +4087,10 @@
         <v>6.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="Q19" t="n">
         <v>1.46</v>
@@ -4099,7 +4099,7 @@
         <v>1.79</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T19" t="n">
         <v>2.6</v>
@@ -4111,10 +4111,10 @@
         <v>1.03</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X19" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="n">
         <v>80</v>
@@ -4141,7 +4141,7 @@
         <v>7.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
         <v>70</v>
@@ -4150,7 +4150,7 @@
         <v>400</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -4171,25 +4171,25 @@
         <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9.800000000000001</v>
+        <v>50</v>
       </c>
       <c r="AR19" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="AS19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AX19" t="n">
         <v>6.6</v>
@@ -4201,7 +4201,7 @@
         <v>50</v>
       </c>
       <c r="BA19" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="BB19" t="n">
         <v>7</v>
@@ -4210,20 +4210,20 @@
         <v>12.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="BE19" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="BG19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -4257,16 +4257,16 @@
         <v>1.32</v>
       </c>
       <c r="G20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I20" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="K20" t="n">
         <v>6.4</v>
@@ -4278,7 +4278,7 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
@@ -4287,137 +4287,137 @@
         <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V20" t="n">
         <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AB20" t="n">
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE20" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>230</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW20" t="n">
         <v>11</v>
       </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AV20" t="n">
+      <c r="AX20" t="n">
         <v>7.6</v>
       </c>
-      <c r="AW20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AY20" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA20" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="BB20" t="n">
-        <v>5.3</v>
+        <v>9.4</v>
       </c>
       <c r="BC20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BD20" t="n">
-        <v>7.4</v>
+        <v>29</v>
       </c>
       <c r="BE20" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BG20" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H21" t="n">
         <v>5.5</v>
@@ -4472,28 +4472,28 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T21" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V21" t="n">
         <v>1.2</v>
@@ -4502,55 +4502,55 @@
         <v>2.08</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>210</v>
+        <v>900</v>
       </c>
       <c r="AB21" t="n">
         <v>6.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
         <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -4562,13 +4562,13 @@
         <v>12.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>7.4</v>
+        <v>27</v>
       </c>
       <c r="AS21" t="n">
-        <v>8.6</v>
+        <v>44</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4577,19 +4577,19 @@
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>8.4</v>
+        <v>38</v>
       </c>
       <c r="AX21" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AZ21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA21" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="BB21" t="n">
         <v>18</v>
@@ -4598,20 +4598,20 @@
         <v>20</v>
       </c>
       <c r="BD21" t="n">
-        <v>7.6</v>
+        <v>46</v>
       </c>
       <c r="BE21" t="n">
-        <v>8.6</v>
+        <v>70</v>
       </c>
       <c r="BF21" t="n">
         <v>14</v>
       </c>
       <c r="BG21" t="n">
-        <v>8.4</v>
+        <v>44</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
         <v>3.65</v>
       </c>
       <c r="G22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
         <v>2.48</v>
@@ -4654,7 +4654,7 @@
         <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K22" t="n">
         <v>3.05</v>
@@ -4672,10 +4672,10 @@
         <v>1.63</v>
       </c>
       <c r="P22" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="R22" t="n">
         <v>1.16</v>
@@ -4684,10 +4684,10 @@
         <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V22" t="n">
         <v>1.63</v>
@@ -4696,22 +4696,22 @@
         <v>1.35</v>
       </c>
       <c r="X22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y22" t="n">
         <v>7.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
         <v>13.5</v>
@@ -4720,34 +4720,34 @@
         <v>46</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG22" t="n">
         <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="n">
         <v>90</v>
       </c>
       <c r="AJ22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AL22" t="n">
-        <v>110</v>
+        <v>490</v>
       </c>
       <c r="AM22" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AP22" t="n">
         <v>6.8</v>
@@ -4759,10 +4759,10 @@
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AT22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AU22" t="n">
         <v>6.2</v>
@@ -4771,7 +4771,7 @@
         <v>11.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AX22" t="n">
         <v>18</v>
@@ -4780,32 +4780,32 @@
         <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>6.2</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>7.6</v>
+        <v>50</v>
       </c>
       <c r="BB22" t="n">
-        <v>7.6</v>
+        <v>34</v>
       </c>
       <c r="BC22" t="n">
-        <v>7.4</v>
+        <v>30</v>
       </c>
       <c r="BD22" t="n">
-        <v>7.8</v>
+        <v>38</v>
       </c>
       <c r="BE22" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="BF22" t="n">
-        <v>7.8</v>
+        <v>36</v>
       </c>
       <c r="BG22" t="n">
-        <v>7.2</v>
+        <v>24</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>1.67</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
         <v>4.7</v>
@@ -4851,7 +4851,7 @@
         <v>2.76</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>85</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -4887,13 +4887,13 @@
         <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -4902,10 +4902,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -4914,10 +4914,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -4926,10 +4926,10 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -4947,59 +4947,59 @@
         <v>6.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="AR23" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>2.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>2.94</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="AY23" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>2.84</v>
       </c>
       <c r="BB23" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="BD23" t="n">
-        <v>4.8</v>
+        <v>2.86</v>
       </c>
       <c r="BE23" t="n">
-        <v>5.1</v>
+        <v>2.48</v>
       </c>
       <c r="BF23" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -5030,19 +5030,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="K24" t="n">
         <v>3.3</v>
@@ -5054,13 +5054,13 @@
         <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O24" t="n">
         <v>1.54</v>
       </c>
       <c r="P24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q24" t="n">
         <v>2.68</v>
@@ -5072,25 +5072,25 @@
         <v>5.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="U24" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -5099,34 +5099,34 @@
         <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
         <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
@@ -5138,62 +5138,62 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.55</v>
+        <v>5.8</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="AY24" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="BA24" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="BB24" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="BC24" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="BE24" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="BF24" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -5224,22 +5224,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -5248,22 +5248,22 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>1.1</v>
+        <v>2.22</v>
       </c>
       <c r="O25" t="n">
         <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.05</v>
+        <v>3.55</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
@@ -5272,31 +5272,31 @@
         <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
@@ -5305,7 +5305,7 @@
         <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH25" t="n">
         <v>1000</v>
@@ -5314,7 +5314,7 @@
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK25" t="n">
         <v>1000</v>
@@ -5323,7 +5323,7 @@
         <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
@@ -5332,62 +5332,62 @@
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AV25" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="BB25" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="BE25" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="BF25" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -5418,16 +5418,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -5442,67 +5442,67 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA26" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AB26" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE26" t="n">
         <v>60</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG26" t="n">
         <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
         <v>65</v>
@@ -5514,74 +5514,74 @@
         <v>26</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AP26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AR26" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>7.6</v>
+        <v>32</v>
       </c>
       <c r="AT26" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AW26" t="n">
-        <v>7.2</v>
+        <v>40</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>7.4</v>
+        <v>48</v>
       </c>
       <c r="BB26" t="n">
-        <v>6.4</v>
+        <v>22</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
       </c>
       <c r="BD26" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="BE26" t="n">
-        <v>7.8</v>
+        <v>65</v>
       </c>
       <c r="BF26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BG26" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -5612,22 +5612,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>950</v>
+        <v>6.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -5636,22 +5636,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="R27" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>2.88</v>
       </c>
       <c r="T27" t="n">
         <v>1.05</v>
@@ -5660,10 +5660,10 @@
         <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5723,59 +5723,59 @@
         <v>1.01</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BG27" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G28" t="n">
         <v>1.57</v>
@@ -5815,13 +5815,13 @@
         <v>8.4</v>
       </c>
       <c r="I28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.48</v>
@@ -5830,88 +5830,88 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.68</v>
       </c>
-      <c r="Q28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.63</v>
-      </c>
       <c r="V28" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W28" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
         <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AA28" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AE28" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI28" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AM28" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="AN28" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="AP28" t="n">
         <v>9.800000000000001</v>
@@ -5920,34 +5920,34 @@
         <v>18.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>6.4</v>
+        <v>48</v>
       </c>
       <c r="AS28" t="n">
-        <v>6.8</v>
+        <v>46</v>
       </c>
       <c r="AT28" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV28" t="n">
-        <v>5.9</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="n">
-        <v>6.8</v>
+        <v>44</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AZ28" t="n">
-        <v>5.8</v>
+        <v>21</v>
       </c>
       <c r="BA28" t="n">
-        <v>6.6</v>
+        <v>46</v>
       </c>
       <c r="BB28" t="n">
         <v>11.5</v>
@@ -5956,20 +5956,20 @@
         <v>17</v>
       </c>
       <c r="BD28" t="n">
-        <v>6.2</v>
+        <v>30</v>
       </c>
       <c r="BE28" t="n">
-        <v>6.8</v>
+        <v>38</v>
       </c>
       <c r="BF28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG28" t="n">
-        <v>6.8</v>
+        <v>95</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -6003,16 +6003,16 @@
         <v>4.1</v>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
         <v>2.32</v>
       </c>
       <c r="I29" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="K29" t="n">
         <v>2.96</v>
@@ -6045,13 +6045,13 @@
         <v>2.6</v>
       </c>
       <c r="U29" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V29" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W29" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X29" t="n">
         <v>6.2</v>
@@ -6063,7 +6063,7 @@
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB29" t="n">
         <v>9.4</v>
@@ -6072,7 +6072,7 @@
         <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>55</v>
@@ -6084,25 +6084,25 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ29" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AK29" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AL29" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AM29" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="AN29" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AO29" t="n">
         <v>60</v>
@@ -6117,7 +6117,7 @@
         <v>11</v>
       </c>
       <c r="AS29" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
         <v>8.199999999999999</v>
@@ -6138,32 +6138,32 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7.6</v>
+        <v>16</v>
       </c>
       <c r="BA29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BG29" t="n">
         <v>9</v>
       </c>
-      <c r="BB29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>42</v>
-      </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G30" t="n">
         <v>2.34</v>
@@ -6206,7 +6206,7 @@
         <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
@@ -6218,7 +6218,7 @@
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O30" t="n">
         <v>1.38</v>
@@ -6248,7 +6248,7 @@
         <v>1.74</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
@@ -6263,7 +6263,7 @@
         <v>9.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -6305,59 +6305,59 @@
         <v>9.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="AR30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AS30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BA30" t="n">
         <v>5.5</v>
       </c>
-      <c r="AT30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AV30" t="n">
+      <c r="BB30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BE30" t="n">
         <v>4.5</v>
       </c>
-      <c r="AW30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>5.6</v>
-      </c>
       <c r="BF30" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="BG30" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -6388,22 +6388,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="G31" t="n">
         <v>1000</v>
       </c>
       <c r="H31" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="I31" t="n">
         <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="K31" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -6436,10 +6436,10 @@
         <v>1.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -6496,62 +6496,62 @@
         <v>1000</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AU31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AY31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="BA31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="BC31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="BD31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="BE31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -6582,91 +6582,91 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="G32" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
-        <v>1.59</v>
+        <v>2.22</v>
       </c>
       <c r="I32" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
         <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T32" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="U32" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="V32" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="W32" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
         <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -6681,71 +6681,71 @@
         <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AR32" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.03</v>
+        <v>5.8</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AX32" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AY32" t="n">
-        <v>1.03</v>
+        <v>3.9</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BA32" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BB32" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BC32" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BD32" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BE32" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BF32" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BG32" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -6893,10 +6893,10 @@
         <v>4</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AU33" t="n">
         <v>5.1</v>
@@ -6905,10 +6905,10 @@
         <v>3.8</v>
       </c>
       <c r="AW33" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="AX33" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AY33" t="n">
         <v>4.9</v>
@@ -6917,7 +6917,7 @@
         <v>3.75</v>
       </c>
       <c r="BA33" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="BB33" t="n">
         <v>5.6</v>
@@ -6929,17 +6929,17 @@
         <v>3.95</v>
       </c>
       <c r="BE33" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="BF33" t="n">
         <v>8</v>
       </c>
       <c r="BG33" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 18:22:02</t>
+          <t>2026-02-25 20:36:00</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,22 +762,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -786,25 +786,25 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
         <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.08</v>
@@ -813,7 +813,7 @@
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
@@ -828,7 +828,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>14</v>
@@ -840,10 +840,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="n">
         <v>60</v>
@@ -852,7 +852,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
         <v>65</v>
@@ -876,10 +876,10 @@
         <v>16.5</v>
       </c>
       <c r="AR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS2" t="n">
         <v>4.3</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>4.4</v>
       </c>
       <c r="AT2" t="n">
         <v>4.9</v>
@@ -888,7 +888,7 @@
         <v>4.9</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="AW2" t="n">
         <v>4.5</v>
@@ -900,32 +900,32 @@
         <v>6.2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="BA2" t="n">
         <v>4.5</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BE2" t="n">
         <v>4.6</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -959,16 +959,16 @@
         <v>1.59</v>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I3" t="n">
         <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>4.6</v>
@@ -983,34 +983,34 @@
         <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
         <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
         <v>23</v>
@@ -1019,7 +1019,7 @@
         <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="AB3" t="n">
         <v>10</v>
@@ -1031,10 +1031,10 @@
         <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -1043,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1052,37 +1052,37 @@
         <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AT3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>28</v>
@@ -1091,10 +1091,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA3" t="n">
         <v>28</v>
@@ -1106,20 +1106,20 @@
         <v>14</v>
       </c>
       <c r="BD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BE3" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="BF3" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BG3" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
@@ -1174,25 +1174,25 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
         <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1210,7 +1210,7 @@
         <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
         <v>75</v>
@@ -1231,37 +1231,37 @@
         <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AR4" t="n">
         <v>22</v>
@@ -1270,19 +1270,19 @@
         <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV4" t="n">
         <v>14</v>
       </c>
       <c r="AW4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
@@ -1294,26 +1294,26 @@
         <v>23</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
       </c>
       <c r="BD4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BE4" t="n">
         <v>29</v>
       </c>
       <c r="BF4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -1344,19 +1344,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
         <v>14.5</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
@@ -1371,31 +1371,31 @@
         <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U5" t="n">
         <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="X5" t="n">
         <v>19.5</v>
@@ -1410,7 +1410,7 @@
         <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
@@ -1419,7 +1419,7 @@
         <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AF5" t="n">
         <v>7.6</v>
@@ -1428,22 +1428,22 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN5" t="n">
         <v>5.5</v>
@@ -1458,13 +1458,13 @@
         <v>28</v>
       </c>
       <c r="AR5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AU5" t="n">
         <v>11.5</v>
@@ -1473,19 +1473,19 @@
         <v>36</v>
       </c>
       <c r="AW5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
         <v>10</v>
       </c>
       <c r="AZ5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
@@ -1494,20 +1494,20 @@
         <v>13.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="BE5" t="n">
         <v>38</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="BG5" t="n">
         <v>15</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -1541,16 +1541,16 @@
         <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K6" t="n">
         <v>6.4</v>
@@ -1562,25 +1562,25 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
         <v>1.84</v>
@@ -1589,119 +1589,119 @@
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AE6" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR6" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX6" t="n">
         <v>7.8</v>
       </c>
       <c r="AY6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ6" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="BA6" t="n">
         <v>9.6</v>
       </c>
       <c r="BB6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BC6" t="n">
         <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BE6" t="n">
         <v>44</v>
       </c>
       <c r="BF6" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="BG6" t="n">
         <v>15</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -1756,16 +1756,16 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
         <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.39</v>
@@ -1786,10 +1786,10 @@
         <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
@@ -1810,7 +1810,7 @@
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1885,7 +1885,7 @@
         <v>36</v>
       </c>
       <c r="BE7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BF7" t="n">
         <v>22</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -1938,43 +1938,43 @@
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
         <v>1.86</v>
@@ -1989,10 +1989,10 @@
         <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -2019,19 +2019,19 @@
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
         <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AP8" t="n">
         <v>10</v>
@@ -2040,13 +2040,13 @@
         <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AT8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AU8" t="n">
         <v>7.2</v>
@@ -2064,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA8" t="n">
         <v>60</v>
@@ -2082,14 +2082,14 @@
         <v>75</v>
       </c>
       <c r="BF8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BG8" t="n">
         <v>60</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -2132,10 +2132,10 @@
         <v>8.4</v>
       </c>
       <c r="J9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K9" t="n">
         <v>5.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.24</v>
@@ -2144,16 +2144,16 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P9" t="n">
         <v>3.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R9" t="n">
         <v>1.86</v>
@@ -2192,10 +2192,10 @@
         <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -2204,10 +2204,10 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2231,10 +2231,10 @@
         <v>30</v>
       </c>
       <c r="AQ9" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AR9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AS9" t="n">
         <v>75</v>
@@ -2249,7 +2249,7 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AX9" t="n">
         <v>10</v>
@@ -2264,10 +2264,10 @@
         <v>60</v>
       </c>
       <c r="BB9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BC9" t="n">
         <v>12</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>12.5</v>
       </c>
       <c r="BD9" t="n">
         <v>23</v>
@@ -2279,11 +2279,11 @@
         <v>4.1</v>
       </c>
       <c r="BG9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -2323,16 +2323,16 @@
         <v>5.7</v>
       </c>
       <c r="I10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.3</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2344,19 +2344,19 @@
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
         <v>2.14</v>
@@ -2368,7 +2368,7 @@
         <v>2.44</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
         <v>22</v>
@@ -2377,16 +2377,16 @@
         <v>46</v>
       </c>
       <c r="AA10" t="n">
-        <v>690</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>70</v>
@@ -2404,7 +2404,7 @@
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK10" t="n">
         <v>16.5</v>
@@ -2416,22 +2416,22 @@
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP10" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR10" t="n">
         <v>42</v>
       </c>
       <c r="AS10" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AT10" t="n">
         <v>9.199999999999999</v>
@@ -2440,7 +2440,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AW10" t="n">
         <v>55</v>
@@ -2455,7 +2455,7 @@
         <v>18</v>
       </c>
       <c r="BA10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
         <v>15.5</v>
@@ -2464,20 +2464,20 @@
         <v>15</v>
       </c>
       <c r="BD10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BE10" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BG10" t="n">
         <v>65</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
         <v>1.31</v>
       </c>
       <c r="I11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J11" t="n">
         <v>5.7</v>
@@ -2529,7 +2529,7 @@
         <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>4.8</v>
@@ -2538,13 +2538,13 @@
         <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
         <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
         <v>2.64</v>
@@ -2556,22 +2556,22 @@
         <v>1.79</v>
       </c>
       <c r="V11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="W11" t="n">
         <v>1.08</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
         <v>95</v>
@@ -2583,19 +2583,19 @@
         <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AF11" t="n">
         <v>130</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>550</v>
@@ -2607,7 +2607,7 @@
         <v>520</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
         <v>320</v>
@@ -2622,25 +2622,25 @@
         <v>7.8</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AS11" t="n">
         <v>9.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AU11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>9.4</v>
       </c>
       <c r="AW11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AY11" t="n">
         <v>30</v>
@@ -2652,10 +2652,10 @@
         <v>32</v>
       </c>
       <c r="BB11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BC11" t="n">
         <v>12</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>11.5</v>
       </c>
       <c r="BD11" t="n">
         <v>11.5</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
         <v>1.88</v>
@@ -2714,7 +2714,7 @@
         <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
         <v>4.3</v>
@@ -2726,7 +2726,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2756,13 +2756,13 @@
         <v>2.12</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
         <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
@@ -2771,79 +2771,79 @@
         <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO12" t="n">
         <v>270</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AR12" t="n">
         <v>30</v>
       </c>
       <c r="AS12" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AU12" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AV12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>6.4</v>
+        <v>23</v>
       </c>
       <c r="BB12" t="n">
         <v>17.5</v>
@@ -2855,17 +2855,17 @@
         <v>16</v>
       </c>
       <c r="BE12" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="BF12" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="BG12" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G13" t="n">
         <v>1.72</v>
@@ -2905,7 +2905,7 @@
         <v>5.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2917,31 +2917,31 @@
         <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
         <v>1.2</v>
@@ -2950,19 +2950,19 @@
         <v>2.38</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
         <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
@@ -2971,13 +2971,13 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
         <v>9.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2989,25 +2989,25 @@
         <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
         <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR13" t="n">
         <v>40</v>
@@ -3016,7 +3016,7 @@
         <v>42</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AU13" t="n">
         <v>8.4</v>
@@ -3034,7 +3034,7 @@
         <v>9.4</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
         <v>75</v>
@@ -3046,20 +3046,20 @@
         <v>17</v>
       </c>
       <c r="BD13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BE13" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="BF13" t="n">
         <v>10.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -3102,13 +3102,13 @@
         <v>3.45</v>
       </c>
       <c r="J14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.85</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -3117,46 +3117,46 @@
         <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
         <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
@@ -3174,13 +3174,13 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
         <v>22</v>
@@ -3189,31 +3189,31 @@
         <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
         <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ14" t="n">
         <v>13</v>
       </c>
       <c r="AR14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS14" t="n">
         <v>55</v>
       </c>
       <c r="AT14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV14" t="n">
         <v>13</v>
@@ -3228,32 +3228,32 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BB14" t="n">
         <v>26</v>
       </c>
       <c r="BC14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BE14" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BF14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BG14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
         <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -3314,10 +3314,10 @@
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R15" t="n">
         <v>1.52</v>
@@ -3332,7 +3332,7 @@
         <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W15" t="n">
         <v>2.66</v>
@@ -3383,7 +3383,7 @@
         <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
         <v>7</v>
@@ -3416,10 +3416,10 @@
         <v>70</v>
       </c>
       <c r="AX15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ15" t="n">
         <v>19</v>
@@ -3428,7 +3428,7 @@
         <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
         <v>14.5</v>
@@ -3437,7 +3437,7 @@
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="BF15" t="n">
         <v>6.6</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G16" t="n">
         <v>1.5</v>
@@ -3505,13 +3505,13 @@
         <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
         <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
@@ -3553,7 +3553,7 @@
         <v>30</v>
       </c>
       <c r="AE16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="n">
         <v>8.4</v>
@@ -3571,7 +3571,7 @@
         <v>12.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>36</v>
@@ -3583,10 +3583,10 @@
         <v>7.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>23</v>
@@ -3595,7 +3595,7 @@
         <v>60</v>
       </c>
       <c r="AS16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AT16" t="n">
         <v>7.8</v>
@@ -3610,13 +3610,13 @@
         <v>42</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AY16" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA16" t="n">
         <v>40</v>
@@ -3637,11 +3637,11 @@
         <v>7</v>
       </c>
       <c r="BG16" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>1.25</v>
       </c>
       <c r="G17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H17" t="n">
         <v>14</v>
@@ -3687,7 +3687,7 @@
         <v>7.2</v>
       </c>
       <c r="K17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.26</v>
@@ -3705,25 +3705,25 @@
         <v>2.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
         <v>2.12</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
         <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
@@ -3741,16 +3741,16 @@
         <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE17" t="n">
         <v>230</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -3759,7 +3759,7 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.6</v>
@@ -3774,34 +3774,34 @@
         <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO17" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ17" t="n">
         <v>44</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AS17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT17" t="n">
         <v>10</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AV17" t="n">
         <v>42</v>
       </c>
       <c r="AW17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>7.8</v>
@@ -3810,13 +3810,13 @@
         <v>10.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA17" t="n">
         <v>29</v>
       </c>
       <c r="BB17" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BC17" t="n">
         <v>12</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -3893,25 +3893,25 @@
         <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q18" t="n">
         <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.34</v>
@@ -3920,7 +3920,7 @@
         <v>1.81</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
         <v>25</v>
@@ -3938,37 +3938,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="n">
         <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL18" t="n">
         <v>500</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>130</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -3977,28 +3977,28 @@
         <v>11.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AT18" t="n">
         <v>8</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV18" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AY18" t="n">
         <v>9.6</v>
@@ -4007,29 +4007,29 @@
         <v>12.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="BB18" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BC18" t="n">
         <v>11.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="BE18" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF18" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="BG18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -4066,46 +4066,46 @@
         <v>1.15</v>
       </c>
       <c r="H19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J19" t="n">
         <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="S19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U19" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V19" t="n">
         <v>1.03</v>
@@ -4114,7 +4114,7 @@
         <v>7.6</v>
       </c>
       <c r="X19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
         <v>80</v>
@@ -4138,13 +4138,13 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AG19" t="n">
         <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AI19" t="n">
         <v>400</v>
@@ -4153,7 +4153,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
         <v>65</v>
@@ -4174,10 +4174,10 @@
         <v>50</v>
       </c>
       <c r="AR19" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>9.6</v>
@@ -4186,28 +4186,28 @@
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="AW19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AY19" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA19" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="BB19" t="n">
         <v>7</v>
       </c>
       <c r="BC19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BD19" t="n">
         <v>10.5</v>
@@ -4216,14 +4216,14 @@
         <v>34</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="BG19" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
         <v>12.5</v>
@@ -4269,7 +4269,7 @@
         <v>6.2</v>
       </c>
       <c r="K20" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -4278,28 +4278,28 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
         <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
         <v>1.08</v>
@@ -4311,25 +4311,25 @@
         <v>27</v>
       </c>
       <c r="Y20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA20" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AB20" t="n">
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="n">
         <v>42</v>
       </c>
       <c r="AE20" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="n">
         <v>8.4</v>
@@ -4341,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="AJ20" t="n">
         <v>10.5</v>
@@ -4356,46 +4356,46 @@
         <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AY20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="BB20" t="n">
         <v>9.4</v>
@@ -4404,10 +4404,10 @@
         <v>12.5</v>
       </c>
       <c r="BD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BE20" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="BF20" t="n">
         <v>4.3</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G21" t="n">
         <v>1.92</v>
@@ -4457,7 +4457,7 @@
         <v>5.5</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J21" t="n">
         <v>3.3</v>
@@ -4472,10 +4472,10 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P21" t="n">
         <v>1.64</v>
@@ -4487,13 +4487,13 @@
         <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U21" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V21" t="n">
         <v>1.2</v>
@@ -4502,10 +4502,10 @@
         <v>2.08</v>
       </c>
       <c r="X21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
         <v>44</v>
@@ -4514,19 +4514,19 @@
         <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
         <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -4562,7 +4562,7 @@
         <v>12.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AS21" t="n">
         <v>44</v>
@@ -4583,35 +4583,35 @@
         <v>9</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BB21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BE21" t="n">
         <v>70</v>
       </c>
       <c r="BF21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BG21" t="n">
         <v>44</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -4651,10 +4651,10 @@
         <v>2.48</v>
       </c>
       <c r="I22" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="n">
         <v>3.05</v>
@@ -4666,49 +4666,49 @@
         <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O22" t="n">
         <v>1.63</v>
       </c>
       <c r="P22" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="R22" t="n">
         <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U22" t="n">
         <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W22" t="n">
         <v>1.35</v>
       </c>
       <c r="X22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" t="n">
         <v>7.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
@@ -4717,7 +4717,7 @@
         <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="n">
         <v>24</v>
@@ -4729,25 +4729,25 @@
         <v>44</v>
       </c>
       <c r="AI22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK22" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="AL22" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN22" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AP22" t="n">
         <v>6.8</v>
@@ -4759,40 +4759,40 @@
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AT22" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AU22" t="n">
         <v>6.2</v>
       </c>
       <c r="AV22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AW22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AX22" t="n">
         <v>18</v>
       </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="BB22" t="n">
         <v>34</v>
       </c>
       <c r="BC22" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="BD22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BE22" t="n">
         <v>70</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I23" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="K23" t="n">
-        <v>85</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -4860,7 +4860,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O23" t="n">
         <v>1.31</v>
@@ -4881,16 +4881,16 @@
         <v>1.05</v>
       </c>
       <c r="U23" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="V23" t="n">
         <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Y23" t="n">
         <v>38</v>
@@ -4902,10 +4902,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="AT23" t="n">
         <v>3.75</v>
@@ -4965,7 +4965,7 @@
         <v>7.4</v>
       </c>
       <c r="AW23" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="AX23" t="n">
         <v>4.9</v>
@@ -4977,7 +4977,7 @@
         <v>7.6</v>
       </c>
       <c r="BA23" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="BB23" t="n">
         <v>7</v>
@@ -4986,20 +4986,20 @@
         <v>7.4</v>
       </c>
       <c r="BD23" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="BE23" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="BF23" t="n">
         <v>4.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -5030,16 +5030,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
         <v>2.8</v>
@@ -5078,43 +5078,43 @@
         <v>1.76</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Z24" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -5123,7 +5123,7 @@
         <v>500</v>
       </c>
       <c r="AK24" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
         <v>500</v>
@@ -5138,62 +5138,62 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="AQ24" t="n">
         <v>5.8</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="AS24" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="AU24" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.2</v>
+        <v>9.6</v>
       </c>
       <c r="AX24" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AY24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BA24" t="n">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="BB24" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="BD24" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="BE24" t="n">
-        <v>5.6</v>
+        <v>11.5</v>
       </c>
       <c r="BF24" t="n">
         <v>7.4</v>
       </c>
       <c r="BG24" t="n">
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -5224,22 +5224,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="H25" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="J25" t="n">
-        <v>2.64</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -5248,7 +5248,7 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>2.22</v>
+        <v>2.58</v>
       </c>
       <c r="O25" t="n">
         <v>1.38</v>
@@ -5272,58 +5272,58 @@
         <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="X25" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z25" t="n">
         <v>500</v>
       </c>
-      <c r="Z25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA25" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF25" t="n">
         <v>500</v>
       </c>
-      <c r="AC25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH25" t="n">
         <v>500</v>
       </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ25" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM25" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
@@ -5332,62 +5332,62 @@
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AQ25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU25" t="n">
         <v>6.2</v>
       </c>
-      <c r="AR25" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AV25" t="n">
-        <v>1.64</v>
+        <v>8.4</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.72</v>
+        <v>10.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.66</v>
+        <v>7.6</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.61</v>
+        <v>9.6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1.67</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.73</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>1.72</v>
+        <v>10</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.72</v>
+        <v>11</v>
       </c>
       <c r="BE25" t="n">
-        <v>1.73</v>
+        <v>12.5</v>
       </c>
       <c r="BF25" t="n">
-        <v>1.69</v>
+        <v>7.2</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.7</v>
+        <v>7.8</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -5418,25 +5418,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
@@ -5448,10 +5448,10 @@
         <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R26" t="n">
         <v>1.32</v>
@@ -5460,46 +5460,46 @@
         <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AA26" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
         <v>19.5</v>
@@ -5508,46 +5508,46 @@
         <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AP26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AS26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AT26" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AW26" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AX26" t="n">
         <v>11</v>
@@ -5559,13 +5559,13 @@
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BB26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BD26" t="n">
         <v>34</v>
@@ -5574,14 +5574,14 @@
         <v>65</v>
       </c>
       <c r="BF26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="BG26" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -5612,22 +5612,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -5636,19 +5636,19 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="O27" t="n">
         <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S27" t="n">
         <v>2.88</v>
@@ -5660,10 +5660,10 @@
         <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W27" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5681,7 +5681,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -5720,62 +5720,62 @@
         <v>1000</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="BG27" t="n">
         <v>1.55</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -5809,10 +5809,10 @@
         <v>1.52</v>
       </c>
       <c r="G28" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H28" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
         <v>9.4</v>
@@ -5821,10 +5821,10 @@
         <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
@@ -5833,16 +5833,16 @@
         <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
         <v>1.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
         <v>4.1</v>
@@ -5857,46 +5857,46 @@
         <v>1.12</v>
       </c>
       <c r="W28" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="X28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>13</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>460</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13.5</v>
       </c>
       <c r="AK28" t="n">
         <v>19.5</v>
@@ -5905,40 +5905,40 @@
         <v>140</v>
       </c>
       <c r="AM28" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="AP28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>48</v>
       </c>
       <c r="AS28" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AT28" t="n">
         <v>5.9</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV28" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AW28" t="n">
         <v>44</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AY28" t="n">
         <v>9.6</v>
@@ -5950,26 +5950,26 @@
         <v>46</v>
       </c>
       <c r="BB28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BD28" t="n">
         <v>30</v>
       </c>
       <c r="BE28" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="BF28" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="BG28" t="n">
         <v>95</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -6006,31 +6006,31 @@
         <v>4.6</v>
       </c>
       <c r="H29" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="J29" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K29" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L29" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.19</v>
       </c>
       <c r="N29" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O29" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="P29" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q29" t="n">
         <v>3.5</v>
@@ -6039,49 +6039,49 @@
         <v>1.12</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="T29" t="n">
         <v>2.6</v>
       </c>
       <c r="U29" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V29" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X29" t="n">
         <v>6.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
         <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF29" t="n">
         <v>30</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>80</v>
@@ -6105,10 +6105,10 @@
         <v>500</v>
       </c>
       <c r="AO29" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>5.3</v>
@@ -6120,13 +6120,13 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AU29" t="n">
         <v>6.6</v>
       </c>
       <c r="AV29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AW29" t="n">
         <v>38</v>
@@ -6141,29 +6141,29 @@
         <v>16</v>
       </c>
       <c r="BA29" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="BB29" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="BC29" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="BD29" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="BE29" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="BF29" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
         <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
@@ -6215,7 +6215,7 @@
         <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
         <v>2.62</v>
@@ -6224,16 +6224,16 @@
         <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="Q30" t="n">
         <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="T30" t="n">
         <v>1.89</v>
@@ -6260,10 +6260,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -6272,7 +6272,7 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
         <v>1000</v>
@@ -6284,7 +6284,7 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
@@ -6308,22 +6308,22 @@
         <v>6.2</v>
       </c>
       <c r="AR30" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="AS30" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AT30" t="n">
         <v>4.9</v>
       </c>
       <c r="AU30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AV30" t="n">
         <v>8.4</v>
       </c>
       <c r="AW30" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AX30" t="n">
         <v>6.4</v>
@@ -6332,32 +6332,32 @@
         <v>6.2</v>
       </c>
       <c r="AZ30" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="BA30" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="BB30" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="BC30" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="BD30" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="BE30" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="BF30" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="BG30" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -6388,46 +6388,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H31" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>500</v>
+        <v>6.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S31" t="n">
-        <v>1.35</v>
+        <v>2.46</v>
       </c>
       <c r="T31" t="n">
         <v>1.05</v>
@@ -6436,10 +6436,10 @@
         <v>1.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="W31" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -6457,7 +6457,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -6499,59 +6499,59 @@
         <v>6.4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AU31" t="n">
         <v>1.06</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AY31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="BA31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="BC31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="BD31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="BE31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="BG31" t="n">
         <v>1.55</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G32" t="n">
         <v>4.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
         <v>2.38</v>
@@ -6597,7 +6597,7 @@
         <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -6612,22 +6612,22 @@
         <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T32" t="n">
         <v>1.94</v>
       </c>
       <c r="U32" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V32" t="n">
         <v>1.72</v>
@@ -6636,41 +6636,41 @@
         <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
         <v>500</v>
       </c>
-      <c r="AB32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ32" t="n">
         <v>1000</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM32" t="n">
         <v>580</v>
@@ -6687,65 +6687,65 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="AR32" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AS32" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="AT32" t="n">
         <v>5.8</v>
       </c>
       <c r="AU32" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="AV32" t="n">
         <v>6.4</v>
       </c>
       <c r="AW32" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="AX32" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA32" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="BB32" t="n">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="BC32" t="n">
-        <v>4.4</v>
+        <v>2.88</v>
       </c>
       <c r="BD32" t="n">
-        <v>4.5</v>
+        <v>48</v>
       </c>
       <c r="BE32" t="n">
-        <v>4.6</v>
+        <v>2.58</v>
       </c>
       <c r="BF32" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="BG32" t="n">
         <v>5.7</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -6788,10 +6788,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.38</v>
@@ -6803,7 +6803,7 @@
         <v>3.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P33" t="n">
         <v>1.77</v>
@@ -6812,7 +6812,7 @@
         <v>2.1</v>
       </c>
       <c r="R33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
         <v>3.8</v>
@@ -6830,7 +6830,7 @@
         <v>2.74</v>
       </c>
       <c r="X33" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
         <v>980</v>
@@ -6842,7 +6842,7 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AC33" t="n">
         <v>11.5</v>
@@ -6854,10 +6854,10 @@
         <v>200</v>
       </c>
       <c r="AF33" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG33" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
         <v>980</v>
@@ -6866,13 +6866,13 @@
         <v>180</v>
       </c>
       <c r="AJ33" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AK33" t="n">
         <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
@@ -6884,62 +6884,62 @@
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="AR33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="AU33" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="AV33" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="AW33" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="AY33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BC33" t="n">
         <v>4.9</v>
       </c>
-      <c r="AZ33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BB33" t="n">
+      <c r="BD33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG33" t="n">
         <v>5.6</v>
       </c>
-      <c r="BC33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>2.38</v>
-      </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>
@@ -6970,22 +6970,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="I34" t="n">
         <v>1000</v>
       </c>
       <c r="J34" t="n">
-        <v>2.08</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -6994,22 +6994,22 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.25</v>
+        <v>2.76</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S34" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="T34" t="n">
         <v>1.05</v>
@@ -7021,7 +7021,7 @@
         <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 20:36:00</t>
+          <t>2026-02-25 23:01:25</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
         <v>1.83</v>
@@ -810,10 +810,10 @@
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
@@ -846,7 +846,7 @@
         <v>40</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -855,10 +855,10 @@
         <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -870,28 +870,28 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16.5</v>
+        <v>2.72</v>
       </c>
       <c r="AR2" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.3</v>
+        <v>2.64</v>
       </c>
       <c r="AT2" t="n">
         <v>4.9</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>2.64</v>
       </c>
       <c r="AX2" t="n">
         <v>5.6</v>
@@ -900,32 +900,32 @@
         <v>6.2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.6</v>
+        <v>2.74</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.5</v>
+        <v>2.66</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="BC2" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.6</v>
+        <v>2.66</v>
       </c>
       <c r="BF2" t="n">
         <v>3.6</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.2</v>
+        <v>2.34</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -974,31 +974,31 @@
         <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
         <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
         <v>2.02</v>
@@ -1031,10 +1031,10 @@
         <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -1043,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1052,10 +1052,10 @@
         <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
         <v>7.8</v>
@@ -1067,34 +1067,34 @@
         <v>16</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV3" t="n">
         <v>21</v>
       </c>
       <c r="AW3" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AX3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>28</v>
@@ -1112,14 +1112,14 @@
         <v>55</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BG3" t="n">
         <v>70</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
         <v>2.28</v>
@@ -1168,28 +1168,28 @@
         <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
@@ -1201,13 +1201,13 @@
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
         <v>25</v>
@@ -1216,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
@@ -1231,13 +1231,13 @@
         <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
         <v>30</v>
@@ -1246,40 +1246,40 @@
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR4" t="n">
         <v>22</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AT4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AX4" t="n">
         <v>11.5</v>
@@ -1288,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="BB4" t="n">
         <v>25</v>
@@ -1309,11 +1309,11 @@
         <v>17.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1347,13 +1347,13 @@
         <v>1.32</v>
       </c>
       <c r="G5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
         <v>5.9</v>
@@ -1368,22 +1368,22 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q5" t="n">
         <v>1.76</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T5" t="n">
         <v>2.32</v>
@@ -1395,7 +1395,7 @@
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X5" t="n">
         <v>19.5</v>
@@ -1428,16 +1428,16 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
         <v>48</v>
@@ -1446,34 +1446,34 @@
         <v>220</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="AP5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU5" t="n">
         <v>11.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AW5" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1485,10 +1485,10 @@
         <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="BB5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC5" t="n">
         <v>13.5</v>
@@ -1500,14 +1500,14 @@
         <v>38</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BG5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1541,16 +1541,16 @@
         <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
         <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
         <v>6.4</v>
@@ -1559,37 +1559,37 @@
         <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="S6" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
         <v>25</v>
@@ -1598,22 +1598,22 @@
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="AB6" t="n">
         <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF6" t="n">
         <v>9.199999999999999</v>
@@ -1625,7 +1625,7 @@
         <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
         <v>11.5</v>
@@ -1634,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
         <v>170</v>
@@ -1643,19 +1643,19 @@
         <v>4.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AP6" t="n">
         <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.800000000000001</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>9.199999999999999</v>
@@ -1667,7 +1667,7 @@
         <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AX6" t="n">
         <v>7.8</v>
@@ -1676,10 +1676,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>9.4</v>
@@ -1694,14 +1694,14 @@
         <v>44</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BG6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1741,13 +1741,13 @@
         <v>2.64</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.41</v>
@@ -1756,10 +1756,10 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
         <v>2.02</v>
@@ -1780,16 +1780,16 @@
         <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W7" t="n">
         <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
@@ -1834,10 +1834,10 @@
         <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
@@ -1855,7 +1855,7 @@
         <v>11.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1876,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="BB7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BC7" t="n">
         <v>28</v>
@@ -1888,14 +1888,14 @@
         <v>65</v>
       </c>
       <c r="BF7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BG7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.51</v>
@@ -1959,7 +1959,7 @@
         <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1974,10 +1974,10 @@
         <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1986,10 +1986,10 @@
         <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
         <v>7.8</v>
@@ -1998,13 +1998,13 @@
         <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
@@ -2013,25 +2013,25 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
         <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>490</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP8" t="n">
         <v>10</v>
@@ -2040,25 +2040,25 @@
         <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AT8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU8" t="n">
         <v>7.2</v>
       </c>
       <c r="AV8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AW8" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY8" t="n">
         <v>10</v>
@@ -2070,7 +2070,7 @@
         <v>60</v>
       </c>
       <c r="BB8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC8" t="n">
         <v>23</v>
@@ -2082,14 +2082,14 @@
         <v>75</v>
       </c>
       <c r="BF8" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="BG8" t="n">
         <v>60</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="I9" t="n">
-        <v>8.4</v>
-      </c>
       <c r="J9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.24</v>
@@ -2144,19 +2144,19 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S9" t="n">
         <v>2.12</v>
@@ -2165,13 +2165,13 @@
         <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X9" t="n">
         <v>34</v>
@@ -2183,7 +2183,7 @@
         <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
         <v>13.5</v>
@@ -2204,13 +2204,13 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2222,10 +2222,10 @@
         <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP9" t="n">
         <v>30</v>
@@ -2237,7 +2237,7 @@
         <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AT9" t="n">
         <v>12.5</v>
@@ -2279,11 +2279,11 @@
         <v>4.1</v>
       </c>
       <c r="BG9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2314,31 +2314,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="H10" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
@@ -2350,13 +2350,13 @@
         <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
         <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
         <v>2.14</v>
@@ -2365,49 +2365,49 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="n">
         <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL10" t="n">
         <v>32</v>
@@ -2416,7 +2416,7 @@
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
         <v>75</v>
@@ -2425,13 +2425,13 @@
         <v>16.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
         <v>42</v>
       </c>
       <c r="AS10" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AT10" t="n">
         <v>9.199999999999999</v>
@@ -2440,10 +2440,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AX10" t="n">
         <v>9.800000000000001</v>
@@ -2452,13 +2452,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB10" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="BC10" t="n">
         <v>15</v>
@@ -2470,14 +2470,14 @@
         <v>70</v>
       </c>
       <c r="BF10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BG10" t="n">
         <v>65</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2508,55 +2508,55 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H11" t="n">
         <v>1.31</v>
       </c>
       <c r="I11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="J11" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
         <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
         <v>1.08</v>
@@ -2568,13 +2568,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
         <v>14</v>
@@ -2595,13 +2595,13 @@
         <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="AK11" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AL11" t="n">
         <v>520</v>
@@ -2610,10 +2610,10 @@
         <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2622,13 +2622,13 @@
         <v>7.8</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AS11" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AU11" t="n">
         <v>12</v>
@@ -2640,7 +2640,7 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY11" t="n">
         <v>30</v>
@@ -2652,26 +2652,26 @@
         <v>32</v>
       </c>
       <c r="BB11" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="BD11" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="BE11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BF11" t="n">
         <v>15</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="G12" t="n">
         <v>1.88</v>
@@ -2711,46 +2711,46 @@
         <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
         <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
         <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
         <v>2.12</v>
@@ -2759,7 +2759,7 @@
         <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
         <v>100</v>
@@ -2768,16 +2768,16 @@
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
         <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="AF12" t="n">
         <v>12.5</v>
@@ -2792,10 +2792,10 @@
         <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
         <v>85</v>
@@ -2804,10 +2804,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>270</v>
+        <v>980</v>
       </c>
       <c r="AP12" t="n">
         <v>16.5</v>
@@ -2819,7 +2819,7 @@
         <v>30</v>
       </c>
       <c r="AS12" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AT12" t="n">
         <v>9.4</v>
@@ -2831,7 +2831,7 @@
         <v>15.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AX12" t="n">
         <v>10.5</v>
@@ -2843,7 +2843,7 @@
         <v>15.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="BB12" t="n">
         <v>17.5</v>
@@ -2852,20 +2852,20 @@
         <v>16</v>
       </c>
       <c r="BD12" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BE12" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="BF12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -2920,28 +2920,28 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V13" t="n">
         <v>1.2</v>
@@ -2950,10 +2950,10 @@
         <v>2.38</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
         <v>44</v>
@@ -2962,7 +2962,7 @@
         <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC13" t="n">
         <v>8.800000000000001</v>
@@ -2989,7 +2989,7 @@
         <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>36</v>
@@ -3007,7 +3007,7 @@
         <v>13.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AR13" t="n">
         <v>40</v>
@@ -3016,7 +3016,7 @@
         <v>42</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AU13" t="n">
         <v>8.4</v>
@@ -3025,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX13" t="n">
         <v>9.199999999999999</v>
@@ -3037,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
         <v>16</v>
@@ -3046,20 +3046,20 @@
         <v>17</v>
       </c>
       <c r="BD13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BE13" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="BF13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BG13" t="n">
         <v>85</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -3090,22 +3090,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.4</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -3114,43 +3114,43 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
         <v>60</v>
@@ -3165,7 +3165,7 @@
         <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
         <v>14.5</v>
@@ -3177,7 +3177,7 @@
         <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ14" t="n">
         <v>29</v>
@@ -3192,34 +3192,34 @@
         <v>80</v>
       </c>
       <c r="AN14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP14" t="n">
         <v>15</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>16</v>
       </c>
       <c r="AQ14" t="n">
         <v>13</v>
       </c>
       <c r="AR14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AT14" t="n">
         <v>10.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>13</v>
       </c>
       <c r="AW14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX14" t="n">
         <v>13.5</v>
@@ -3231,13 +3231,13 @@
         <v>15.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BB14" t="n">
         <v>26</v>
       </c>
       <c r="BC14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD14" t="n">
         <v>30</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -3293,10 +3293,10 @@
         <v>6.2</v>
       </c>
       <c r="I15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K15" t="n">
         <v>4.7</v>
@@ -3314,7 +3314,7 @@
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
         <v>1.72</v>
@@ -3323,10 +3323,10 @@
         <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
         <v>2.14</v>
@@ -3374,13 +3374,13 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
@@ -3419,7 +3419,7 @@
         <v>9.6</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ15" t="n">
         <v>19</v>
@@ -3428,7 +3428,7 @@
         <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BC15" t="n">
         <v>14.5</v>
@@ -3440,14 +3440,14 @@
         <v>55</v>
       </c>
       <c r="BF15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BG15" t="n">
         <v>80</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -3478,19 +3478,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K16" t="n">
         <v>4.9</v>
@@ -3502,7 +3502,7 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.28</v>
@@ -3511,13 +3511,13 @@
         <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
         <v>2.06</v>
@@ -3529,10 +3529,10 @@
         <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
         <v>25</v>
@@ -3541,7 +3541,7 @@
         <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB16" t="n">
         <v>8.199999999999999</v>
@@ -3553,7 +3553,7 @@
         <v>30</v>
       </c>
       <c r="AE16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF16" t="n">
         <v>8.4</v>
@@ -3565,7 +3565,7 @@
         <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
         <v>12.5</v>
@@ -3577,10 +3577,10 @@
         <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO16" t="n">
         <v>150</v>
@@ -3589,7 +3589,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
         <v>60</v>
@@ -3607,16 +3607,16 @@
         <v>28</v>
       </c>
       <c r="AW16" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA16" t="n">
         <v>40</v>
@@ -3637,11 +3637,11 @@
         <v>7</v>
       </c>
       <c r="BG16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -3678,13 +3678,13 @@
         <v>1.26</v>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J17" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K17" t="n">
         <v>7.6</v>
@@ -3696,22 +3696,22 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="Q17" t="n">
         <v>1.49</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T17" t="n">
         <v>2.12</v>
@@ -3723,7 +3723,7 @@
         <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
@@ -3741,7 +3741,7 @@
         <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD17" t="n">
         <v>55</v>
@@ -3777,7 +3777,7 @@
         <v>3.65</v>
       </c>
       <c r="AO17" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AP17" t="n">
         <v>27</v>
@@ -3789,7 +3789,7 @@
         <v>36</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
         <v>10</v>
@@ -3798,13 +3798,13 @@
         <v>15.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AY17" t="n">
         <v>10.5</v>
@@ -3828,14 +3828,14 @@
         <v>80</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="BG17" t="n">
         <v>21</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
@@ -3884,31 +3884,31 @@
         <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="Q18" t="n">
         <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
         <v>2.04</v>
@@ -3938,7 +3938,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AE18" t="n">
         <v>200</v>
@@ -3959,7 +3959,7 @@
         <v>34</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AL18" t="n">
         <v>500</v>
@@ -3983,7 +3983,7 @@
         <v>20</v>
       </c>
       <c r="AS18" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT18" t="n">
         <v>8</v>
@@ -3995,7 +3995,7 @@
         <v>13</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX18" t="n">
         <v>10.5</v>
@@ -4007,7 +4007,7 @@
         <v>12.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB18" t="n">
         <v>23</v>
@@ -4016,20 +4016,20 @@
         <v>11.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BE18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF18" t="n">
         <v>6.4</v>
       </c>
       <c r="BG18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4075,31 +4075,31 @@
         <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
         <v>1.77</v>
       </c>
       <c r="S19" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="T19" t="n">
         <v>2.62</v>
@@ -4114,10 +4114,10 @@
         <v>7.6</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="n">
         <v>320</v>
@@ -4126,19 +4126,19 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD19" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG19" t="n">
         <v>15.5</v>
@@ -4147,22 +4147,22 @@
         <v>330</v>
       </c>
       <c r="AI19" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AJ19" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -4171,37 +4171,37 @@
         <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AV19" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AW19" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AY19" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="BA19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BB19" t="n">
         <v>7</v>
@@ -4210,20 +4210,20 @@
         <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="BE19" t="n">
         <v>34</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="BG19" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.32</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.33</v>
       </c>
       <c r="H20" t="n">
         <v>11</v>
@@ -4266,10 +4266,10 @@
         <v>12.5</v>
       </c>
       <c r="J20" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -4284,40 +4284,40 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T20" t="n">
         <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X20" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
         <v>42</v>
       </c>
       <c r="Z20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="AB20" t="n">
         <v>10.5</v>
@@ -4326,10 +4326,10 @@
         <v>20</v>
       </c>
       <c r="AD20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="n">
         <v>8.4</v>
@@ -4338,7 +4338,7 @@
         <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
         <v>520</v>
@@ -4347,7 +4347,7 @@
         <v>10.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL20" t="n">
         <v>36</v>
@@ -4356,19 +4356,19 @@
         <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO20" t="n">
         <v>210</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>34</v>
       </c>
       <c r="AR20" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AS20" t="n">
         <v>15</v>
@@ -4383,7 +4383,7 @@
         <v>30</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
         <v>7.4</v>
@@ -4392,13 +4392,13 @@
         <v>9.6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BA20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BB20" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
         <v>12.5</v>
@@ -4407,7 +4407,7 @@
         <v>30</v>
       </c>
       <c r="BE20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BF20" t="n">
         <v>4.3</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4448,13 +4448,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G21" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
         <v>5.9</v>
@@ -4466,34 +4466,34 @@
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O21" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S21" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V21" t="n">
         <v>1.2</v>
@@ -4502,10 +4502,10 @@
         <v>2.08</v>
       </c>
       <c r="X21" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>44</v>
@@ -4517,13 +4517,13 @@
         <v>7</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
         <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AF21" t="n">
         <v>9.800000000000001</v>
@@ -4550,7 +4550,7 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -4568,7 +4568,7 @@
         <v>44</v>
       </c>
       <c r="AT21" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4583,13 +4583,13 @@
         <v>9</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ21" t="n">
         <v>21</v>
       </c>
       <c r="BA21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BB21" t="n">
         <v>18.5</v>
@@ -4598,7 +4598,7 @@
         <v>21</v>
       </c>
       <c r="BD21" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="BE21" t="n">
         <v>70</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
         <v>2.48</v>
       </c>
       <c r="I22" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
         <v>2.94</v>
@@ -4660,28 +4660,28 @@
         <v>3.05</v>
       </c>
       <c r="L22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M22" t="n">
         <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P22" t="n">
         <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="R22" t="n">
         <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T22" t="n">
         <v>2.28</v>
@@ -4690,10 +4690,10 @@
         <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X22" t="n">
         <v>7.6</v>
@@ -4708,7 +4708,7 @@
         <v>75</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
@@ -4717,7 +4717,7 @@
         <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AF22" t="n">
         <v>24</v>
@@ -4732,10 +4732,10 @@
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AK22" t="n">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
         <v>500</v>
@@ -4744,7 +4744,7 @@
         <v>500</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AO22" t="n">
         <v>140</v>
@@ -4759,10 +4759,10 @@
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AT22" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AU22" t="n">
         <v>6.2</v>
@@ -4771,7 +4771,7 @@
         <v>12</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AX22" t="n">
         <v>18</v>
@@ -4780,10 +4780,10 @@
         <v>15.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BB22" t="n">
         <v>34</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -4839,10 +4839,10 @@
         <v>1.71</v>
       </c>
       <c r="G23" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
         <v>8.800000000000001</v>
@@ -4851,19 +4851,19 @@
         <v>2.86</v>
       </c>
       <c r="K23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="O23" t="n">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="P23" t="n">
         <v>1.38</v>
@@ -4872,28 +4872,28 @@
         <v>2.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S23" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
         <v>1.05</v>
       </c>
       <c r="U23" t="n">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="V23" t="n">
         <v>1.13</v>
       </c>
       <c r="W23" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X23" t="n">
         <v>18.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -4902,7 +4902,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
         <v>14.5</v>
@@ -4929,7 +4929,7 @@
         <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -4950,56 +4950,56 @@
         <v>7.6</v>
       </c>
       <c r="AR23" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="AS23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AV23" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AW23" t="n">
         <v>3.15</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AY23" t="n">
         <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="BA23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="BB23" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC23" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="BD23" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="BE23" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="BF23" t="n">
         <v>4.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
         <v>3.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="M24" t="n">
         <v>1.12</v>
@@ -5060,7 +5060,7 @@
         <v>1.54</v>
       </c>
       <c r="P24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q24" t="n">
         <v>2.68</v>
@@ -5069,7 +5069,7 @@
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T24" t="n">
         <v>2.12</v>
@@ -5087,7 +5087,7 @@
         <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -5108,7 +5108,7 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>30</v>
@@ -5147,19 +5147,19 @@
         <v>8.4</v>
       </c>
       <c r="AS24" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AU24" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AV24" t="n">
         <v>7.2</v>
       </c>
       <c r="AW24" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX24" t="n">
         <v>6.4</v>
@@ -5168,19 +5168,19 @@
         <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="BB24" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="BC24" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="BD24" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="BE24" t="n">
         <v>11.5</v>
@@ -5189,11 +5189,11 @@
         <v>7.4</v>
       </c>
       <c r="BG24" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5224,55 +5224,55 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="H25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
         <v>3.2</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.58</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U25" t="n">
         <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="W25" t="n">
         <v>1.57</v>
@@ -5281,10 +5281,10 @@
         <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="Z25" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AA25" t="n">
         <v>500</v>
@@ -5302,7 +5302,7 @@
         <v>210</v>
       </c>
       <c r="AF25" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AG25" t="n">
         <v>23</v>
@@ -5332,16 +5332,16 @@
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AR25" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AT25" t="n">
         <v>8</v>
@@ -5353,16 +5353,16 @@
         <v>8.4</v>
       </c>
       <c r="AW25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>7.6</v>
       </c>
       <c r="AY25" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BA25" t="n">
         <v>11</v>
@@ -5371,23 +5371,23 @@
         <v>10</v>
       </c>
       <c r="BC25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="BD25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BE25" t="n">
         <v>12.5</v>
       </c>
       <c r="BF25" t="n">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="BG25" t="n">
         <v>7.8</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5436,13 +5436,13 @@
         <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -5451,16 +5451,16 @@
         <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
         <v>2.04</v>
@@ -5520,7 +5520,7 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO26" t="n">
         <v>65</v>
@@ -5532,10 +5532,10 @@
         <v>13</v>
       </c>
       <c r="AR26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS26" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AT26" t="n">
         <v>8.199999999999999</v>
@@ -5544,7 +5544,7 @@
         <v>7.4</v>
       </c>
       <c r="AV26" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AW26" t="n">
         <v>48</v>
@@ -5571,7 +5571,7 @@
         <v>34</v>
       </c>
       <c r="BE26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BF26" t="n">
         <v>14.5</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5612,46 +5612,46 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>1.98</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>9.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>2.88</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
         <v>1.05</v>
@@ -5660,10 +5660,10 @@
         <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -5720,62 +5720,62 @@
         <v>1000</v>
       </c>
       <c r="AP27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>1.23</v>
       </c>
-      <c r="AQ27" t="n">
+      <c r="BA27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB27" t="n">
         <v>1.24</v>
       </c>
-      <c r="AR27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB27" t="n">
+      <c r="BC27" t="n">
         <v>1.23</v>
       </c>
-      <c r="BC27" t="n">
-        <v>1.22</v>
-      </c>
       <c r="BD27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BF27" t="n">
         <v>1.23</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>1.22</v>
       </c>
       <c r="BG27" t="n">
         <v>1.55</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -5812,25 +5812,25 @@
         <v>1.56</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I28" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
         <v>1.41</v>
@@ -5839,16 +5839,16 @@
         <v>1.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
         <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="U28" t="n">
         <v>1.68</v>
@@ -5863,7 +5863,7 @@
         <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
         <v>90</v>
@@ -5872,7 +5872,7 @@
         <v>440</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC28" t="n">
         <v>10.5</v>
@@ -5884,7 +5884,7 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
@@ -5908,10 +5908,10 @@
         <v>300</v>
       </c>
       <c r="AN28" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AP28" t="n">
         <v>10</v>
@@ -5929,7 +5929,7 @@
         <v>5.9</v>
       </c>
       <c r="AU28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AV28" t="n">
         <v>28</v>
@@ -5950,7 +5950,7 @@
         <v>46</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BC28" t="n">
         <v>16.5</v>
@@ -5962,14 +5962,14 @@
         <v>65</v>
       </c>
       <c r="BF28" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG28" t="n">
         <v>95</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6003,61 +6003,61 @@
         <v>4.1</v>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I29" t="n">
         <v>2.44</v>
       </c>
       <c r="J29" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K29" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="M29" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O29" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P29" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S29" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T29" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="U29" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="V29" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W29" t="n">
         <v>1.29</v>
       </c>
       <c r="X29" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z29" t="n">
         <v>12.5</v>
@@ -6075,16 +6075,16 @@
         <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AF29" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="n">
         <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AI29" t="n">
         <v>290</v>
@@ -6105,10 +6105,10 @@
         <v>500</v>
       </c>
       <c r="AO29" t="n">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AQ29" t="n">
         <v>5.3</v>
@@ -6141,29 +6141,29 @@
         <v>16</v>
       </c>
       <c r="BA29" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BB29" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BD29" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="BE29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF29" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6197,55 +6197,55 @@
         <v>2.16</v>
       </c>
       <c r="G30" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="U30" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="V30" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W30" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X30" t="n">
         <v>90</v>
@@ -6272,10 +6272,10 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
@@ -6308,22 +6308,22 @@
         <v>6.2</v>
       </c>
       <c r="AR30" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AU30" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AV30" t="n">
         <v>8.4</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AX30" t="n">
         <v>6.4</v>
@@ -6332,32 +6332,32 @@
         <v>6.2</v>
       </c>
       <c r="AZ30" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BA30" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="BB30" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="BC30" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="BD30" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="BE30" t="n">
-        <v>3.05</v>
+        <v>2.56</v>
       </c>
       <c r="BF30" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG30" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6388,46 +6388,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="G31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>2.56</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J31" t="n">
         <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="T31" t="n">
         <v>1.05</v>
@@ -6436,10 +6436,10 @@
         <v>1.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="W31" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -6499,59 +6499,59 @@
         <v>6.4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AU31" t="n">
         <v>1.06</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AY31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="BA31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BC31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BD31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BE31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.14</v>
+        <v>1.55</v>
       </c>
       <c r="BG31" t="n">
         <v>1.55</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6582,25 +6582,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G32" t="n">
         <v>4.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I32" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
@@ -6609,19 +6609,19 @@
         <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
         <v>1.68</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
         <v>1.25</v>
       </c>
       <c r="S32" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="T32" t="n">
         <v>1.94</v>
@@ -6630,7 +6630,7 @@
         <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="W32" t="n">
         <v>1.33</v>
@@ -6642,7 +6642,7 @@
         <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA32" t="n">
         <v>900</v>
@@ -6654,7 +6654,7 @@
         <v>14</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="n">
         <v>110</v>
@@ -6678,7 +6678,7 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="AM32" t="n">
         <v>580</v>
@@ -6690,19 +6690,19 @@
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AQ32" t="n">
         <v>5.2</v>
       </c>
       <c r="AR32" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AS32" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="AT32" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AU32" t="n">
         <v>6.6</v>
@@ -6711,7 +6711,7 @@
         <v>6.4</v>
       </c>
       <c r="AW32" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="AX32" t="n">
         <v>11.5</v>
@@ -6720,32 +6720,32 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AZ32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BA32" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="BB32" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BC32" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BD32" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="BE32" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="BF32" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="BG32" t="n">
         <v>5.7</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6776,55 +6776,55 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G33" t="n">
         <v>1.57</v>
       </c>
       <c r="H33" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J33" t="n">
         <v>4.1</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R33" t="n">
         <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U33" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="V33" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W33" t="n">
         <v>2.74</v>
@@ -6851,13 +6851,13 @@
         <v>980</v>
       </c>
       <c r="AE33" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF33" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH33" t="n">
         <v>980</v>
@@ -6866,7 +6866,7 @@
         <v>180</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AK33" t="n">
         <v>980</v>
@@ -6878,68 +6878,68 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AQ33" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="AR33" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="AS33" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="AT33" t="n">
         <v>5.8</v>
       </c>
       <c r="AU33" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AV33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BC33" t="n">
         <v>5.6</v>
       </c>
-      <c r="AW33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>4.9</v>
-      </c>
       <c r="BD33" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="BE33" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="BF33" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BG33" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>
@@ -6970,10 +6970,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="G34" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="H34" t="n">
         <v>7.2</v>
@@ -6985,31 +6985,31 @@
         <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>2.76</v>
+        <v>4.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P34" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="R34" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="S34" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="T34" t="n">
         <v>1.05</v>
@@ -7021,7 +7021,7 @@
         <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-25 23:01:25</t>
+          <t>2026-02-26 01:19:12</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -765,10 +765,10 @@
         <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>4.8</v>
@@ -777,7 +777,7 @@
         <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -786,10 +786,10 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
         <v>1.86</v>
@@ -813,7 +813,7 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
@@ -873,25 +873,25 @@
         <v>9.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.72</v>
+        <v>6.8</v>
       </c>
       <c r="AR2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AS2" t="n">
         <v>2.7</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2.64</v>
       </c>
       <c r="AT2" t="n">
         <v>4.9</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="AX2" t="n">
         <v>5.6</v>
@@ -900,32 +900,32 @@
         <v>6.2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="BB2" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.05</v>
+        <v>7.2</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="BF2" t="n">
         <v>3.6</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.34</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H3" t="n">
         <v>6.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -989,16 +989,16 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
         <v>2.02</v>
@@ -1007,13 +1007,13 @@
         <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
         <v>55</v>
@@ -1022,76 +1022,76 @@
         <v>700</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
         <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK3" t="n">
         <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
         <v>7.8</v>
       </c>
       <c r="AO3" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="AP3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1103,23 +1103,23 @@
         <v>13</v>
       </c>
       <c r="BC3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BE3" t="n">
         <v>55</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="BG3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1150,40 +1150,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
@@ -1192,40 +1192,40 @@
         <v>3.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
       </c>
       <c r="Y4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD4" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>16</v>
-      </c>
       <c r="AE4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="n">
         <v>13.5</v>
@@ -1234,55 +1234,55 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="n">
         <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AP4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AR4" t="n">
         <v>22</v>
       </c>
       <c r="AS4" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AT4" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
@@ -1291,29 +1291,29 @@
         <v>17.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="BE4" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="BF4" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="BG4" t="n">
         <v>42</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1347,22 @@
         <v>1.32</v>
       </c>
       <c r="G5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
         <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1383,40 +1383,40 @@
         <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>36</v>
       </c>
       <c r="Z5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="n">
         <v>250</v>
@@ -1443,16 +1443,16 @@
         <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
@@ -1461,34 +1461,34 @@
         <v>18.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AU5" t="n">
         <v>11.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AY5" t="n">
         <v>10</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA5" t="n">
         <v>19.5</v>
       </c>
       <c r="BB5" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC5" t="n">
         <v>13.5</v>
@@ -1500,14 +1500,14 @@
         <v>38</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="BG5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1538,19 +1538,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
         <v>6.4</v>
@@ -1571,118 +1571,118 @@
         <v>2.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
         <v>150</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>170</v>
       </c>
       <c r="AN6" t="n">
         <v>4.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ6" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AV6" t="n">
         <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="BA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB6" t="n">
         <v>10</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>9.4</v>
       </c>
       <c r="BC6" t="n">
         <v>12.5</v>
@@ -1694,14 +1694,14 @@
         <v>44</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BG6" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
@@ -1756,40 +1756,40 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
@@ -1801,7 +1801,7 @@
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>12</v>
@@ -1816,7 +1816,7 @@
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI7" t="n">
         <v>38</v>
@@ -1831,13 +1831,13 @@
         <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
         <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
@@ -1891,11 +1891,11 @@
         <v>23</v>
       </c>
       <c r="BG7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -1929,55 +1929,55 @@
         <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" t="n">
         <v>2.32</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
         <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1992,7 +1992,7 @@
         <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -2001,7 +2001,7 @@
         <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
         <v>11.5</v>
@@ -2025,7 +2025,7 @@
         <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
@@ -2046,7 +2046,7 @@
         <v>80</v>
       </c>
       <c r="AT8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AU8" t="n">
         <v>7.2</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="AW8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AX8" t="n">
         <v>10.5</v>
@@ -2079,17 +2079,17 @@
         <v>42</v>
       </c>
       <c r="BE8" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="BF8" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="BG8" t="n">
         <v>60</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
         <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I9" t="n">
         <v>8.199999999999999</v>
@@ -2138,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2150,7 +2150,7 @@
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q9" t="n">
         <v>1.45</v>
@@ -2162,10 +2162,10 @@
         <v>2.12</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
@@ -2174,7 +2174,7 @@
         <v>3.35</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="n">
         <v>38</v>
@@ -2183,7 +2183,7 @@
         <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
         <v>13.5</v>
@@ -2201,16 +2201,16 @@
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2237,7 +2237,7 @@
         <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AT9" t="n">
         <v>12.5</v>
@@ -2261,10 +2261,10 @@
         <v>19.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BB9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BC9" t="n">
         <v>12</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2314,46 +2314,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G10" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
         <v>1.83</v>
@@ -2362,13 +2362,13 @@
         <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -2377,13 +2377,13 @@
         <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
@@ -2410,43 +2410,43 @@
         <v>15.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>570</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AP10" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>42</v>
       </c>
       <c r="AS10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AT10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU10" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AU10" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AY10" t="n">
         <v>9.199999999999999</v>
@@ -2455,29 +2455,29 @@
         <v>18.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BC10" t="n">
         <v>15</v>
       </c>
       <c r="BD10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BE10" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="BF10" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BG10" t="n">
         <v>65</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
         <v>12</v>
       </c>
-      <c r="G11" t="n">
-        <v>13.5</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="I11" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.32</v>
@@ -2532,88 +2532,88 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="n">
         <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="W11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X11" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="n">
         <v>160</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="n">
         <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>590</v>
+        <v>490</v>
       </c>
       <c r="AK11" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="AL11" t="n">
         <v>520</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2622,16 +2622,16 @@
         <v>7.8</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT11" t="n">
         <v>14.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AV11" t="n">
         <v>9.4</v>
@@ -2640,38 +2640,38 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB11" t="n">
         <v>13.5</v>
       </c>
-      <c r="AY11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>32</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>15</v>
-      </c>
       <c r="BC11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="BE11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="BF11" t="n">
         <v>15</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2702,58 +2702,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="G12" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.25</v>
       </c>
-      <c r="P12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W12" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="X12" t="n">
         <v>28</v>
@@ -2771,13 +2771,13 @@
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="AF12" t="n">
         <v>12.5</v>
@@ -2804,34 +2804,34 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AP12" t="n">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AR12" t="n">
         <v>30</v>
       </c>
       <c r="AS12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV12" t="n">
         <v>15.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>10.5</v>
@@ -2843,29 +2843,29 @@
         <v>15.5</v>
       </c>
       <c r="BA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>21</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BG12" t="n">
         <v>12.5</v>
       </c>
-      <c r="BB12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>24</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>12</v>
-      </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>1.71</v>
       </c>
       <c r="G13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
         <v>5.7</v>
@@ -2914,52 +2914,52 @@
         <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
         <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X13" t="n">
         <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
         <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="n">
         <v>7.8</v>
@@ -2974,16 +2974,16 @@
         <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
         <v>17</v>
@@ -2992,7 +2992,7 @@
         <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
         <v>130</v>
@@ -3001,13 +3001,13 @@
         <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AP13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AR13" t="n">
         <v>40</v>
@@ -3016,7 +3016,7 @@
         <v>42</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU13" t="n">
         <v>8.4</v>
@@ -3037,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB13" t="n">
         <v>16</v>
@@ -3052,14 +3052,14 @@
         <v>75</v>
       </c>
       <c r="BF13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BG13" t="n">
         <v>85</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3090,25 +3090,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.75</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -3117,143 +3117,143 @@
         <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
         <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V14" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="X14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>17</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AI14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP14" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AQ14" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW14" t="n">
         <v>30</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AX14" t="n">
         <v>15</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AT14" t="n">
+      <c r="AY14" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>10</v>
       </c>
       <c r="AZ14" t="n">
         <v>15.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BB14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BC14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BE14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BF14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BG14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3284,16 +3284,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
         <v>6.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.4</v>
       </c>
       <c r="J15" t="n">
         <v>4.6</v>
@@ -3311,31 +3311,31 @@
         <v>4.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
         <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
         <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W15" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X15" t="n">
         <v>19</v>
@@ -3344,10 +3344,10 @@
         <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA15" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
@@ -3356,22 +3356,22 @@
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>80</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
         <v>15</v>
@@ -3386,22 +3386,22 @@
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AS15" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AT15" t="n">
         <v>9.4</v>
@@ -3410,16 +3410,16 @@
         <v>9.6</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AX15" t="n">
         <v>9.6</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ15" t="n">
         <v>19</v>
@@ -3428,7 +3428,7 @@
         <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
         <v>14.5</v>
@@ -3437,17 +3437,17 @@
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="BF15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BG15" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3478,25 +3478,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I16" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.7</v>
       </c>
-      <c r="K16" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -3505,43 +3505,43 @@
         <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
         <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="X16" t="n">
         <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA16" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AB16" t="n">
         <v>8.199999999999999</v>
@@ -3550,28 +3550,28 @@
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>120</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG16" t="n">
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
         <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL16" t="n">
         <v>36</v>
@@ -3580,7 +3580,7 @@
         <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
         <v>150</v>
@@ -3589,40 +3589,40 @@
         <v>15.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AS16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AT16" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AV16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AW16" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY16" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA16" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="BB16" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BC16" t="n">
         <v>14.5</v>
@@ -3634,14 +3634,14 @@
         <v>75</v>
       </c>
       <c r="BF16" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BG16" t="n">
         <v>120</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
         <v>15.5</v>
       </c>
       <c r="J17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K17" t="n">
         <v>7.6</v>
@@ -3693,10 +3693,10 @@
         <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.16</v>
@@ -3708,25 +3708,25 @@
         <v>1.49</v>
       </c>
       <c r="R17" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S17" t="n">
         <v>2.22</v>
       </c>
       <c r="T17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V17" t="n">
         <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y17" t="n">
         <v>55</v>
@@ -3741,13 +3741,13 @@
         <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE17" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF17" t="n">
         <v>8.6</v>
@@ -3765,19 +3765,19 @@
         <v>9.6</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AP17" t="n">
         <v>27</v>
@@ -3789,28 +3789,28 @@
         <v>36</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AW17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AY17" t="n">
         <v>10.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>29</v>
@@ -3825,17 +3825,17 @@
         <v>30</v>
       </c>
       <c r="BE17" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="BG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G18" t="n">
         <v>2.22</v>
@@ -3875,13 +3875,13 @@
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.45</v>
@@ -3908,43 +3908,43 @@
         <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
         <v>1.81</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
@@ -3953,83 +3953,83 @@
         <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK18" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AP18" t="n">
         <v>11.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AW18" t="n">
         <v>20</v>
       </c>
-      <c r="AS18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV18" t="n">
+      <c r="AX18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA18" t="n">
         <v>13</v>
       </c>
-      <c r="AW18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="BB18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC18" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="BD18" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BE18" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="BF18" t="n">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="BG18" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4060,94 +4060,94 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="G19" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W19" t="n">
         <v>6.8</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7.6</v>
-      </c>
       <c r="X19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z19" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>330</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AJ19" t="n">
         <v>8.199999999999999</v>
@@ -4159,71 +4159,71 @@
         <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AS19" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AU19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AW19" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AY19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ19" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="BA19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB19" t="n">
         <v>7</v>
       </c>
       <c r="BC19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="BE19" t="n">
         <v>34</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="BG19" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4254,13 +4254,13 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.31</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.32</v>
-      </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I20" t="n">
         <v>12.5</v>
@@ -4284,16 +4284,16 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S20" t="n">
         <v>2.54</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.56</v>
       </c>
       <c r="T20" t="n">
         <v>2.04</v>
@@ -4302,13 +4302,13 @@
         <v>1.85</v>
       </c>
       <c r="V20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="n">
         <v>42</v>
@@ -4317,16 +4317,16 @@
         <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
         <v>20</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AE20" t="n">
         <v>190</v>
@@ -4362,43 +4362,43 @@
         <v>210</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>34</v>
       </c>
       <c r="AR20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AS20" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AT20" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AU20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>30</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AY20" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="BC20" t="n">
         <v>12.5</v>
@@ -4407,17 +4407,17 @@
         <v>30</v>
       </c>
       <c r="BE20" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BG20" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4448,67 +4448,67 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
         <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P21" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X21" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
         <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
         <v>900</v>
@@ -4520,19 +4520,19 @@
         <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>290</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
         <v>500</v>
@@ -4541,34 +4541,34 @@
         <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
       </c>
       <c r="AP21" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AR21" t="n">
         <v>32</v>
       </c>
       <c r="AS21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AT21" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4577,19 +4577,19 @@
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AX21" t="n">
         <v>9</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BB21" t="n">
         <v>18.5</v>
@@ -4598,7 +4598,7 @@
         <v>21</v>
       </c>
       <c r="BD21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BE21" t="n">
         <v>70</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4645,28 +4645,28 @@
         <v>3.65</v>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J22" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
         <v>3.05</v>
       </c>
       <c r="L22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M22" t="n">
         <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.64</v>
@@ -4675,7 +4675,7 @@
         <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
         <v>1.16</v>
@@ -4684,13 +4684,13 @@
         <v>6.6</v>
       </c>
       <c r="T22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U22" t="n">
         <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W22" t="n">
         <v>1.36</v>
@@ -4723,13 +4723,13 @@
         <v>24</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
         <v>44</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ22" t="n">
         <v>240</v>
@@ -4750,7 +4750,7 @@
         <v>140</v>
       </c>
       <c r="AP22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
         <v>6.4</v>
@@ -4777,13 +4777,13 @@
         <v>18</v>
       </c>
       <c r="AY22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="BB22" t="n">
         <v>34</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -4836,25 +4836,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="I23" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M23" t="n">
         <v>1.13</v>
@@ -4863,37 +4863,37 @@
         <v>2.46</v>
       </c>
       <c r="O23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P23" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.48</v>
+        <v>2.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V23" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="W23" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -4902,10 +4902,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -4914,7 +4914,7 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
         <v>40</v>
@@ -4929,7 +4929,7 @@
         <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -4950,56 +4950,56 @@
         <v>7.6</v>
       </c>
       <c r="AR23" t="n">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="AS23" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AU23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AV23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AW23" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="AY23" t="n">
         <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="BA23" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="BB23" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BC23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BD23" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="BE23" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="BF23" t="n">
         <v>4.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5030,64 +5030,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
         <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.6</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.54</v>
-      </c>
       <c r="P24" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S24" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
         <v>1.67</v>
       </c>
       <c r="X24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -5096,10 +5096,10 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC24" t="n">
         <v>14</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -5138,62 +5138,62 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU24" t="n">
         <v>5.1</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AV24" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AW24" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AX24" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AY24" t="n">
         <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="BB24" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="BC24" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="BD24" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="BE24" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="BF24" t="n">
         <v>7.4</v>
       </c>
       <c r="BG24" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="G25" t="n">
         <v>2.78</v>
@@ -5233,7 +5233,7 @@
         <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -5242,37 +5242,37 @@
         <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q25" t="n">
         <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
         <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W25" t="n">
         <v>1.57</v>
@@ -5287,13 +5287,13 @@
         <v>90</v>
       </c>
       <c r="AA25" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>9.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
         <v>65</v>
@@ -5332,19 +5332,19 @@
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AR25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS25" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU25" t="n">
         <v>6.2</v>
@@ -5353,41 +5353,41 @@
         <v>8.4</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
-        <v>7.6</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AZ25" t="n">
         <v>10.5</v>
       </c>
       <c r="BA25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BD25" t="n">
         <v>11</v>
       </c>
-      <c r="BB25" t="n">
+      <c r="BE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF25" t="n">
         <v>10</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>9.6</v>
       </c>
       <c r="BG25" t="n">
         <v>7.8</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -5442,146 +5442,146 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P26" t="n">
         <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S26" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
         <v>2.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV26" t="n">
         <v>16.5</v>
       </c>
-      <c r="AO26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AW26" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY26" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="BA26" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB26" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BC26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>34</v>
       </c>
       <c r="BE26" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BF26" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="BG26" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5612,52 +5612,52 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="G27" t="n">
         <v>1.98</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K27" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="R27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
         <v>1.25</v>
@@ -5666,46 +5666,46 @@
         <v>2.02</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="n">
         <v>500</v>
       </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -5714,68 +5714,68 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.24</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.25</v>
+        <v>11.5</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.25</v>
+        <v>9.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.22</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.25</v>
+        <v>6.8</v>
       </c>
       <c r="AW27" t="n">
-        <v>1.25</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.22</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.22</v>
+        <v>9.4</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1.23</v>
+        <v>19.5</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.24</v>
+        <v>7</v>
       </c>
       <c r="BC27" t="n">
-        <v>1.23</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.25</v>
+        <v>8.6</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.25</v>
+        <v>9.6</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.23</v>
+        <v>6.8</v>
       </c>
       <c r="BG27" t="n">
-        <v>1.55</v>
+        <v>9.4</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G28" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H28" t="n">
         <v>8.4</v>
@@ -5818,10 +5818,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
         <v>1.49</v>
@@ -5830,25 +5830,25 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P28" t="n">
         <v>1.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R28" t="n">
         <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="n">
         <v>1.68</v>
@@ -5857,7 +5857,7 @@
         <v>1.12</v>
       </c>
       <c r="W28" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X28" t="n">
         <v>12</v>
@@ -5866,10 +5866,10 @@
         <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AA28" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="AB28" t="n">
         <v>6.4</v>
@@ -5905,13 +5905,13 @@
         <v>140</v>
       </c>
       <c r="AM28" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="n">
         <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AP28" t="n">
         <v>10</v>
@@ -5920,7 +5920,7 @@
         <v>18</v>
       </c>
       <c r="AR28" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AS28" t="n">
         <v>65</v>
@@ -5944,7 +5944,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA28" t="n">
         <v>46</v>
@@ -5956,7 +5956,7 @@
         <v>16.5</v>
       </c>
       <c r="BD28" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="BE28" t="n">
         <v>65</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6000,91 +6000,91 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G29" t="n">
         <v>4.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I29" t="n">
         <v>2.44</v>
       </c>
       <c r="J29" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K29" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="L29" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M29" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="N29" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="O29" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="P29" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="S29" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="T29" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="U29" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="V29" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X29" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="Z29" t="n">
         <v>12.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC29" t="n">
         <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AF29" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="n">
         <v>290</v>
@@ -6105,65 +6105,65 @@
         <v>500</v>
       </c>
       <c r="AO29" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AR29" t="n">
         <v>11</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AT29" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AW29" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AX29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY29" t="n">
         <v>20</v>
       </c>
-      <c r="AY29" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BA29" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="BC29" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="BD29" t="n">
-        <v>15.5</v>
+        <v>48</v>
       </c>
       <c r="BE29" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="BF29" t="n">
-        <v>15.5</v>
+        <v>48</v>
       </c>
       <c r="BG29" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6194,13 +6194,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G30" t="n">
         <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
@@ -6209,19 +6209,19 @@
         <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
         <v>3.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
         <v>1.75</v>
@@ -6236,10 +6236,10 @@
         <v>4.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
         <v>1.33</v>
@@ -6257,7 +6257,7 @@
         <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB30" t="n">
         <v>1000</v>
@@ -6305,25 +6305,25 @@
         <v>9.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AR30" t="n">
         <v>8.6</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="AU30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AV30" t="n">
         <v>8.4</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>6.4</v>
@@ -6335,29 +6335,29 @@
         <v>7.6</v>
       </c>
       <c r="BA30" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="BB30" t="n">
         <v>9</v>
       </c>
       <c r="BC30" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="BD30" t="n">
-        <v>6.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE30" t="n">
-        <v>2.56</v>
+        <v>3.9</v>
       </c>
       <c r="BF30" t="n">
-        <v>8.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="BG30" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6388,170 +6388,170 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="H31" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="I31" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R31" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U31" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="V31" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL31" t="n">
         <v>42</v>
       </c>
-      <c r="AD31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AP31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC31" t="n">
         <v>6.4</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>1.15</v>
-      </c>
       <c r="BD31" t="n">
-        <v>1.15</v>
+        <v>6.8</v>
       </c>
       <c r="BE31" t="n">
-        <v>1.15</v>
+        <v>7.6</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.55</v>
+        <v>18</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.55</v>
+        <v>6.6</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6582,25 +6582,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="G32" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I32" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
         <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
@@ -6612,28 +6612,28 @@
         <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R32" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U32" t="n">
         <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="W32" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X32" t="n">
         <v>22</v>
@@ -6642,7 +6642,7 @@
         <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>900</v>
@@ -6657,7 +6657,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AF32" t="n">
         <v>1000</v>
@@ -6669,7 +6669,7 @@
         <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
@@ -6690,19 +6690,19 @@
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AR32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AS32" t="n">
         <v>7</v>
       </c>
       <c r="AT32" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AU32" t="n">
         <v>6.6</v>
@@ -6711,41 +6711,41 @@
         <v>6.4</v>
       </c>
       <c r="AW32" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AX32" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AY32" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AZ32" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="BA32" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BB32" t="n">
         <v>14.5</v>
       </c>
       <c r="BC32" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="BD32" t="n">
         <v>28</v>
       </c>
       <c r="BE32" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="BF32" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BG32" t="n">
         <v>5.7</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6779,55 +6779,55 @@
         <v>1.51</v>
       </c>
       <c r="G33" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H33" t="n">
         <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
         <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U33" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W33" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
@@ -6836,7 +6836,7 @@
         <v>980</v>
       </c>
       <c r="Z33" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
@@ -6845,7 +6845,7 @@
         <v>7.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD33" t="n">
         <v>980</v>
@@ -6863,7 +6863,7 @@
         <v>980</v>
       </c>
       <c r="AI33" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ33" t="n">
         <v>980</v>
@@ -6878,68 +6878,68 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AQ33" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AR33" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="AS33" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="AT33" t="n">
         <v>5.8</v>
       </c>
       <c r="AU33" t="n">
-        <v>4.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV33" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="AX33" t="n">
         <v>6.2</v>
       </c>
       <c r="AY33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA33" t="n">
         <v>4.5</v>
       </c>
-      <c r="AZ33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BB33" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="BC33" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="BD33" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BE33" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="BF33" t="n">
         <v>4.6</v>
       </c>
       <c r="BG33" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>
@@ -6973,25 +6973,25 @@
         <v>1.33</v>
       </c>
       <c r="G34" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="I34" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="J34" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.34</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
         <v>4.2</v>
@@ -7000,28 +7000,28 @@
         <v>1.24</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R34" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="T34" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="U34" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W34" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -7078,62 +7078,62 @@
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AU34" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AV34" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="AW34" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="AX34" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AY34" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ34" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="BA34" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="BB34" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BC34" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BD34" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BE34" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="BF34" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-26 01:19:12</t>
+          <t>2026-02-26 03:36:31</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
         <v>1.83</v>
@@ -813,7 +813,7 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
@@ -828,10 +828,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -846,7 +846,7 @@
         <v>40</v>
       </c>
       <c r="AH2" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -855,10 +855,10 @@
         <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -870,28 +870,28 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ2" t="n">
         <v>6.8</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="AT2" t="n">
         <v>4.9</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AV2" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="AX2" t="n">
         <v>5.6</v>
@@ -900,10 +900,10 @@
         <v>6.2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.78</v>
+        <v>7.2</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BB2" t="n">
         <v>9</v>
@@ -912,20 +912,20 @@
         <v>10</v>
       </c>
       <c r="BD2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="BF2" t="n">
         <v>3.6</v>
       </c>
       <c r="BG2" t="n">
-        <v>8.800000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -980,49 +980,49 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
         <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
         <v>2.72</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
         <v>700</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
@@ -1031,49 +1031,49 @@
         <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG3" t="n">
         <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AJ3" t="n">
         <v>14.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR3" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AS3" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>8.6</v>
@@ -1085,19 +1085,19 @@
         <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AX3" t="n">
         <v>8.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="BB3" t="n">
         <v>13</v>
@@ -1106,20 +1106,20 @@
         <v>14.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE3" t="n">
         <v>55</v>
       </c>
       <c r="BF3" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="BG3" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>3.55</v>
@@ -1171,52 +1171,52 @@
         <v>1.47</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.14</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
         <v>7.8</v>
@@ -1225,52 +1225,52 @@
         <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO4" t="n">
         <v>44</v>
       </c>
-      <c r="AM4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>48</v>
-      </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>11.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AT4" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AU4" t="n">
         <v>7.2</v>
@@ -1279,41 +1279,41 @@
         <v>13</v>
       </c>
       <c r="AW4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BA4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="BB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
       </c>
       <c r="BD4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BE4" t="n">
         <v>50</v>
       </c>
       <c r="BF4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1347,22 @@
         <v>1.32</v>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H5" t="n">
         <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1377,37 +1377,37 @@
         <v>2.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
         <v>2.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X5" t="n">
         <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
         <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="AB5" t="n">
         <v>8.800000000000001</v>
@@ -1419,7 +1419,7 @@
         <v>46</v>
       </c>
       <c r="AE5" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AF5" t="n">
         <v>7.6</v>
@@ -1434,19 +1434,19 @@
         <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK5" t="n">
         <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO5" t="n">
         <v>300</v>
@@ -1455,59 +1455,59 @@
         <v>17.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR5" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AS5" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
         <v>7.8</v>
       </c>
       <c r="AU5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>36</v>
       </c>
       <c r="AW5" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AY5" t="n">
         <v>10</v>
       </c>
       <c r="AZ5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BB5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
         <v>13.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BE5" t="n">
         <v>38</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BG5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -1544,46 +1544,46 @@
         <v>1.35</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
         <v>6.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
         <v>1.09</v>
@@ -1592,7 +1592,7 @@
         <v>3.85</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
         <v>42</v>
@@ -1601,7 +1601,7 @@
         <v>110</v>
       </c>
       <c r="AA6" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AB6" t="n">
         <v>10</v>
@@ -1610,22 +1610,22 @@
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1640,7 +1640,7 @@
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO6" t="n">
         <v>180</v>
@@ -1649,59 +1649,59 @@
         <v>22</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AS6" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AT6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AY6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ6" t="n">
         <v>25</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC6" t="n">
         <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE6" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BG6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G7" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="H7" t="n">
         <v>2.6</v>
@@ -1747,7 +1747,7 @@
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.41</v>
@@ -1756,22 +1756,22 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.75</v>
@@ -1783,7 +1783,7 @@
         <v>1.61</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
@@ -1795,7 +1795,7 @@
         <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="n">
         <v>12.5</v>
@@ -1807,31 +1807,31 @@
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
         <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
         <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
         <v>26</v>
@@ -1843,7 +1843,7 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AR7" t="n">
         <v>16</v>
@@ -1882,7 +1882,7 @@
         <v>28</v>
       </c>
       <c r="BD7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BE7" t="n">
         <v>65</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -1935,19 +1935,19 @@
         <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>3.2</v>
@@ -1956,10 +1956,10 @@
         <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
@@ -1971,13 +1971,13 @@
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1986,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
         <v>95</v>
@@ -2007,19 +2007,19 @@
         <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
         <v>46</v>
@@ -2028,7 +2028,7 @@
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>80</v>
@@ -2043,7 +2043,7 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AT8" t="n">
         <v>7.4</v>
@@ -2058,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="AX8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>10</v>
@@ -2067,29 +2067,29 @@
         <v>20</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB8" t="n">
         <v>23</v>
       </c>
       <c r="BC8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BE8" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="BF8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BG8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.41</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.42</v>
-      </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="I9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J9" t="n">
         <v>5.9</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.25</v>
@@ -2144,7 +2144,7 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
@@ -2156,28 +2156,28 @@
         <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S9" t="n">
         <v>2.12</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="X9" t="n">
         <v>36</v>
       </c>
       <c r="Y9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
         <v>80</v>
@@ -2192,10 +2192,10 @@
         <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -2207,19 +2207,19 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
         <v>25</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
         <v>4.3</v>
@@ -2258,16 +2258,16 @@
         <v>10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB9" t="n">
         <v>12</v>
       </c>
       <c r="BC9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BD9" t="n">
         <v>23</v>
@@ -2279,11 +2279,11 @@
         <v>4.1</v>
       </c>
       <c r="BG9" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H10" t="n">
         <v>6</v>
@@ -2326,10 +2326,10 @@
         <v>6.2</v>
       </c>
       <c r="J10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -2344,46 +2344,46 @@
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
         <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
         <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
@@ -2395,10 +2395,10 @@
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>70</v>
@@ -2410,46 +2410,46 @@
         <v>15.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>570</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AS10" t="n">
         <v>44</v>
       </c>
       <c r="AT10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AX10" t="n">
         <v>9.6</v>
       </c>
       <c r="AY10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ10" t="n">
         <v>18.5</v>
@@ -2461,13 +2461,13 @@
         <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BD10" t="n">
         <v>28</v>
       </c>
       <c r="BE10" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="BF10" t="n">
         <v>7.4</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2508,25 +2508,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="I11" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="J11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.6</v>
       </c>
-      <c r="K11" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2538,112 +2538,112 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="X11" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AG11" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AH11" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AJ11" t="n">
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="AK11" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="n">
         <v>520</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AU11" t="n">
         <v>10.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ11" t="n">
         <v>15.5</v>
@@ -2652,10 +2652,10 @@
         <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BD11" t="n">
         <v>12.5</v>
@@ -2667,11 +2667,11 @@
         <v>15</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2702,58 +2702,58 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.77</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.81</v>
-      </c>
       <c r="H12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.71</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
         <v>28</v>
@@ -2762,25 +2762,25 @@
         <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
         <v>10.5</v>
@@ -2804,34 +2804,34 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO12" t="n">
         <v>500</v>
       </c>
       <c r="AP12" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT12" t="n">
         <v>9.6</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AX12" t="n">
         <v>10.5</v>
@@ -2843,13 +2843,13 @@
         <v>15.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BB12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BC12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BD12" t="n">
         <v>21</v>
@@ -2858,14 +2858,14 @@
         <v>14</v>
       </c>
       <c r="BF12" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BG12" t="n">
         <v>12.5</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2902,28 +2902,28 @@
         <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.45</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
         <v>1.93</v>
@@ -2935,7 +2935,7 @@
         <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
         <v>2</v>
@@ -2953,7 +2953,7 @@
         <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
         <v>44</v>
@@ -2971,7 +2971,7 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
         <v>9.4</v>
@@ -2995,16 +2995,16 @@
         <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
         <v>11.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>16</v>
@@ -3016,28 +3016,28 @@
         <v>42</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
         <v>16</v>
@@ -3055,11 +3055,11 @@
         <v>10.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -3096,22 +3096,22 @@
         <v>2.44</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
         <v>3.15</v>
       </c>
       <c r="J14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.7</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>4.1</v>
@@ -3123,13 +3123,13 @@
         <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
         <v>1.75</v>
@@ -3144,13 +3144,13 @@
         <v>1.69</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>55</v>
@@ -3177,7 +3177,7 @@
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ14" t="n">
         <v>34</v>
@@ -3192,16 +3192,16 @@
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>19.5</v>
@@ -3210,7 +3210,7 @@
         <v>48</v>
       </c>
       <c r="AT14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AU14" t="n">
         <v>7.6</v>
@@ -3231,7 +3231,7 @@
         <v>15.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BB14" t="n">
         <v>30</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -3284,16 +3284,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G15" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I15" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J15" t="n">
         <v>4.6</v>
@@ -3308,34 +3308,34 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
         <v>1.51</v>
       </c>
       <c r="S15" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
         <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="X15" t="n">
         <v>19</v>
@@ -3344,28 +3344,28 @@
         <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
@@ -3374,43 +3374,43 @@
         <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AS15" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AT15" t="n">
         <v>9.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AW15" t="n">
         <v>65</v>
@@ -3428,7 +3428,7 @@
         <v>65</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC15" t="n">
         <v>14.5</v>
@@ -3437,17 +3437,17 @@
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="BF15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BG15" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -3478,25 +3478,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G16" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I16" t="n">
         <v>7.6</v>
       </c>
-      <c r="I16" t="n">
-        <v>7.8</v>
-      </c>
       <c r="J16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.6</v>
       </c>
-      <c r="K16" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -3505,16 +3505,16 @@
         <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
         <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
@@ -3523,13 +3523,13 @@
         <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W16" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="X16" t="n">
         <v>16.5</v>
@@ -3541,37 +3541,37 @@
         <v>60</v>
       </c>
       <c r="AA16" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AB16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
         <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
         <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
         <v>13.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>36</v>
@@ -3580,28 +3580,28 @@
         <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO16" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AP16" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
         <v>50</v>
       </c>
       <c r="AS16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AT16" t="n">
         <v>8</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV16" t="n">
         <v>25</v>
@@ -3610,7 +3610,7 @@
         <v>40</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AY16" t="n">
         <v>9.6</v>
@@ -3619,29 +3619,29 @@
         <v>22</v>
       </c>
       <c r="BA16" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="BB16" t="n">
         <v>12.5</v>
       </c>
       <c r="BC16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BE16" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="BF16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -3678,19 +3678,19 @@
         <v>1.26</v>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
         <v>7.2</v>
       </c>
       <c r="K17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3702,22 +3702,22 @@
         <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S17" t="n">
         <v>2.22</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V17" t="n">
         <v>1.06</v>
@@ -3726,13 +3726,13 @@
         <v>4.8</v>
       </c>
       <c r="X17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="n">
         <v>700</v>
@@ -3744,13 +3744,13 @@
         <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE17" t="n">
         <v>220</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -3762,10 +3762,10 @@
         <v>170</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -3780,16 +3780,16 @@
         <v>260</v>
       </c>
       <c r="AP17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ17" t="n">
         <v>44</v>
       </c>
       <c r="AR17" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
         <v>10.5</v>
@@ -3801,7 +3801,7 @@
         <v>42</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>7.8</v>
@@ -3813,10 +3813,10 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC17" t="n">
         <v>12</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
@@ -3878,7 +3878,7 @@
         <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.6</v>
@@ -3896,7 +3896,7 @@
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q18" t="n">
         <v>2.08</v>
@@ -3908,22 +3908,22 @@
         <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
         <v>1.81</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
         <v>27</v>
@@ -3935,10 +3935,10 @@
         <v>9.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
         <v>48</v>
@@ -3947,7 +3947,7 @@
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>34</v>
@@ -3968,7 +3968,7 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>50</v>
@@ -3977,13 +3977,13 @@
         <v>11.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AR18" t="n">
         <v>23</v>
       </c>
       <c r="AS18" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>8.4</v>
@@ -3992,10 +3992,10 @@
         <v>7.2</v>
       </c>
       <c r="AV18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AW18" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AX18" t="n">
         <v>12</v>
@@ -4004,32 +4004,32 @@
         <v>10</v>
       </c>
       <c r="AZ18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>25</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>34</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>18</v>
+      </c>
+      <c r="BF18" t="n">
         <v>17</v>
       </c>
-      <c r="BA18" t="n">
-        <v>13</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>24</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>18</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>16</v>
-      </c>
       <c r="BG18" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4078,34 +4078,34 @@
         <v>10.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T19" t="n">
         <v>2.72</v>
       </c>
       <c r="U19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V19" t="n">
         <v>1.04</v>
@@ -4114,25 +4114,25 @@
         <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z19" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>26</v>
       </c>
       <c r="AD19" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -4141,28 +4141,28 @@
         <v>7.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>330</v>
       </c>
       <c r="AI19" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -4171,59 +4171,59 @@
         <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AT19" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AX19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AY19" t="n">
         <v>12</v>
       </c>
       <c r="AZ19" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB19" t="n">
         <v>7</v>
       </c>
       <c r="BC19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>28</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE19" t="n">
         <v>34</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="BG19" t="n">
         <v>10.5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H20" t="n">
         <v>11.5</v>
@@ -4269,49 +4269,49 @@
         <v>6.4</v>
       </c>
       <c r="K20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V20" t="n">
         <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X20" t="n">
         <v>44</v>
       </c>
       <c r="Y20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="n">
         <v>120</v>
@@ -4320,16 +4320,16 @@
         <v>490</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
         <v>100</v>
       </c>
       <c r="AE20" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AF20" t="n">
         <v>8.4</v>
@@ -4353,52 +4353,52 @@
         <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AR20" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
       </c>
       <c r="AV20" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AW20" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AY20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ20" t="n">
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="BB20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BC20" t="n">
         <v>12.5</v>
@@ -4407,17 +4407,17 @@
         <v>30</v>
       </c>
       <c r="BE20" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="BF20" t="n">
         <v>4.4</v>
       </c>
       <c r="BG20" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
         <v>5.4</v>
@@ -4460,7 +4460,7 @@
         <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
         <v>3.5</v>
@@ -4481,7 +4481,7 @@
         <v>1.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
@@ -4493,31 +4493,31 @@
         <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V21" t="n">
         <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X21" t="n">
         <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
         <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>24</v>
@@ -4529,7 +4529,7 @@
         <v>10</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
@@ -4544,25 +4544,25 @@
         <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
       </c>
       <c r="AP21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AQ21" t="n">
         <v>13.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
         <v>42</v>
@@ -4571,47 +4571,47 @@
         <v>6.4</v>
       </c>
       <c r="AU21" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>36</v>
       </c>
       <c r="AX21" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ21" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="BA21" t="n">
         <v>40</v>
       </c>
       <c r="BB21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BD21" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="BE21" t="n">
         <v>70</v>
       </c>
       <c r="BF21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BG21" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G22" t="n">
         <v>3.75</v>
@@ -4669,7 +4669,7 @@
         <v>2.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P22" t="n">
         <v>1.47</v>
@@ -4681,7 +4681,7 @@
         <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="T22" t="n">
         <v>2.26</v>
@@ -4705,7 +4705,7 @@
         <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="n">
         <v>9.199999999999999</v>
@@ -4714,7 +4714,7 @@
         <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>120</v>
@@ -4723,13 +4723,13 @@
         <v>24</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
         <v>44</v>
       </c>
       <c r="AI22" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
         <v>240</v>
@@ -4750,7 +4750,7 @@
         <v>140</v>
       </c>
       <c r="AP22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AQ22" t="n">
         <v>6.4</v>
@@ -4765,7 +4765,7 @@
         <v>8.4</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
@@ -4774,22 +4774,22 @@
         <v>34</v>
       </c>
       <c r="AX22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AY22" t="n">
         <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BB22" t="n">
         <v>34</v>
       </c>
       <c r="BC22" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="BD22" t="n">
         <v>40</v>
@@ -4798,14 +4798,14 @@
         <v>70</v>
       </c>
       <c r="BF22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BG22" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4836,13 +4836,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
@@ -4860,16 +4860,16 @@
         <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P23" t="n">
         <v>1.48</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R23" t="n">
         <v>1.17</v>
@@ -4878,13 +4878,13 @@
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U23" t="n">
         <v>1.6</v>
       </c>
       <c r="V23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
         <v>2.12</v>
@@ -4914,7 +4914,7 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
         <v>40</v>
@@ -4929,7 +4929,7 @@
         <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -4944,28 +4944,28 @@
         <v>1000</v>
       </c>
       <c r="AP23" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR23" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AV23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AX23" t="n">
         <v>5.4</v>
@@ -4974,32 +4974,32 @@
         <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BA23" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="BB23" t="n">
         <v>9</v>
       </c>
       <c r="BC23" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="BD23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="BE23" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="BF23" t="n">
         <v>4.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>2.32</v>
+        <v>12.5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L24" t="n">
         <v>1.65</v>
@@ -5054,22 +5054,22 @@
         <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O24" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P24" t="n">
         <v>1.47</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="R24" t="n">
         <v>1.16</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T24" t="n">
         <v>2.2</v>
@@ -5078,31 +5078,31 @@
         <v>1.71</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="X24" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -5120,7 +5120,7 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AK24" t="n">
         <v>1000</v>
@@ -5138,62 +5138,62 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="AQ24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AS24" t="n">
         <v>6</v>
       </c>
-      <c r="AR24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AU24" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV24" t="n">
         <v>7.8</v>
       </c>
       <c r="AW24" t="n">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="AX24" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AY24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ24" t="n">
-        <v>10.5</v>
+        <v>5.1</v>
       </c>
       <c r="BA24" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="BB24" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="BC24" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="BD24" t="n">
-        <v>3.05</v>
+        <v>5.9</v>
       </c>
       <c r="BE24" t="n">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="BF24" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="BG24" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5224,16 +5224,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -5245,7 +5245,7 @@
         <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
         <v>3.1</v>
@@ -5254,7 +5254,7 @@
         <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q25" t="n">
         <v>2.32</v>
@@ -5272,16 +5272,16 @@
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="n">
         <v>90</v>
@@ -5290,10 +5290,10 @@
         <v>340</v>
       </c>
       <c r="AB25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC25" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12</v>
       </c>
       <c r="AD25" t="n">
         <v>65</v>
@@ -5326,68 +5326,68 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AR25" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AV25" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
         <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BF25" t="n">
         <v>10.5</v>
       </c>
-      <c r="BA25" t="n">
+      <c r="BG25" t="n">
         <v>11.5</v>
       </c>
-      <c r="BB25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>11</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>7.8</v>
-      </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
         <v>1.93</v>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H26" t="n">
         <v>4.5</v>
@@ -5430,7 +5430,7 @@
         <v>4.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
         <v>3.75</v>
@@ -5442,13 +5442,13 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.35</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q26" t="n">
         <v>2.06</v>
@@ -5460,7 +5460,7 @@
         <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U26" t="n">
         <v>2.04</v>
@@ -5469,7 +5469,7 @@
         <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
@@ -5478,22 +5478,22 @@
         <v>15.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="n">
         <v>110</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
         <v>11.5</v>
@@ -5520,16 +5520,16 @@
         <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO26" t="n">
         <v>75</v>
       </c>
       <c r="AP26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AR26" t="n">
         <v>30</v>
@@ -5553,7 +5553,7 @@
         <v>10.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ26" t="n">
         <v>18.5</v>
@@ -5562,7 +5562,7 @@
         <v>60</v>
       </c>
       <c r="BB26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5612,19 +5612,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="G27" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I27" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>3.7</v>
@@ -5639,7 +5639,7 @@
         <v>2.92</v>
       </c>
       <c r="O27" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
         <v>1.62</v>
@@ -5654,22 +5654,22 @@
         <v>4.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X27" t="n">
         <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
         <v>130</v>
@@ -5678,7 +5678,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC27" t="n">
         <v>8.199999999999999</v>
@@ -5690,7 +5690,7 @@
         <v>500</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
@@ -5699,7 +5699,7 @@
         <v>60</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ27" t="n">
         <v>44</v>
@@ -5726,10 +5726,10 @@
         <v>11.5</v>
       </c>
       <c r="AR27" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AS27" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
         <v>6</v>
@@ -5738,44 +5738,44 @@
         <v>7</v>
       </c>
       <c r="AV27" t="n">
-        <v>6.8</v>
+        <v>17.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AX27" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY27" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ27" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BA27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB27" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BC27" t="n">
         <v>21</v>
       </c>
       <c r="BD27" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="BE27" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BF27" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="BG27" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5806,13 +5806,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G28" t="n">
         <v>1.54</v>
       </c>
       <c r="H28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I28" t="n">
         <v>9.199999999999999</v>
@@ -5821,7 +5821,7 @@
         <v>4.2</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.49</v>
@@ -5833,130 +5833,130 @@
         <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
         <v>1.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U28" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V28" t="n">
         <v>1.12</v>
       </c>
       <c r="W28" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
         <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AB28" t="n">
         <v>6.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI28" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AJ28" t="n">
         <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AL28" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="AN28" t="n">
         <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AP28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AS28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AT28" t="n">
         <v>5.9</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV28" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AW28" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AX28" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AY28" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ28" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA28" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="BB28" t="n">
         <v>11.5</v>
       </c>
       <c r="BC28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BD28" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BE28" t="n">
         <v>65</v>
@@ -5965,11 +5965,11 @@
         <v>9.800000000000001</v>
       </c>
       <c r="BG28" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G29" t="n">
         <v>4.4</v>
@@ -6012,25 +6012,25 @@
         <v>2.44</v>
       </c>
       <c r="J29" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K29" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M29" t="n">
         <v>1.23</v>
       </c>
       <c r="N29" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="O29" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="P29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q29" t="n">
         <v>4.3</v>
@@ -6042,7 +6042,7 @@
         <v>11</v>
       </c>
       <c r="T29" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="U29" t="n">
         <v>1.45</v>
@@ -6051,16 +6051,16 @@
         <v>1.69</v>
       </c>
       <c r="W29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X29" t="n">
         <v>5.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
         <v>95</v>
@@ -6069,13 +6069,13 @@
         <v>8.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AF29" t="n">
         <v>29</v>
@@ -6084,10 +6084,10 @@
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AJ29" t="n">
         <v>500</v>
@@ -6099,13 +6099,13 @@
         <v>500</v>
       </c>
       <c r="AM29" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
         <v>500</v>
       </c>
       <c r="AO29" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AP29" t="n">
         <v>4.9</v>
@@ -6117,7 +6117,7 @@
         <v>11</v>
       </c>
       <c r="AS29" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AT29" t="n">
         <v>7.6</v>
@@ -6135,7 +6135,7 @@
         <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ29" t="n">
         <v>26</v>
@@ -6153,17 +6153,17 @@
         <v>48</v>
       </c>
       <c r="BE29" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="BF29" t="n">
         <v>48</v>
       </c>
       <c r="BG29" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
         <v>2.18</v>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H30" t="n">
         <v>3.65</v>
@@ -6224,16 +6224,16 @@
         <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
         <v>1.89</v>
@@ -6245,7 +6245,7 @@
         <v>1.33</v>
       </c>
       <c r="W30" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X30" t="n">
         <v>90</v>
@@ -6284,7 +6284,7 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
@@ -6305,59 +6305,59 @@
         <v>9.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>6.6</v>
+        <v>10.5</v>
       </c>
       <c r="AR30" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AS30" t="n">
-        <v>6.6</v>
+        <v>2.76</v>
       </c>
       <c r="AT30" t="n">
         <v>7.2</v>
       </c>
       <c r="AU30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AV30" t="n">
         <v>8.4</v>
       </c>
       <c r="AW30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BC30" t="n">
         <v>10</v>
       </c>
-      <c r="AX30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>9.4</v>
-      </c>
       <c r="BD30" t="n">
-        <v>9.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="BE30" t="n">
-        <v>3.9</v>
+        <v>2.36</v>
       </c>
       <c r="BF30" t="n">
-        <v>15.5</v>
+        <v>5</v>
       </c>
       <c r="BG30" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
         <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
         <v>1.4</v>
@@ -6427,7 +6427,7 @@
         <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T31" t="n">
         <v>1.71</v>
@@ -6442,7 +6442,7 @@
         <v>1.58</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
         <v>13</v>
@@ -6490,7 +6490,7 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>32</v>
@@ -6505,7 +6505,7 @@
         <v>17.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>40</v>
+        <v>7.8</v>
       </c>
       <c r="AT31" t="n">
         <v>9.4</v>
@@ -6517,7 +6517,7 @@
         <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AX31" t="n">
         <v>14.5</v>
@@ -6529,29 +6529,29 @@
         <v>12</v>
       </c>
       <c r="BA31" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="BB31" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BC31" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="BD31" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="BE31" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BF31" t="n">
         <v>18</v>
       </c>
       <c r="BG31" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6582,22 +6582,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="I32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J32" t="n">
         <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
         <v>1.53</v>
@@ -6606,34 +6606,34 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
         <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q32" t="n">
         <v>2.36</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U32" t="n">
         <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="W32" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X32" t="n">
         <v>22</v>
@@ -6645,10 +6645,10 @@
         <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC32" t="n">
         <v>14</v>
@@ -6669,10 +6669,10 @@
         <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK32" t="n">
         <v>1000</v>
@@ -6684,68 +6684,68 @@
         <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ32" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AR32" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AS32" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AU32" t="n">
         <v>6.6</v>
       </c>
       <c r="AV32" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AW32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX32" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY32" t="n">
         <v>9</v>
       </c>
       <c r="AZ32" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="BA32" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="BB32" t="n">
-        <v>14.5</v>
+        <v>3</v>
       </c>
       <c r="BC32" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="BD32" t="n">
         <v>28</v>
       </c>
       <c r="BE32" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BF32" t="n">
-        <v>3.35</v>
+        <v>12.5</v>
       </c>
       <c r="BG32" t="n">
         <v>5.7</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6776,16 +6776,16 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.51</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.55</v>
-      </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J33" t="n">
         <v>4.2</v>
@@ -6809,25 +6809,25 @@
         <v>1.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
         <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="U33" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
@@ -6836,13 +6836,13 @@
         <v>980</v>
       </c>
       <c r="Z33" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AC33" t="n">
         <v>980</v>
@@ -6851,10 +6851,10 @@
         <v>980</v>
       </c>
       <c r="AE33" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AG33" t="n">
         <v>980</v>
@@ -6863,10 +6863,10 @@
         <v>980</v>
       </c>
       <c r="AI33" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AJ33" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AK33" t="n">
         <v>980</v>
@@ -6878,22 +6878,22 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AR33" t="n">
-        <v>4.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS33" t="n">
-        <v>4.4</v>
+        <v>2.36</v>
       </c>
       <c r="AT33" t="n">
         <v>5.8</v>
@@ -6902,44 +6902,44 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV33" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AW33" t="n">
-        <v>8</v>
+        <v>2.68</v>
       </c>
       <c r="AX33" t="n">
         <v>6.2</v>
       </c>
       <c r="AY33" t="n">
-        <v>4.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ33" t="n">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="BA33" t="n">
-        <v>4.5</v>
+        <v>2.68</v>
       </c>
       <c r="BB33" t="n">
         <v>6</v>
       </c>
       <c r="BC33" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="BD33" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF33" t="n">
         <v>7.2</v>
       </c>
-      <c r="BE33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BG33" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -7078,43 +7078,43 @@
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AQ34" t="n">
         <v>5.8</v>
       </c>
       <c r="AR34" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AU34" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AV34" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="AW34" t="n">
-        <v>1.64</v>
+        <v>3.2</v>
       </c>
       <c r="AX34" t="n">
         <v>6.4</v>
       </c>
       <c r="AY34" t="n">
-        <v>8.800000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="AZ34" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="BA34" t="n">
-        <v>1.64</v>
+        <v>3.2</v>
       </c>
       <c r="BB34" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BC34" t="n">
         <v>4.8</v>
@@ -7123,17 +7123,17 @@
         <v>6</v>
       </c>
       <c r="BE34" t="n">
-        <v>1.64</v>
+        <v>3.2</v>
       </c>
       <c r="BF34" t="n">
         <v>4.9</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,46 +762,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
         <v>1.83</v>
@@ -813,7 +813,7 @@
         <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -831,7 +831,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -855,43 +855,43 @@
         <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="AT2" t="n">
         <v>4.9</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AV2" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="AX2" t="n">
         <v>5.6</v>
@@ -900,10 +900,10 @@
         <v>6.2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BA2" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BB2" t="n">
         <v>9</v>
@@ -912,20 +912,20 @@
         <v>10</v>
       </c>
       <c r="BD2" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BE2" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="BF2" t="n">
         <v>3.6</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G3" t="n">
         <v>1.58</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
         <v>4.8</v>
@@ -983,10 +983,10 @@
         <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
         <v>1.77</v>
@@ -995,25 +995,25 @@
         <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X3" t="n">
         <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>60</v>
@@ -1022,28 +1022,28 @@
         <v>700</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
         <v>9.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
         <v>14.5</v>
@@ -1055,49 +1055,49 @@
         <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="AN3" t="n">
         <v>7.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AP3" t="n">
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AR3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AT3" t="n">
         <v>8.6</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AX3" t="n">
         <v>8.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="BB3" t="n">
         <v>13</v>
@@ -1106,20 +1106,20 @@
         <v>14.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BE3" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BG3" t="n">
         <v>75</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H4" t="n">
         <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>3.55</v>
@@ -1174,43 +1174,43 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.35</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
         <v>1.71</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
         <v>65</v>
@@ -1222,13 +1222,13 @@
         <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1246,16 +1246,16 @@
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
         <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
@@ -1264,7 +1264,7 @@
         <v>11.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
         <v>55</v>
@@ -1276,10 +1276,10 @@
         <v>7.2</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AX4" t="n">
         <v>13.5</v>
@@ -1294,26 +1294,26 @@
         <v>46</v>
       </c>
       <c r="BB4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>36</v>
       </c>
       <c r="BE4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BF4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BG4" t="n">
         <v>36</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -1344,25 +1344,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
         <v>1.34</v>
       </c>
       <c r="H5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1377,19 +1377,19 @@
         <v>2.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V5" t="n">
         <v>1.09</v>
@@ -1401,16 +1401,16 @@
         <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="n">
         <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>610</v>
+        <v>510</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
@@ -1419,7 +1419,7 @@
         <v>46</v>
       </c>
       <c r="AE5" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AF5" t="n">
         <v>7.6</v>
@@ -1434,34 +1434,34 @@
         <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
         <v>300</v>
       </c>
       <c r="AP5" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>36</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AT5" t="n">
         <v>7.8</v>
@@ -1470,13 +1470,13 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AW5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AY5" t="n">
         <v>10</v>
@@ -1485,10 +1485,10 @@
         <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="BB5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC5" t="n">
         <v>13.5</v>
@@ -1500,14 +1500,14 @@
         <v>38</v>
       </c>
       <c r="BF5" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BG5" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -1538,22 +1538,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1568,31 +1568,31 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.56</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.54</v>
-      </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
         <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
         <v>42</v>
@@ -1601,28 +1601,28 @@
         <v>110</v>
       </c>
       <c r="AA6" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AB6" t="n">
         <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
         <v>140</v>
@@ -1640,7 +1640,7 @@
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
         <v>180</v>
@@ -1649,16 +1649,16 @@
         <v>22</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AR6" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AS6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
         <v>12</v>
@@ -1667,7 +1667,7 @@
         <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AX6" t="n">
         <v>7.8</v>
@@ -1676,32 +1676,32 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="BB6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BE6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BG6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
@@ -1759,37 +1759,37 @@
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
         <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
@@ -1798,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1810,7 +1810,7 @@
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1828,34 +1828,34 @@
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
         <v>16</v>
       </c>
       <c r="AS7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AT7" t="n">
         <v>11.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1873,7 +1873,7 @@
         <v>15.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BB7" t="n">
         <v>40</v>
@@ -1882,20 +1882,20 @@
         <v>28</v>
       </c>
       <c r="BD7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BE7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BF7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BG7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -1950,22 +1950,22 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
         <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1977,13 +1977,13 @@
         <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
         <v>29</v>
@@ -1992,16 +1992,16 @@
         <v>95</v>
       </c>
       <c r="AB8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC8" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
         <v>11.5</v>
@@ -2034,16 +2034,16 @@
         <v>80</v>
       </c>
       <c r="AP8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AT8" t="n">
         <v>7.4</v>
@@ -2067,7 +2067,7 @@
         <v>20</v>
       </c>
       <c r="BA8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
         <v>23</v>
@@ -2076,10 +2076,10 @@
         <v>22</v>
       </c>
       <c r="BD8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BE8" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="BF8" t="n">
         <v>18.5</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -2120,67 +2120,67 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
         <v>1.41</v>
       </c>
       <c r="H9" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
         <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R9" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
         <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="X9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
         <v>230</v>
@@ -2189,13 +2189,13 @@
         <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -2210,7 +2210,7 @@
         <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>13.5</v>
@@ -2219,16 +2219,16 @@
         <v>25</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AO9" t="n">
         <v>75</v>
       </c>
       <c r="AP9" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AQ9" t="n">
         <v>36</v>
@@ -2237,19 +2237,19 @@
         <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AT9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AU9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AX9" t="n">
         <v>10</v>
@@ -2267,23 +2267,23 @@
         <v>12</v>
       </c>
       <c r="BC9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BD9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BF9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BG9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -2320,58 +2320,58 @@
         <v>1.66</v>
       </c>
       <c r="H10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="n">
         <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
         <v>48</v>
@@ -2389,13 +2389,13 @@
         <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -2407,7 +2407,7 @@
         <v>15.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2416,22 +2416,22 @@
         <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AS10" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AT10" t="n">
         <v>9.6</v>
@@ -2440,13 +2440,13 @@
         <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY10" t="n">
         <v>9.4</v>
@@ -2455,13 +2455,13 @@
         <v>18.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BC10" t="n">
         <v>14</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>14.5</v>
       </c>
       <c r="BD10" t="n">
         <v>28</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="I11" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -2538,7 +2538,7 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
         <v>1.69</v>
@@ -2547,34 +2547,34 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="n">
         <v>9.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
@@ -2586,7 +2586,7 @@
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AG11" t="n">
         <v>120</v>
@@ -2598,43 +2598,43 @@
         <v>500</v>
       </c>
       <c r="AJ11" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AK11" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AL11" t="n">
         <v>520</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
         <v>190</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AS11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="AU11" t="n">
         <v>10.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2643,10 +2643,10 @@
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2655,23 +2655,23 @@
         <v>14</v>
       </c>
       <c r="BC11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>12.5</v>
       </c>
       <c r="BE11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BF11" t="n">
         <v>15</v>
       </c>
       <c r="BG11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.8</v>
       </c>
-      <c r="I12" t="n">
-        <v>5.2</v>
-      </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2726,16 +2726,16 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R12" t="n">
         <v>1.53</v>
@@ -2744,128 +2744,128 @@
         <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE12" t="n">
         <v>320</v>
       </c>
       <c r="AF12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AX12" t="n">
         <v>12</v>
       </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AY12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA12" t="n">
         <v>25</v>
       </c>
-      <c r="AI12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>500</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="BB12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BC12" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>16</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>15</v>
       </c>
       <c r="BD12" t="n">
         <v>21</v>
       </c>
       <c r="BE12" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="BF12" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="BG12" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -2899,58 +2899,58 @@
         <v>1.71</v>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
         <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
         <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
         <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
         <v>17.5</v>
@@ -2959,13 +2959,13 @@
         <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
         <v>7.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>22</v>
@@ -2974,19 +2974,19 @@
         <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK13" t="n">
         <v>18</v>
@@ -2995,16 +2995,16 @@
         <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP13" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>16</v>
@@ -3013,19 +3013,19 @@
         <v>40</v>
       </c>
       <c r="AS13" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AT13" t="n">
         <v>7.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AX13" t="n">
         <v>9</v>
@@ -3037,10 +3037,10 @@
         <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BB13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC13" t="n">
         <v>17</v>
@@ -3049,17 +3049,17 @@
         <v>34</v>
       </c>
       <c r="BE13" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="BF13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BG13" t="n">
         <v>90</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -3090,16 +3090,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G14" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.15</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
@@ -3111,40 +3111,40 @@
         <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
         <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -3153,13 +3153,13 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>13</v>
@@ -3174,7 +3174,7 @@
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
         <v>42</v>
@@ -3198,16 +3198,16 @@
         <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AT14" t="n">
         <v>10.5</v>
@@ -3219,7 +3219,7 @@
         <v>12.5</v>
       </c>
       <c r="AW14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX14" t="n">
         <v>15</v>
@@ -3231,10 +3231,10 @@
         <v>15.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BB14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BC14" t="n">
         <v>23</v>
@@ -3249,11 +3249,11 @@
         <v>17</v>
       </c>
       <c r="BG14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -3284,16 +3284,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H15" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J15" t="n">
         <v>4.6</v>
@@ -3308,49 +3308,49 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
         <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T15" t="n">
         <v>1.83</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
         <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -3359,7 +3359,7 @@
         <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF15" t="n">
         <v>10.5</v>
@@ -3371,13 +3371,13 @@
         <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3392,7 +3392,7 @@
         <v>75</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
         <v>19.5</v>
@@ -3401,13 +3401,13 @@
         <v>40</v>
       </c>
       <c r="AS15" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AT15" t="n">
         <v>9.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AV15" t="n">
         <v>19.5</v>
@@ -3416,28 +3416,28 @@
         <v>65</v>
       </c>
       <c r="AX15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AY15" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>9.4</v>
       </c>
       <c r="AZ15" t="n">
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BB15" t="n">
         <v>15</v>
       </c>
       <c r="BC15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BD15" t="n">
         <v>28</v>
       </c>
       <c r="BE15" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BF15" t="n">
         <v>7.2</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
         <v>7.2</v>
       </c>
-      <c r="I16" t="n">
-        <v>7.6</v>
-      </c>
       <c r="J16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.39</v>
@@ -3502,37 +3502,37 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
         <v>23</v>
@@ -3541,34 +3541,34 @@
         <v>60</v>
       </c>
       <c r="AA16" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC16" t="n">
         <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>110</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
         <v>16</v>
@@ -3577,16 +3577,16 @@
         <v>36</v>
       </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
         <v>130</v>
       </c>
       <c r="AP16" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3595,34 +3595,34 @@
         <v>50</v>
       </c>
       <c r="AS16" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AT16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW16" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AY16" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="BB16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3637,11 +3637,11 @@
         <v>7.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -3672,58 +3672,58 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.25</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J17" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
         <v>1.48</v>
       </c>
       <c r="R17" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V17" t="n">
         <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
@@ -3732,7 +3732,7 @@
         <v>60</v>
       </c>
       <c r="Z17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA17" t="n">
         <v>700</v>
@@ -3741,16 +3741,16 @@
         <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE17" t="n">
         <v>220</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -3759,22 +3759,22 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>520</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
         <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO17" t="n">
         <v>260</v>
@@ -3783,13 +3783,13 @@
         <v>28</v>
       </c>
       <c r="AQ17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AT17" t="n">
         <v>10.5</v>
@@ -3798,25 +3798,25 @@
         <v>15</v>
       </c>
       <c r="AV17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AW17" t="n">
         <v>42</v>
       </c>
-      <c r="AW17" t="n">
-        <v>18</v>
-      </c>
       <c r="AX17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AY17" t="n">
         <v>10.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="BB17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BC17" t="n">
         <v>12</v>
@@ -3828,14 +3828,14 @@
         <v>65</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="BG17" t="n">
         <v>20</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
         <v>1.45</v>
@@ -3890,40 +3890,40 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U18" t="n">
         <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X18" t="n">
         <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
         <v>27</v>
@@ -3932,13 +3932,13 @@
         <v>80</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>48</v>
@@ -3956,7 +3956,7 @@
         <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
@@ -3968,13 +3968,13 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
         <v>50</v>
       </c>
       <c r="AP18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AQ18" t="n">
         <v>12.5</v>
@@ -3983,7 +3983,7 @@
         <v>23</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AT18" t="n">
         <v>8.4</v>
@@ -3995,7 +3995,7 @@
         <v>14</v>
       </c>
       <c r="AW18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AX18" t="n">
         <v>12</v>
@@ -4004,32 +4004,32 @@
         <v>10</v>
       </c>
       <c r="AZ18" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="BB18" t="n">
         <v>25</v>
       </c>
       <c r="BC18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BE18" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="BF18" t="n">
         <v>17</v>
       </c>
       <c r="BG18" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -4066,16 +4066,16 @@
         <v>1.17</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19" t="n">
         <v>9.6</v>
       </c>
       <c r="K19" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
@@ -4090,10 +4090,10 @@
         <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R19" t="n">
         <v>1.66</v>
@@ -4102,10 +4102,10 @@
         <v>2.48</v>
       </c>
       <c r="T19" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="U19" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V19" t="n">
         <v>1.04</v>
@@ -4114,31 +4114,31 @@
         <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z19" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD19" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AG19" t="n">
         <v>14.5</v>
@@ -4147,61 +4147,61 @@
         <v>330</v>
       </c>
       <c r="AI19" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="AJ19" t="n">
         <v>7.8</v>
       </c>
       <c r="AK19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>530</v>
+        <v>460</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="AS19" t="n">
-        <v>9.4</v>
+        <v>60</v>
       </c>
       <c r="AT19" t="n">
         <v>8.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.4</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AY19" t="n">
         <v>12</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="BA19" t="n">
-        <v>9.199999999999999</v>
+        <v>60</v>
       </c>
       <c r="BB19" t="n">
         <v>7</v>
@@ -4210,20 +4210,20 @@
         <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>9.199999999999999</v>
+        <v>48</v>
       </c>
       <c r="BE19" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BG19" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -4254,25 +4254,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I20" t="n">
         <v>12.5</v>
       </c>
       <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
         <v>6.4</v>
       </c>
-      <c r="K20" t="n">
-        <v>6.6</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4287,7 +4287,7 @@
         <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
         <v>1.59</v>
@@ -4296,7 +4296,7 @@
         <v>2.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
         <v>1.86</v>
@@ -4305,10 +4305,10 @@
         <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
         <v>44</v>
@@ -4323,16 +4323,16 @@
         <v>9.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AE20" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
@@ -4365,37 +4365,37 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AS20" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AV20" t="n">
         <v>36</v>
       </c>
       <c r="AW20" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AY20" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA20" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="BB20" t="n">
         <v>9.6</v>
@@ -4404,20 +4404,20 @@
         <v>12.5</v>
       </c>
       <c r="BD20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BE20" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="BF20" t="n">
         <v>4.4</v>
       </c>
       <c r="BG20" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H21" t="n">
         <v>5.4</v>
@@ -4478,7 +4478,7 @@
         <v>1.45</v>
       </c>
       <c r="P21" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
         <v>2.34</v>
@@ -4505,31 +4505,31 @@
         <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
         <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
@@ -4538,7 +4538,7 @@
         <v>500</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
         <v>24</v>
@@ -4562,13 +4562,13 @@
         <v>13.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS21" t="n">
         <v>42</v>
       </c>
       <c r="AT21" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AU21" t="n">
         <v>7.2</v>
@@ -4577,19 +4577,19 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AX21" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY21" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="BA21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="BB21" t="n">
         <v>18</v>
@@ -4598,20 +4598,20 @@
         <v>19.5</v>
       </c>
       <c r="BD21" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="BE21" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BF21" t="n">
         <v>15.5</v>
       </c>
       <c r="BG21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -4651,10 +4651,10 @@
         <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J22" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K22" t="n">
         <v>3.05</v>
@@ -4666,31 +4666,31 @@
         <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P22" t="n">
         <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R22" t="n">
         <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="T22" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="U22" t="n">
         <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W22" t="n">
         <v>1.36</v>
@@ -4705,7 +4705,7 @@
         <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AB22" t="n">
         <v>9.199999999999999</v>
@@ -4717,25 +4717,25 @@
         <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AF22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="AK22" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL22" t="n">
         <v>500</v>
@@ -4753,16 +4753,16 @@
         <v>6.8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AR22" t="n">
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AT22" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AU22" t="n">
         <v>6.4</v>
@@ -4774,25 +4774,25 @@
         <v>34</v>
       </c>
       <c r="AX22" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
         <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="BB22" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BC22" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="BD22" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="BE22" t="n">
         <v>70</v>
@@ -4801,11 +4801,11 @@
         <v>38</v>
       </c>
       <c r="BG22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -4839,34 +4839,34 @@
         <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O23" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="P23" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q23" t="n">
         <v>2.88</v>
@@ -4878,16 +4878,16 @@
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U23" t="n">
         <v>1.6</v>
       </c>
       <c r="V23" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
         <v>17</v>
@@ -4905,7 +4905,7 @@
         <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -4914,10 +4914,10 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
@@ -4929,7 +4929,7 @@
         <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -4938,68 +4938,68 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
       </c>
       <c r="AP23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AW23" t="n">
         <v>7</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AX23" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="AY23" t="n">
         <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7.6</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>2.38</v>
+        <v>8</v>
       </c>
       <c r="BB23" t="n">
         <v>9</v>
       </c>
       <c r="BC23" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="BD23" t="n">
-        <v>2.32</v>
+        <v>4.6</v>
       </c>
       <c r="BE23" t="n">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="BF23" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="BG23" t="n">
         <v>12.5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="K24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.65</v>
@@ -5075,34 +5075,34 @@
         <v>2.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V24" t="n">
         <v>1.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="X24" t="n">
         <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z24" t="n">
         <v>500</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -5138,62 +5138,62 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AR24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT24" t="n">
         <v>5.1</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>4.6</v>
       </c>
       <c r="AU24" t="n">
         <v>6.2</v>
       </c>
       <c r="AV24" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.8</v>
+        <v>28</v>
       </c>
       <c r="AX24" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="AY24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5.1</v>
+        <v>14.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="BC24" t="n">
-        <v>5.6</v>
+        <v>14.5</v>
       </c>
       <c r="BD24" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="BE24" t="n">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="BF24" t="n">
-        <v>5.7</v>
+        <v>10.5</v>
       </c>
       <c r="BG24" t="n">
-        <v>6.4</v>
+        <v>19.5</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G25" t="n">
         <v>2.7</v>
@@ -5236,7 +5236,7 @@
         <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
         <v>3.25</v>
@@ -5245,10 +5245,10 @@
         <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O25" t="n">
         <v>1.42</v>
@@ -5257,16 +5257,16 @@
         <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U25" t="n">
         <v>2</v>
@@ -5275,7 +5275,7 @@
         <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -5287,7 +5287,7 @@
         <v>90</v>
       </c>
       <c r="AA25" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="AB25" t="n">
         <v>19</v>
@@ -5326,68 +5326,68 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AR25" t="n">
         <v>10.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AT25" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU25" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AV25" t="n">
         <v>10</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AX25" t="n">
         <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BD25" t="n">
         <v>23</v>
       </c>
-      <c r="BB25" t="n">
-        <v>28</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>23</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>38</v>
-      </c>
       <c r="BE25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BF25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BG25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -5418,16 +5418,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G26" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="H26" t="n">
         <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J26" t="n">
         <v>3.7</v>
@@ -5442,25 +5442,25 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.35</v>
       </c>
       <c r="P26" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
         <v>2.06</v>
       </c>
       <c r="R26" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T26" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
         <v>2.04</v>
@@ -5469,7 +5469,7 @@
         <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
@@ -5490,7 +5490,7 @@
         <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE26" t="n">
         <v>60</v>
@@ -5502,7 +5502,7 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
         <v>70</v>
@@ -5520,7 +5520,7 @@
         <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>75</v>
@@ -5529,7 +5529,7 @@
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
         <v>30</v>
@@ -5568,10 +5568,10 @@
         <v>19</v>
       </c>
       <c r="BD26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BE26" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BF26" t="n">
         <v>13.5</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -5612,170 +5612,170 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O27" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="R27" t="n">
         <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T27" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="W27" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="X27" t="n">
         <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
         <v>38</v>
       </c>
       <c r="AE27" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>60</v>
       </c>
       <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
         <v>500</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>55</v>
-      </c>
       <c r="AO27" t="n">
         <v>1000</v>
       </c>
       <c r="AP27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA27" t="n">
         <v>9</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AX27" t="n">
+      <c r="BB27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BG27" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AY27" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>9</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>10</v>
-      </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
         <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q28" t="n">
         <v>2.26</v>
@@ -5848,10 +5848,10 @@
         <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
         <v>1.12</v>
@@ -5887,19 +5887,19 @@
         <v>7.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
         <v>34</v>
       </c>
       <c r="AI28" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AJ28" t="n">
         <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
@@ -5917,10 +5917,10 @@
         <v>10.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AS28" t="n">
         <v>70</v>
@@ -5929,47 +5929,47 @@
         <v>5.9</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV28" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AW28" t="n">
         <v>60</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ28" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BA28" t="n">
         <v>60</v>
       </c>
       <c r="BB28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BD28" t="n">
         <v>48</v>
       </c>
       <c r="BE28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BF28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BG28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -6000,40 +6000,40 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q29" t="n">
         <v>4.4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4.3</v>
       </c>
       <c r="R29" t="n">
         <v>1.09</v>
@@ -6042,46 +6042,46 @@
         <v>11</v>
       </c>
       <c r="T29" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="U29" t="n">
         <v>1.45</v>
       </c>
       <c r="V29" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="W29" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X29" t="n">
         <v>5.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
         <v>110</v>
       </c>
       <c r="AF29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>75</v>
@@ -6102,10 +6102,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="AP29" t="n">
         <v>4.9</v>
@@ -6114,34 +6114,34 @@
         <v>4.9</v>
       </c>
       <c r="AR29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AS29" t="n">
         <v>24</v>
       </c>
       <c r="AT29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="BA29" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BB29" t="n">
         <v>40</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.48</v>
@@ -6224,7 +6224,7 @@
         <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q30" t="n">
         <v>2.28</v>
@@ -6239,19 +6239,19 @@
         <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W30" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X30" t="n">
         <v>90</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -6272,7 +6272,7 @@
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG30" t="n">
         <v>40</v>
@@ -6284,7 +6284,7 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
@@ -6296,7 +6296,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -6308,56 +6308,56 @@
         <v>10.5</v>
       </c>
       <c r="AR30" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.76</v>
+        <v>3.5</v>
       </c>
       <c r="AT30" t="n">
         <v>7.2</v>
       </c>
       <c r="AU30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV30" t="n">
         <v>8.4</v>
       </c>
       <c r="AW30" t="n">
-        <v>11.5</v>
+        <v>5.4</v>
       </c>
       <c r="AX30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AY30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BB30" t="n">
         <v>9.6</v>
       </c>
-      <c r="AZ30" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="BE30" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="BF30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG30" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
         <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q31" t="n">
         <v>1.92</v>
@@ -6427,13 +6427,13 @@
         <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T31" t="n">
         <v>1.71</v>
       </c>
       <c r="U31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V31" t="n">
         <v>1.43</v>
@@ -6451,7 +6451,7 @@
         <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB31" t="n">
         <v>12</v>
@@ -6463,7 +6463,7 @@
         <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF31" t="n">
         <v>18</v>
@@ -6475,7 +6475,7 @@
         <v>17.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="n">
         <v>38</v>
@@ -6505,7 +6505,7 @@
         <v>17.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>7.8</v>
+        <v>40</v>
       </c>
       <c r="AT31" t="n">
         <v>9.4</v>
@@ -6517,7 +6517,7 @@
         <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AX31" t="n">
         <v>14.5</v>
@@ -6526,32 +6526,32 @@
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB31" t="n">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="BC31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BD31" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="BE31" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="BF31" t="n">
         <v>18</v>
       </c>
       <c r="BG31" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -6585,10 +6585,10 @@
         <v>3.45</v>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I32" t="n">
         <v>2.5</v>
@@ -6606,25 +6606,25 @@
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R32" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U32" t="n">
         <v>1.94</v>
@@ -6645,10 +6645,10 @@
         <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AB32" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AC32" t="n">
         <v>14</v>
@@ -6660,19 +6660,19 @@
         <v>500</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI32" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AJ32" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
         <v>1000</v>
@@ -6684,68 +6684,68 @@
         <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR32" t="n">
         <v>6.4</v>
       </c>
-      <c r="AQ32" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AS32" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AU32" t="n">
         <v>6.6</v>
       </c>
       <c r="AV32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AW32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>44</v>
+      </c>
+      <c r="BE32" t="n">
         <v>6</v>
       </c>
-      <c r="AX32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>28</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>3.05</v>
-      </c>
       <c r="BF32" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="BG32" t="n">
         <v>5.7</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -6776,13 +6776,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G33" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H33" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I33" t="n">
         <v>10.5</v>
@@ -6791,7 +6791,7 @@
         <v>4.2</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.45</v>
@@ -6815,19 +6815,19 @@
         <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V33" t="n">
         <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
@@ -6836,7 +6836,7 @@
         <v>980</v>
       </c>
       <c r="Z33" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
@@ -6851,7 +6851,7 @@
         <v>980</v>
       </c>
       <c r="AE33" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF33" t="n">
         <v>980</v>
@@ -6866,7 +6866,7 @@
         <v>200</v>
       </c>
       <c r="AJ33" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AK33" t="n">
         <v>980</v>
@@ -6878,68 +6878,68 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BD33" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AO33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>2.56</v>
-      </c>
       <c r="BE33" t="n">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="BF33" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG33" t="n">
-        <v>2.36</v>
+        <v>1.57</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>
@@ -6970,19 +6970,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I34" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
         <v>6.4</v>
@@ -6991,10 +6991,10 @@
         <v>1.34</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.24</v>
@@ -7003,25 +7003,25 @@
         <v>2.14</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
         <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U34" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="V34" t="n">
         <v>1.07</v>
       </c>
       <c r="W34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -7078,19 +7078,19 @@
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AR34" t="n">
         <v>3.15</v>
       </c>
       <c r="AS34" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AU34" t="n">
         <v>4.7</v>
@@ -7099,41 +7099,41 @@
         <v>5.9</v>
       </c>
       <c r="AW34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AX34" t="n">
         <v>6.4</v>
       </c>
       <c r="AY34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AZ34" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BA34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BB34" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BC34" t="n">
         <v>4.8</v>
       </c>
       <c r="BD34" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="BE34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BF34" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BG34" t="n">
         <v>3.2</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-26 05:54:37</t>
+          <t>2026-02-26 08:13:21</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -762,170 +762,170 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
         <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AK2" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="AS2" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="AV2" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="AY2" t="n">
-        <v>6.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="BB2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BD2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="BE2" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.48</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -959,49 +959,49 @@
         <v>1.56</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
         <v>6.8</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J3" t="n">
         <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
@@ -1010,116 +1010,116 @@
         <v>2.74</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
         <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>700</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
         <v>25</v>
       </c>
       <c r="AR3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AS3" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AT3" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>65</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BC3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BD3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BE3" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="BF3" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BG3" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.55</v>
       </c>
       <c r="L4" t="n">
         <v>1.47</v>
@@ -1174,10 +1174,10 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
         <v>1.92</v>
@@ -1186,7 +1186,7 @@
         <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
         <v>3.7</v>
@@ -1198,28 +1198,28 @@
         <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
         <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>14</v>
@@ -1228,31 +1228,31 @@
         <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
         <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
         <v>40</v>
@@ -1267,31 +1267,31 @@
         <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AT4" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
         <v>12.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1303,17 +1303,17 @@
         <v>36</v>
       </c>
       <c r="BE4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BF4" t="n">
         <v>19</v>
       </c>
       <c r="BG4" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1347,22 @@
         <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1377,10 +1377,10 @@
         <v>2.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
         <v>2.96</v>
@@ -1389,25 +1389,25 @@
         <v>2.26</v>
       </c>
       <c r="U5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
         <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AB5" t="n">
         <v>8.6</v>
@@ -1416,13 +1416,13 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE5" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1431,10 +1431,10 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK5" t="n">
         <v>14.5</v>
@@ -1443,25 +1443,25 @@
         <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AN5" t="n">
         <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AP5" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR5" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AS5" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
         <v>7.8</v>
@@ -1473,7 +1473,7 @@
         <v>34</v>
       </c>
       <c r="AW5" t="n">
-        <v>18.5</v>
+        <v>50</v>
       </c>
       <c r="AX5" t="n">
         <v>6.8</v>
@@ -1482,32 +1482,32 @@
         <v>10</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA5" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="BB5" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="BC5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BD5" t="n">
         <v>36</v>
       </c>
       <c r="BE5" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="BG5" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -1538,25 +1538,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
         <v>5.7</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1568,40 +1568,40 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.58</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.56</v>
-      </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="Z6" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA6" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="AB6" t="n">
         <v>10</v>
@@ -1610,22 +1610,22 @@
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AE6" t="n">
         <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1634,52 +1634,52 @@
         <v>13.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AP6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR6" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AS6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW6" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
@@ -1688,20 +1688,20 @@
         <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BG6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -1732,58 +1732,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
         <v>1.76</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
         <v>15</v>
@@ -1792,13 +1792,13 @@
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
@@ -1810,10 +1810,10 @@
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>16.5</v>
@@ -1822,7 +1822,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
         <v>32</v>
@@ -1834,10 +1834,10 @@
         <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
@@ -1846,16 +1846,16 @@
         <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AS7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AT7" t="n">
         <v>11.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1864,38 +1864,38 @@
         <v>25</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA7" t="n">
         <v>36</v>
       </c>
       <c r="BB7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BC7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BE7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BF7" t="n">
         <v>25</v>
       </c>
       <c r="BG7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -1929,13 +1929,13 @@
         <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
@@ -1947,13 +1947,13 @@
         <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
         <v>1.75</v>
@@ -1968,19 +1968,19 @@
         <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>13.5</v>
@@ -1989,7 +1989,7 @@
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
         <v>7.8</v>
@@ -1998,10 +1998,10 @@
         <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
         <v>11.5</v>
@@ -2019,22 +2019,22 @@
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO8" t="n">
         <v>80</v>
       </c>
       <c r="AP8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
         <v>12.5</v>
@@ -2052,13 +2052,13 @@
         <v>7.2</v>
       </c>
       <c r="AV8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AW8" t="n">
         <v>50</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY8" t="n">
         <v>10</v>
@@ -2076,20 +2076,20 @@
         <v>22</v>
       </c>
       <c r="BD8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BE8" t="n">
         <v>110</v>
       </c>
       <c r="BF8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BG8" t="n">
         <v>65</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I9" t="n">
         <v>8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
         <v>6</v>
@@ -2138,43 +2138,43 @@
         <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="O9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.13</v>
       </c>
       <c r="W9" t="n">
         <v>3.4</v>
       </c>
       <c r="X9" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="n">
         <v>42</v>
@@ -2183,13 +2183,13 @@
         <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>29</v>
@@ -2198,22 +2198,22 @@
         <v>85</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>25</v>
@@ -2222,10 +2222,10 @@
         <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AP9" t="n">
         <v>36</v>
@@ -2237,22 +2237,22 @@
         <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AT9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AU9" t="n">
         <v>13.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AY9" t="n">
         <v>10</v>
@@ -2261,13 +2261,13 @@
         <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BD9" t="n">
         <v>24</v>
@@ -2276,14 +2276,14 @@
         <v>60</v>
       </c>
       <c r="BF9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BG9" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.65</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.66</v>
       </c>
       <c r="H10" t="n">
         <v>5.9</v>
@@ -2338,40 +2338,40 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
         <v>2.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="X10" t="n">
         <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
         <v>48</v>
@@ -2380,10 +2380,10 @@
         <v>150</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
         <v>22</v>
@@ -2413,19 +2413,19 @@
         <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
         <v>7.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>42</v>
@@ -2434,25 +2434,25 @@
         <v>85</v>
       </c>
       <c r="AT10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>60</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AY10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA10" t="n">
         <v>55</v>
@@ -2461,13 +2461,13 @@
         <v>14.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BD10" t="n">
         <v>28</v>
       </c>
       <c r="BE10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BF10" t="n">
         <v>7.4</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -2508,16 +2508,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="G11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="I11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
         <v>5.4</v>
@@ -2538,140 +2538,140 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
         <v>1.98</v>
       </c>
       <c r="U11" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="W11" t="n">
         <v>1.11</v>
       </c>
       <c r="X11" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AG11" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AH11" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AK11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="n">
-        <v>520</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO11" t="n">
         <v>5.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AR11" t="n">
         <v>7.8</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AT11" t="n">
         <v>20</v>
       </c>
       <c r="AU11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC11" t="n">
         <v>21</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BD11" t="n">
         <v>20</v>
       </c>
-      <c r="BB11" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BE11" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BF11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BG11" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -2702,10 +2702,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2714,158 +2714,158 @@
         <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
         <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN12" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AO12" t="n">
+        <v>270</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT12" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AH12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AU12" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV12" t="n">
         <v>16</v>
       </c>
       <c r="AW12" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="BB12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BC12" t="n">
         <v>16.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BE12" t="n">
-        <v>48</v>
+        <v>15.5</v>
       </c>
       <c r="BF12" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="BG12" t="n">
         <v>38</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -2902,10 +2902,10 @@
         <v>1.72</v>
       </c>
       <c r="H13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
@@ -2920,22 +2920,22 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
         <v>1.99</v>
@@ -2944,7 +2944,7 @@
         <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
         <v>2.38</v>
@@ -2974,7 +2974,7 @@
         <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -2989,10 +2989,10 @@
         <v>16.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>130</v>
@@ -3007,19 +3007,19 @@
         <v>13.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AR13" t="n">
         <v>40</v>
       </c>
       <c r="AS13" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -3028,19 +3028,19 @@
         <v>70</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY13" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
         <v>70</v>
       </c>
       <c r="BB13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BC13" t="n">
         <v>17</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -3090,16 +3090,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
@@ -3114,106 +3114,106 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK14" t="n">
         <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS14" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AT14" t="n">
         <v>10.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV14" t="n">
         <v>12.5</v>
@@ -3234,16 +3234,16 @@
         <v>36</v>
       </c>
       <c r="BB14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BC14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BE14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BF14" t="n">
         <v>17</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -3284,16 +3284,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.65</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.66</v>
-      </c>
       <c r="H15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J15" t="n">
         <v>4.6</v>
@@ -3302,31 +3302,31 @@
         <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
@@ -3335,28 +3335,28 @@
         <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
         <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="n">
         <v>150</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>70</v>
@@ -3368,22 +3368,22 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
         <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN15" t="n">
         <v>7.8</v>
@@ -3392,10 +3392,10 @@
         <v>75</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>40</v>
@@ -3404,19 +3404,19 @@
         <v>110</v>
       </c>
       <c r="AT15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AW15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AX15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>9.6</v>
@@ -3434,20 +3434,20 @@
         <v>15</v>
       </c>
       <c r="BD15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BE15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BF15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BG15" t="n">
         <v>60</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -3484,16 +3484,16 @@
         <v>1.58</v>
       </c>
       <c r="H16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I16" t="n">
         <v>7</v>
       </c>
-      <c r="I16" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.39</v>
@@ -3511,7 +3511,7 @@
         <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
         <v>1.43</v>
@@ -3520,10 +3520,10 @@
         <v>3.2</v>
       </c>
       <c r="T16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.98</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.97</v>
       </c>
       <c r="V16" t="n">
         <v>1.16</v>
@@ -3535,40 +3535,40 @@
         <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA16" t="n">
         <v>210</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
         <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
         <v>90</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK16" t="n">
         <v>16</v>
@@ -3598,28 +3598,28 @@
         <v>110</v>
       </c>
       <c r="AT16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AX16" t="n">
         <v>8.6</v>
       </c>
       <c r="AY16" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ16" t="n">
         <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB16" t="n">
         <v>13</v>
@@ -3637,11 +3637,11 @@
         <v>7.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G17" t="n">
         <v>1.25</v>
@@ -3684,10 +3684,10 @@
         <v>16.5</v>
       </c>
       <c r="J17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.25</v>
@@ -3696,28 +3696,28 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R17" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T17" t="n">
         <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V17" t="n">
         <v>1.06</v>
@@ -3726,31 +3726,31 @@
         <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="n">
         <v>60</v>
       </c>
       <c r="Z17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="n">
         <v>700</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE17" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -3759,64 +3759,64 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.6</v>
       </c>
       <c r="AK17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
         <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AP17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
         <v>46</v>
       </c>
       <c r="AR17" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AS17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
         <v>10.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV17" t="n">
         <v>44</v>
       </c>
       <c r="AW17" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY17" t="n">
         <v>10.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>18.5</v>
+        <v>75</v>
       </c>
       <c r="BB17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC17" t="n">
         <v>12</v>
@@ -3825,17 +3825,17 @@
         <v>30</v>
       </c>
       <c r="BE17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BG17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.18</v>
       </c>
-      <c r="G18" t="n">
-        <v>2.22</v>
-      </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.45</v>
@@ -3896,7 +3896,7 @@
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
         <v>2.1</v>
@@ -3908,22 +3908,22 @@
         <v>3.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
         <v>27</v>
@@ -3938,10 +3938,10 @@
         <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
@@ -3950,16 +3950,16 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>40</v>
@@ -3968,25 +3968,25 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP18" t="n">
         <v>12</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AT18" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AU18" t="n">
         <v>7.2</v>
@@ -4001,35 +4001,35 @@
         <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BB18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
       </c>
       <c r="BD18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BE18" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="BF18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BG18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -4066,16 +4066,16 @@
         <v>1.17</v>
       </c>
       <c r="H19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" t="n">
         <v>26</v>
       </c>
       <c r="J19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
@@ -4090,10 +4090,10 @@
         <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
         <v>1.66</v>
@@ -4105,7 +4105,7 @@
         <v>2.68</v>
       </c>
       <c r="U19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V19" t="n">
         <v>1.04</v>
@@ -4120,7 +4120,7 @@
         <v>65</v>
       </c>
       <c r="Z19" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -4129,7 +4129,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD19" t="n">
         <v>90</v>
@@ -4138,19 +4138,19 @@
         <v>500</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>330</v>
       </c>
       <c r="AI19" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -4159,19 +4159,19 @@
         <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AR19" t="n">
         <v>50</v>
@@ -4180,16 +4180,16 @@
         <v>60</v>
       </c>
       <c r="AT19" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AX19" t="n">
         <v>6.2</v>
@@ -4198,32 +4198,32 @@
         <v>12</v>
       </c>
       <c r="AZ19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BA19" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
       <c r="BB19" t="n">
         <v>7</v>
       </c>
       <c r="BC19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="BE19" t="n">
         <v>160</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="BG19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -4254,22 +4254,22 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.32</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.33</v>
       </c>
       <c r="H20" t="n">
         <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K20" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -4278,7 +4278,7 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
@@ -4287,28 +4287,28 @@
         <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
         <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T20" t="n">
         <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
         <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X20" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="n">
         <v>44</v>
@@ -4317,16 +4317,16 @@
         <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="AB20" t="n">
         <v>9.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="n">
         <v>190</v>
@@ -4353,28 +4353,28 @@
         <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
         <v>4.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>29</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AU20" t="n">
         <v>12.5</v>
@@ -4383,7 +4383,7 @@
         <v>36</v>
       </c>
       <c r="AW20" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AX20" t="n">
         <v>7.6</v>
@@ -4392,13 +4392,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="BB20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BC20" t="n">
         <v>12.5</v>
@@ -4407,17 +4407,17 @@
         <v>32</v>
       </c>
       <c r="BE20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BG20" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -4448,28 +4448,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H21" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
         <v>1.51</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
         <v>3.15</v>
@@ -4490,43 +4490,43 @@
         <v>4.6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
         <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X21" t="n">
         <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="n">
         <v>7.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -4535,25 +4535,25 @@
         <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AJ21" t="n">
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
         <v>18</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AP21" t="n">
         <v>9.4</v>
@@ -4562,19 +4562,19 @@
         <v>13.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AS21" t="n">
         <v>42</v>
       </c>
       <c r="AT21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AW21" t="n">
         <v>42</v>
@@ -4583,7 +4583,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ21" t="n">
         <v>20</v>
@@ -4592,13 +4592,13 @@
         <v>60</v>
       </c>
       <c r="BB21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC21" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="BE21" t="n">
         <v>90</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -4645,10 +4645,10 @@
         <v>3.6</v>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I22" t="n">
         <v>2.58</v>
@@ -4657,7 +4657,7 @@
         <v>2.96</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L22" t="n">
         <v>1.66</v>
@@ -4666,10 +4666,10 @@
         <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P22" t="n">
         <v>1.47</v>
@@ -4681,10 +4681,10 @@
         <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U22" t="n">
         <v>1.72</v>
@@ -4693,19 +4693,19 @@
         <v>1.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
         <v>9.199999999999999</v>
@@ -4717,7 +4717,7 @@
         <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
         <v>22</v>
@@ -4729,25 +4729,25 @@
         <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
         <v>500</v>
       </c>
       <c r="AM22" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="n">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="AO22" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="AP22" t="n">
         <v>6.8</v>
@@ -4765,28 +4765,28 @@
         <v>8.6</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
       </c>
       <c r="AW22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AX22" t="n">
         <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="BB22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BC22" t="n">
         <v>55</v>
@@ -4798,14 +4798,14 @@
         <v>70</v>
       </c>
       <c r="BF22" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="BG22" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="H23" t="n">
         <v>6.4</v>
       </c>
       <c r="I23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L23" t="n">
         <v>1.63</v>
@@ -4869,7 +4869,7 @@
         <v>1.49</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="R23" t="n">
         <v>1.17</v>
@@ -4878,22 +4878,22 @@
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="U23" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="V23" t="n">
         <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -4908,13 +4908,13 @@
         <v>14</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
@@ -4938,7 +4938,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -4947,28 +4947,28 @@
         <v>6.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AR23" t="n">
-        <v>7.6</v>
+        <v>19.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
         <v>14.5</v>
       </c>
       <c r="AW23" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="AY23" t="n">
         <v>7</v>
@@ -4977,29 +4977,29 @@
         <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BB23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC23" t="n">
-        <v>6.6</v>
+        <v>12.5</v>
       </c>
       <c r="BD23" t="n">
-        <v>4.6</v>
+        <v>11.5</v>
       </c>
       <c r="BE23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BF23" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG23" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -5030,103 +5030,103 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="G24" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M24" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="O24" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="P24" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
         <v>1.16</v>
       </c>
       <c r="S24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U24" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V24" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA24" t="n">
         <v>500</v>
       </c>
-      <c r="AA24" t="n">
-        <v>900</v>
-      </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AK24" t="n">
         <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
@@ -5138,28 +5138,28 @@
         <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="AQ24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU24" t="n">
         <v>5.9</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AV24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW24" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>28</v>
       </c>
       <c r="AX24" t="n">
         <v>8.4</v>
@@ -5168,32 +5168,32 @@
         <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="BA24" t="n">
-        <v>29</v>
+        <v>6.4</v>
       </c>
       <c r="BB24" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="BC24" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="BD24" t="n">
-        <v>5.4</v>
+        <v>28</v>
       </c>
       <c r="BE24" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="BF24" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="BG24" t="n">
-        <v>19.5</v>
+        <v>3.9</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
         <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>3.25</v>
@@ -5251,7 +5251,7 @@
         <v>3.15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P25" t="n">
         <v>1.68</v>
@@ -5275,7 +5275,7 @@
         <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -5290,7 +5290,7 @@
         <v>500</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>9.4</v>
       </c>
       <c r="AC25" t="n">
         <v>9.6</v>
@@ -5326,28 +5326,28 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AR25" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
         <v>10</v>
@@ -5356,7 +5356,7 @@
         <v>36</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>10.5</v>
@@ -5365,29 +5365,29 @@
         <v>12</v>
       </c>
       <c r="BA25" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="BB25" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="BC25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE25" t="n">
         <v>13</v>
       </c>
       <c r="BF25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BG25" t="n">
         <v>11</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="G26" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.75</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -5442,7 +5442,7 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O26" t="n">
         <v>1.35</v>
@@ -5451,46 +5451,46 @@
         <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
         <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U26" t="n">
         <v>2.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA26" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>60</v>
@@ -5499,19 +5499,19 @@
         <v>11.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
         <v>19.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK26" t="n">
         <v>22</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>40</v>
@@ -5520,52 +5520,52 @@
         <v>120</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AR26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AT26" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU26" t="n">
         <v>7.6</v>
       </c>
       <c r="AV26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
         <v>60</v>
       </c>
       <c r="BB26" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC26" t="n">
         <v>20</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>36</v>
@@ -5574,14 +5574,14 @@
         <v>95</v>
       </c>
       <c r="BF26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BG26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H27" t="n">
         <v>4.1</v>
@@ -5627,7 +5627,7 @@
         <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
         <v>1.54</v>
@@ -5657,13 +5657,13 @@
         <v>2.08</v>
       </c>
       <c r="U27" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V27" t="n">
         <v>1.28</v>
       </c>
       <c r="W27" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X27" t="n">
         <v>12.5</v>
@@ -5726,10 +5726,10 @@
         <v>10.5</v>
       </c>
       <c r="AR27" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT27" t="n">
         <v>6.6</v>
@@ -5738,10 +5738,10 @@
         <v>6.6</v>
       </c>
       <c r="AV27" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AX27" t="n">
         <v>10.5</v>
@@ -5753,29 +5753,29 @@
         <v>20</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="BB27" t="n">
-        <v>7.8</v>
+        <v>18.5</v>
       </c>
       <c r="BC27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BD27" t="n">
         <v>11</v>
       </c>
-      <c r="BD27" t="n">
+      <c r="BE27" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>9.4</v>
       </c>
       <c r="BF27" t="n">
         <v>7.8</v>
       </c>
       <c r="BG27" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G28" t="n">
         <v>1.54</v>
@@ -5815,7 +5815,7 @@
         <v>8.6</v>
       </c>
       <c r="I28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J28" t="n">
         <v>4.2</v>
@@ -5830,13 +5830,13 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q28" t="n">
         <v>2.26</v>
@@ -5857,7 +5857,7 @@
         <v>1.12</v>
       </c>
       <c r="W28" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="X28" t="n">
         <v>11.5</v>
@@ -5866,22 +5866,22 @@
         <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AB28" t="n">
         <v>6.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
         <v>34</v>
       </c>
       <c r="AE28" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
         <v>7.4</v>
@@ -5890,16 +5890,16 @@
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AJ28" t="n">
         <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
@@ -5911,16 +5911,16 @@
         <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="AP28" t="n">
         <v>10.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AR28" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AS28" t="n">
         <v>70</v>
@@ -5929,10 +5929,10 @@
         <v>5.9</v>
       </c>
       <c r="AU28" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW28" t="n">
         <v>60</v>
@@ -5944,7 +5944,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA28" t="n">
         <v>60</v>
@@ -5953,10 +5953,10 @@
         <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BD28" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BE28" t="n">
         <v>70</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
         <v>2.44</v>
@@ -6015,7 +6015,7 @@
         <v>2.76</v>
       </c>
       <c r="K29" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="L29" t="n">
         <v>1.89</v>
@@ -6024,7 +6024,7 @@
         <v>1.24</v>
       </c>
       <c r="N29" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O29" t="n">
         <v>2.06</v>
@@ -6045,13 +6045,13 @@
         <v>2.98</v>
       </c>
       <c r="U29" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="V29" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W29" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X29" t="n">
         <v>5.4</v>
@@ -6069,10 +6069,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>110</v>
@@ -6105,31 +6105,31 @@
         <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="AP29" t="n">
         <v>4.9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AR29" t="n">
         <v>11.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AT29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AV29" t="n">
         <v>14.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AX29" t="n">
         <v>23</v>
@@ -6138,10 +6138,10 @@
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BA29" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="BB29" t="n">
         <v>40</v>
@@ -6153,17 +6153,17 @@
         <v>48</v>
       </c>
       <c r="BE29" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="BF29" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="BG29" t="n">
         <v>32</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -6308,10 +6308,10 @@
         <v>10.5</v>
       </c>
       <c r="AR30" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="AT30" t="n">
         <v>7.2</v>
@@ -6323,41 +6323,41 @@
         <v>8.4</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.4</v>
+        <v>10.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AY30" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ30" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BA30" t="n">
-        <v>3.55</v>
+        <v>6.8</v>
       </c>
       <c r="BB30" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="BD30" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="BE30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="BF30" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="BG30" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -6388,16 +6388,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G31" t="n">
         <v>2.74</v>
       </c>
       <c r="H31" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J31" t="n">
         <v>3.3</v>
@@ -6415,7 +6415,7 @@
         <v>3.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P31" t="n">
         <v>1.93</v>
@@ -6427,16 +6427,16 @@
         <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T31" t="n">
         <v>1.71</v>
       </c>
       <c r="U31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V31" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W31" t="n">
         <v>1.58</v>
@@ -6511,7 +6511,7 @@
         <v>9.4</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>11</v>
@@ -6535,23 +6535,23 @@
         <v>14.5</v>
       </c>
       <c r="BC31" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="BD31" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="BE31" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF31" t="n">
         <v>18</v>
       </c>
       <c r="BG31" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -6645,10 +6645,10 @@
         <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AB32" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AC32" t="n">
         <v>14</v>
@@ -6660,10 +6660,10 @@
         <v>500</v>
       </c>
       <c r="AF32" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AG32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
         <v>980</v>
@@ -6690,52 +6690,52 @@
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>6.8</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>6</v>
       </c>
       <c r="AR32" t="n">
         <v>6.4</v>
       </c>
       <c r="AS32" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AT32" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="AU32" t="n">
         <v>6.6</v>
       </c>
       <c r="AV32" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AW32" t="n">
         <v>14.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="AY32" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AZ32" t="n">
         <v>11.5</v>
       </c>
       <c r="BA32" t="n">
-        <v>3.05</v>
+        <v>11.5</v>
       </c>
       <c r="BB32" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="BC32" t="n">
-        <v>13.5</v>
+        <v>2.72</v>
       </c>
       <c r="BD32" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="BE32" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="BF32" t="n">
         <v>11</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -6776,13 +6776,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G33" t="n">
         <v>1.52</v>
       </c>
       <c r="H33" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
         <v>10.5</v>
@@ -6791,155 +6791,155 @@
         <v>4.2</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P33" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R33" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
         <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="n">
         <v>980</v>
       </c>
       <c r="Z33" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AC33" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
         <v>980</v>
       </c>
       <c r="AE33" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AG33" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
         <v>980</v>
       </c>
       <c r="AI33" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AJ33" t="n">
         <v>980</v>
       </c>
       <c r="AK33" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AL33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AS33" t="n">
         <v>7</v>
       </c>
-      <c r="AQ33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AT33" t="n">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="AU33" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="AV33" t="n">
-        <v>3.85</v>
+        <v>34</v>
       </c>
       <c r="AW33" t="n">
-        <v>1.94</v>
+        <v>6.8</v>
       </c>
       <c r="AX33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA33" t="n">
         <v>6.8</v>
       </c>
-      <c r="AY33" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>1.94</v>
-      </c>
       <c r="BB33" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="BC33" t="n">
-        <v>15.5</v>
+        <v>5.4</v>
       </c>
       <c r="BD33" t="n">
-        <v>9.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="BE33" t="n">
-        <v>1.94</v>
+        <v>6.8</v>
       </c>
       <c r="BF33" t="n">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="BG33" t="n">
-        <v>1.57</v>
+        <v>7</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>
@@ -6970,55 +6970,55 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="G34" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H34" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="I34" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="J34" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K34" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R34" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="T34" t="n">
         <v>2.16</v>
       </c>
       <c r="U34" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W34" t="n">
         <v>3.6</v>
@@ -7048,7 +7048,7 @@
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG34" t="n">
         <v>1000</v>
@@ -7078,62 +7078,62 @@
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AQ34" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AR34" t="n">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>6.6</v>
+        <v>2.02</v>
       </c>
       <c r="AT34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AX34" t="n">
         <v>3.9</v>
       </c>
-      <c r="AU34" t="n">
+      <c r="AY34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BF34" t="n">
         <v>4.7</v>
       </c>
-      <c r="AV34" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>5</v>
-      </c>
       <c r="BG34" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-26 08:13:21</t>
+          <t>2026-02-26 10:35:37</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-26.xlsx
@@ -748,7 +748,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:32:47</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -762,170 +762,170 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>2.14</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK2" t="n">
         <v>28</v>
       </c>
-      <c r="Z2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>430</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN2" t="n">
         <v>32</v>
       </c>
-      <c r="AL2" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>15</v>
-      </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="AP2" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AR2" t="n">
-        <v>7.6</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.7</v>
+        <v>90</v>
       </c>
       <c r="AT2" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="AX2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY2" t="n">
         <v>9.6</v>
       </c>
-      <c r="AY2" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>9.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.7</v>
+        <v>80</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="BC2" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>150</v>
+      </c>
+      <c r="BF2" t="n">
         <v>20</v>
       </c>
-      <c r="BE2" t="n">
-        <v>28</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BG2" t="n">
-        <v>8.800000000000001</v>
+        <v>85</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -956,115 +956,115 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.56</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.57</v>
-      </c>
       <c r="H3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
         <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL3" t="n">
         <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
         <v>530</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>25</v>
@@ -1073,53 +1073,53 @@
         <v>50</v>
       </c>
       <c r="AS3" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AT3" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>65</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>65</v>
       </c>
       <c r="BB3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>14</v>
       </c>
       <c r="BD3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BE3" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BG3" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
         <v>3.45</v>
@@ -1168,7 +1168,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1177,10 +1177,10 @@
         <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q4" t="n">
         <v>2.04</v>
@@ -1189,22 +1189,22 @@
         <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
         <v>12.5</v>
@@ -1213,49 +1213,49 @@
         <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
         <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO4" t="n">
         <v>42</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>40</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
@@ -1264,56 +1264,56 @@
         <v>11.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV4" t="n">
         <v>12.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BB4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
       </c>
       <c r="BD4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BE4" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="BF4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BG4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -1347,16 +1347,16 @@
         <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
@@ -1368,49 +1368,49 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
         <v>2.26</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="n">
         <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
@@ -1419,7 +1419,7 @@
         <v>44</v>
       </c>
       <c r="AE5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF5" t="n">
         <v>7.4</v>
@@ -1431,7 +1431,7 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.800000000000001</v>
@@ -1440,74 +1440,74 @@
         <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AP5" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>30</v>
       </c>
       <c r="AR5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AT5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AW5" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
         <v>36</v>
       </c>
       <c r="BB5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BD5" t="n">
         <v>36</v>
       </c>
       <c r="BE5" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BG5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -1538,19 +1538,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
         <v>5.8</v>
@@ -1559,43 +1559,43 @@
         <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.63</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.61</v>
-      </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
         <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="n">
         <v>95</v>
@@ -1604,31 +1604,31 @@
         <v>380</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
         <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK6" t="n">
         <v>13.5</v>
@@ -1640,25 +1640,25 @@
         <v>430</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS6" t="n">
         <v>30</v>
       </c>
-      <c r="AR6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>20</v>
-      </c>
       <c r="AT6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU6" t="n">
         <v>11.5</v>
@@ -1667,31 +1667,31 @@
         <v>30</v>
       </c>
       <c r="AW6" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AY6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA6" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BC6" t="n">
         <v>12.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BE6" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="BF6" t="n">
         <v>4.7</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -1732,112 +1732,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>16</v>
       </c>
       <c r="AA7" t="n">
         <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>38</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN7" t="n">
         <v>32</v>
       </c>
-      <c r="AL7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>28</v>
-      </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
@@ -1846,37 +1846,37 @@
         <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AT7" t="n">
         <v>11.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AW7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BB7" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BC7" t="n">
         <v>30</v>
@@ -1885,17 +1885,17 @@
         <v>38</v>
       </c>
       <c r="BE7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BF7" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BG7" t="n">
         <v>20</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>4.2</v>
@@ -1938,61 +1938,61 @@
         <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
         <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
         <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
         <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
         <v>7.6</v>
@@ -2016,25 +2016,25 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
         <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>80</v>
       </c>
       <c r="AP8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ8" t="n">
         <v>12.5</v>
@@ -2046,7 +2046,7 @@
         <v>85</v>
       </c>
       <c r="AT8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU8" t="n">
         <v>7.2</v>
@@ -2058,13 +2058,13 @@
         <v>50</v>
       </c>
       <c r="AX8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA8" t="n">
         <v>60</v>
@@ -2073,10 +2073,10 @@
         <v>23</v>
       </c>
       <c r="BC8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BE8" t="n">
         <v>110</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -2120,13 +2120,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
         <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I9" t="n">
         <v>8</v>
@@ -2138,34 +2138,34 @@
         <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O9" t="n">
         <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.97</v>
       </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
         <v>1.14</v>
@@ -2177,31 +2177,31 @@
         <v>42</v>
       </c>
       <c r="Y9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC9" t="n">
         <v>15</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
@@ -2210,7 +2210,7 @@
         <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2222,40 +2222,40 @@
         <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP9" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AQ9" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AR9" t="n">
         <v>65</v>
       </c>
       <c r="AS9" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AT9" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>70</v>
       </c>
       <c r="AX9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY9" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>10</v>
       </c>
       <c r="AZ9" t="n">
         <v>20</v>
@@ -2264,26 +2264,26 @@
         <v>55</v>
       </c>
       <c r="BB9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
         <v>12.5</v>
       </c>
       <c r="BD9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BE9" t="n">
         <v>60</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="BG9" t="n">
         <v>55</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -2314,112 +2314,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
         <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
         <v>7.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AP10" t="n">
         <v>18.5</v>
@@ -2428,56 +2428,56 @@
         <v>21</v>
       </c>
       <c r="AR10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AS10" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AT10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AX10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY10" t="n">
         <v>9.4</v>
       </c>
-      <c r="AY10" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB10" t="n">
         <v>14.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BD10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BE10" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BF10" t="n">
         <v>7.4</v>
       </c>
       <c r="BG10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
@@ -2517,13 +2517,13 @@
         <v>1.38</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.33</v>
@@ -2532,7 +2532,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -2541,22 +2541,22 @@
         <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W11" t="n">
         <v>1.11</v>
@@ -2568,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA11" t="n">
         <v>11.5</v>
@@ -2583,10 +2583,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AG11" t="n">
         <v>36</v>
@@ -2598,19 +2598,19 @@
         <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AK11" t="n">
         <v>150</v>
       </c>
       <c r="AL11" t="n">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AO11" t="n">
         <v>5.8</v>
@@ -2619,7 +2619,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AR11" t="n">
         <v>7.8</v>
@@ -2628,25 +2628,25 @@
         <v>10.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AY11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
@@ -2658,20 +2658,20 @@
         <v>21</v>
       </c>
       <c r="BD11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BE11" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="BF11" t="n">
         <v>20</v>
       </c>
       <c r="BG11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -2702,82 +2702,82 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
         <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
         <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="n">
         <v>13</v>
@@ -2789,34 +2789,34 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
         <v>10.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
         <v>17.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AS12" t="n">
         <v>60</v>
@@ -2825,25 +2825,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>16</v>
       </c>
       <c r="AW12" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AX12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BB12" t="n">
         <v>19.5</v>
@@ -2852,20 +2852,20 @@
         <v>16.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BE12" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="BF12" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="BG12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -2896,16 +2896,16 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.71</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.72</v>
-      </c>
       <c r="H13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
@@ -2914,22 +2914,22 @@
         <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
         <v>1.36</v>
@@ -2938,16 +2938,16 @@
         <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
         <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X13" t="n">
         <v>14.5</v>
@@ -2959,7 +2959,7 @@
         <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="n">
         <v>7.8</v>
@@ -2971,10 +2971,10 @@
         <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -2983,16 +2983,16 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK13" t="n">
         <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
         <v>130</v>
@@ -3007,13 +3007,13 @@
         <v>13.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR13" t="n">
         <v>40</v>
       </c>
       <c r="AS13" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AT13" t="n">
         <v>7.6</v>
@@ -3022,25 +3022,25 @@
         <v>8.6</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>70</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>70</v>
       </c>
       <c r="BB13" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="BC13" t="n">
         <v>17</v>
@@ -3055,11 +3055,11 @@
         <v>10</v>
       </c>
       <c r="BG13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -3090,76 +3090,76 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.15</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.65</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.7</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.3</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="U14" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
         <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>13</v>
@@ -3168,92 +3168,92 @@
         <v>32</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL14" t="n">
         <v>40</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO14" t="n">
         <v>34</v>
       </c>
-      <c r="AM14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>28</v>
-      </c>
       <c r="AP14" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
         <v>48</v>
       </c>
       <c r="AT14" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AV14" t="n">
         <v>12.5</v>
       </c>
       <c r="AW14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>32</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD14" t="n">
         <v>36</v>
       </c>
-      <c r="BB14" t="n">
-        <v>30</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>22</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>30</v>
-      </c>
       <c r="BE14" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BF14" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -3284,16 +3284,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.64</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.65</v>
-      </c>
       <c r="H15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J15" t="n">
         <v>4.6</v>
@@ -3317,7 +3317,7 @@
         <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
         <v>1.53</v>
@@ -3326,16 +3326,16 @@
         <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
@@ -3380,19 +3380,19 @@
         <v>15.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO15" t="n">
         <v>75</v>
       </c>
       <c r="AP15" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3401,7 +3401,7 @@
         <v>40</v>
       </c>
       <c r="AS15" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AT15" t="n">
         <v>9.6</v>
@@ -3413,10 +3413,10 @@
         <v>21</v>
       </c>
       <c r="AW15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY15" t="n">
         <v>9.6</v>
@@ -3428,10 +3428,10 @@
         <v>55</v>
       </c>
       <c r="BB15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BC15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BD15" t="n">
         <v>27</v>
@@ -3440,14 +3440,14 @@
         <v>80</v>
       </c>
       <c r="BF15" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="BG15" t="n">
         <v>60</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -3484,10 +3484,10 @@
         <v>1.58</v>
       </c>
       <c r="H16" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
         <v>4.5</v>
@@ -3499,7 +3499,7 @@
         <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>4.3</v>
@@ -3517,22 +3517,22 @@
         <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
         <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
         <v>22</v>
@@ -3547,19 +3547,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
         <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH16" t="n">
         <v>23</v>
@@ -3583,10 +3583,10 @@
         <v>8</v>
       </c>
       <c r="AO16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AP16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3595,22 +3595,22 @@
         <v>50</v>
       </c>
       <c r="AS16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AT16" t="n">
         <v>8.6</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW16" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AY16" t="n">
         <v>9.4</v>
@@ -3622,7 +3622,7 @@
         <v>75</v>
       </c>
       <c r="BB16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3637,11 +3637,11 @@
         <v>7.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -3675,13 +3675,13 @@
         <v>1.23</v>
       </c>
       <c r="G17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J17" t="n">
         <v>7.6</v>
@@ -3690,7 +3690,7 @@
         <v>7.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3705,103 +3705,103 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
         <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V17" t="n">
         <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="n">
         <v>60</v>
       </c>
       <c r="Z17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AA17" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD17" t="n">
         <v>55</v>
       </c>
       <c r="AE17" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>520</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.6</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ17" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AR17" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AU17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AV17" t="n">
         <v>44</v>
       </c>
       <c r="AW17" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AX17" t="n">
         <v>8.199999999999999</v>
@@ -3813,29 +3813,29 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BC17" t="n">
         <v>12</v>
       </c>
       <c r="BD17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BE17" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="BF17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BG17" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -3866,16 +3866,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -3884,40 +3884,40 @@
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.1</v>
       </c>
-      <c r="R18" t="n">
+      <c r="V18" t="n">
         <v>1.33</v>
       </c>
-      <c r="S18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.32</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X18" t="n">
         <v>13.5</v>
@@ -3935,22 +3935,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>60</v>
@@ -3959,7 +3959,7 @@
         <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>40</v>
@@ -3968,25 +3968,25 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
       </c>
       <c r="AS18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AU18" t="n">
         <v>7.2</v>
@@ -3995,41 +3995,41 @@
         <v>14</v>
       </c>
       <c r="AW18" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AX18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA18" t="n">
         <v>50</v>
       </c>
       <c r="BB18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BE18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BF18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BG18" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -4060,67 +4060,67 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="G19" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J19" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T19" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="U19" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W19" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="X19" t="n">
         <v>34</v>
       </c>
       <c r="Y19" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -4129,101 +4129,101 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD19" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AE19" t="n">
         <v>500</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="n">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AR19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AS19" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AT19" t="n">
         <v>8.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AW19" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AY19" t="n">
         <v>12</v>
       </c>
       <c r="AZ19" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="BA19" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="BB19" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BC19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="BE19" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="BG19" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -4263,43 +4263,43 @@
         <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
         <v>6.2</v>
       </c>
       <c r="K20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R20" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V20" t="n">
         <v>1.08</v>
@@ -4308,7 +4308,7 @@
         <v>4.1</v>
       </c>
       <c r="X20" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="Y20" t="n">
         <v>44</v>
@@ -4317,7 +4317,7 @@
         <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="AB20" t="n">
         <v>9.6</v>
@@ -4326,37 +4326,37 @@
         <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE20" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK20" t="n">
         <v>13.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO20" t="n">
         <v>290</v>
@@ -4365,16 +4365,16 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AR20" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AS20" t="n">
-        <v>18.5</v>
+        <v>210</v>
       </c>
       <c r="AT20" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
         <v>12.5</v>
@@ -4383,7 +4383,7 @@
         <v>36</v>
       </c>
       <c r="AW20" t="n">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="AX20" t="n">
         <v>7.6</v>
@@ -4398,7 +4398,7 @@
         <v>29</v>
       </c>
       <c r="BB20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC20" t="n">
         <v>12.5</v>
@@ -4407,17 +4407,17 @@
         <v>32</v>
       </c>
       <c r="BE20" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BG20" t="n">
         <v>22</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -4448,34 +4448,34 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.9</v>
       </c>
-      <c r="G21" t="n">
-        <v>1.94</v>
-      </c>
       <c r="H21" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.51</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
         <v>3.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
         <v>1.71</v>
@@ -4487,40 +4487,40 @@
         <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
         <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X21" t="n">
         <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
         <v>40</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>90</v>
@@ -4529,16 +4529,16 @@
         <v>10</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -4550,16 +4550,16 @@
         <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AP21" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AR21" t="n">
         <v>32</v>
@@ -4568,50 +4568,50 @@
         <v>42</v>
       </c>
       <c r="AT21" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AX21" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AY21" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ21" t="n">
         <v>20</v>
       </c>
       <c r="BA21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB21" t="n">
         <v>19</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>40</v>
       </c>
       <c r="BE21" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="BF21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BG21" t="n">
         <v>48</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -4642,16 +4642,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
         <v>2.52</v>
       </c>
       <c r="I22" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J22" t="n">
         <v>2.96</v>
@@ -4660,13 +4660,13 @@
         <v>2.98</v>
       </c>
       <c r="L22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M22" t="n">
         <v>1.15</v>
       </c>
       <c r="N22" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O22" t="n">
         <v>1.65</v>
@@ -4690,7 +4690,7 @@
         <v>1.72</v>
       </c>
       <c r="V22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W22" t="n">
         <v>1.37</v>
@@ -4705,13 +4705,13 @@
         <v>13.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD22" t="n">
         <v>13</v>
@@ -4726,10 +4726,10 @@
         <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
         <v>80</v>
@@ -4738,13 +4738,13 @@
         <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AM22" t="n">
         <v>240</v>
       </c>
       <c r="AN22" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO22" t="n">
         <v>48</v>
@@ -4774,7 +4774,7 @@
         <v>36</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>15.5</v>
@@ -4786,26 +4786,26 @@
         <v>46</v>
       </c>
       <c r="BB22" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC22" t="n">
         <v>50</v>
       </c>
-      <c r="BC22" t="n">
-        <v>55</v>
-      </c>
       <c r="BD22" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BE22" t="n">
+        <v>160</v>
+      </c>
+      <c r="BF22" t="n">
         <v>70</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>55</v>
       </c>
       <c r="BG22" t="n">
         <v>40</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -4836,170 +4836,170 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="H23" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O23" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P23" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="R23" t="n">
         <v>1.17</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="T23" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="U23" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W23" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>8.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
         <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ23" t="n">
-        <v>900</v>
+        <v>18.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AP23" t="n">
         <v>6.8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="AR23" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AV23" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>11.5</v>
+        <v>6.2</v>
       </c>
       <c r="AX23" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="AY23" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="BA23" t="n">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="BB23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BC23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BD23" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="BE23" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF23" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="BG23" t="n">
-        <v>13.5</v>
+        <v>4.8</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -5030,40 +5030,40 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
         <v>2.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L24" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="n">
         <v>1.15</v>
       </c>
       <c r="N24" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="O24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R24" t="n">
         <v>1.16</v>
@@ -5075,43 +5075,43 @@
         <v>2.16</v>
       </c>
       <c r="U24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="X24" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AC24" t="n">
         <v>6.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH24" t="n">
         <v>500</v>
@@ -5120,13 +5120,13 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK24" t="n">
         <v>500</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AL24" t="n">
         <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>240</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
@@ -5135,22 +5135,22 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AP24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AQ24" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR24" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AS24" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AU24" t="n">
         <v>5.9</v>
@@ -5159,41 +5159,41 @@
         <v>11</v>
       </c>
       <c r="AW24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY24" t="n">
         <v>11.5</v>
       </c>
-      <c r="AX24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AY24" t="n">
+      <c r="AZ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA24" t="n">
         <v>11</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>6.4</v>
       </c>
       <c r="BB24" t="n">
         <v>19.5</v>
       </c>
       <c r="BC24" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="BD24" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="BE24" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="BF24" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="BG24" t="n">
-        <v>3.9</v>
+        <v>30</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -5227,22 +5227,22 @@
         <v>2.56</v>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
@@ -5251,7 +5251,7 @@
         <v>3.15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
         <v>1.68</v>
@@ -5269,7 +5269,7 @@
         <v>1.9</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
         <v>1.4</v>
@@ -5278,64 +5278,64 @@
         <v>1.59</v>
       </c>
       <c r="X25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF25" t="n">
         <v>22</v>
       </c>
-      <c r="Y25" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>65</v>
       </c>
-      <c r="AE25" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>170</v>
-      </c>
       <c r="AK25" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AM25" t="n">
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AP25" t="n">
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="AR25" t="n">
         <v>14.5</v>
@@ -5344,50 +5344,50 @@
         <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AU25" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AW25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BA25" t="n">
         <v>36</v>
       </c>
-      <c r="AX25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>23</v>
-      </c>
       <c r="BB25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
       </c>
       <c r="BD25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BE25" t="n">
         <v>13</v>
       </c>
       <c r="BF25" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG25" t="n">
         <v>11</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -5442,146 +5442,146 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.35</v>
       </c>
       <c r="P26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.97</v>
-      </c>
       <c r="X26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="n">
         <v>13</v>
       </c>
-      <c r="Y26" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA26" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK26" t="n">
         <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AP26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AX26" t="n">
         <v>12</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW26" t="n">
+      <c r="AY26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA26" t="n">
         <v>50</v>
       </c>
-      <c r="AX26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>60</v>
-      </c>
       <c r="BB26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BE26" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="BF26" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="BG26" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>4.1</v>
@@ -5627,7 +5627,7 @@
         <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.54</v>
@@ -5636,10 +5636,10 @@
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P27" t="n">
         <v>1.6</v>
@@ -5654,25 +5654,25 @@
         <v>4.9</v>
       </c>
       <c r="T27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
         <v>1.28</v>
       </c>
       <c r="W27" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X27" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y27" t="n">
         <v>12.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
@@ -5684,7 +5684,7 @@
         <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -5696,19 +5696,19 @@
         <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AK27" t="n">
         <v>65</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -5726,22 +5726,22 @@
         <v>10.5</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AS27" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AT27" t="n">
         <v>6.6</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV27" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
         <v>10.5</v>
@@ -5750,32 +5750,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ27" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="BA27" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="BB27" t="n">
         <v>18.5</v>
       </c>
       <c r="BC27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BD27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BE27" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="BF27" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG27" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -5806,70 +5806,70 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="G28" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="H28" t="n">
+        <v>8</v>
+      </c>
+      <c r="I28" t="n">
         <v>8.6</v>
       </c>
-      <c r="I28" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="J28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.2</v>
       </c>
-      <c r="K28" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P28" t="n">
         <v>1.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
         <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V28" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="X28" t="n">
         <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
         <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="AB28" t="n">
         <v>6.4</v>
@@ -5878,37 +5878,37 @@
         <v>9.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI28" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO28" t="n">
         <v>290</v>
@@ -5917,59 +5917,59 @@
         <v>10.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AS28" t="n">
         <v>70</v>
       </c>
       <c r="AT28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AY28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AZ28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA28" t="n">
         <v>60</v>
       </c>
       <c r="BB28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BC28" t="n">
         <v>18</v>
       </c>
       <c r="BD28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BE28" t="n">
         <v>70</v>
       </c>
       <c r="BF28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BG28" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -6000,31 +6000,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J29" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K29" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="L29" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="M29" t="n">
         <v>1.24</v>
       </c>
       <c r="N29" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="O29" t="n">
         <v>2.06</v>
@@ -6039,13 +6039,13 @@
         <v>1.09</v>
       </c>
       <c r="S29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="T29" t="n">
         <v>2.98</v>
       </c>
       <c r="U29" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="V29" t="n">
         <v>1.65</v>
@@ -6054,10 +6054,10 @@
         <v>1.31</v>
       </c>
       <c r="X29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
@@ -6069,13 +6069,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
         <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF29" t="n">
         <v>28</v>
@@ -6084,7 +6084,7 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI29" t="n">
         <v>500</v>
@@ -6105,52 +6105,52 @@
         <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AP29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AR29" t="n">
         <v>11.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AT29" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV29" t="n">
         <v>14.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ29" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>75</v>
       </c>
       <c r="BB29" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BC29" t="n">
         <v>40</v>
       </c>
       <c r="BD29" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="BE29" t="n">
         <v>130</v>
@@ -6159,11 +6159,11 @@
         <v>95</v>
       </c>
       <c r="BG29" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -6197,13 +6197,13 @@
         <v>2.28</v>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
         <v>3.3</v>
@@ -6218,10 +6218,10 @@
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
         <v>1.73</v>
@@ -6233,13 +6233,13 @@
         <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
         <v>1.37</v>
@@ -6248,46 +6248,46 @@
         <v>1.72</v>
       </c>
       <c r="X30" t="n">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z30" t="n">
         <v>500</v>
       </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA30" t="n">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF30" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -6296,68 +6296,68 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ30" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR30" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>6.8</v>
+        <v>46</v>
       </c>
       <c r="AT30" t="n">
         <v>7.2</v>
       </c>
       <c r="AU30" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AV30" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AW30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AX30" t="n">
         <v>10.5</v>
       </c>
-      <c r="AX30" t="n">
-        <v>7</v>
-      </c>
       <c r="AY30" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AZ30" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="BA30" t="n">
-        <v>6.8</v>
+        <v>44</v>
       </c>
       <c r="BB30" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>29</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BG30" t="n">
         <v>13</v>
       </c>
-      <c r="BC30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
         <v>2.44</v>
       </c>
       <c r="G31" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H31" t="n">
         <v>2.82</v>
@@ -6421,7 +6421,7 @@
         <v>1.93</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
         <v>1.36</v>
@@ -6436,7 +6436,7 @@
         <v>2.18</v>
       </c>
       <c r="V31" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W31" t="n">
         <v>1.58</v>
@@ -6451,7 +6451,7 @@
         <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB31" t="n">
         <v>12</v>
@@ -6463,7 +6463,7 @@
         <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF31" t="n">
         <v>18</v>
@@ -6475,7 +6475,7 @@
         <v>17.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ31" t="n">
         <v>38</v>
@@ -6487,7 +6487,7 @@
         <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="n">
         <v>23</v>
@@ -6508,7 +6508,7 @@
         <v>40</v>
       </c>
       <c r="AT31" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -6517,7 +6517,7 @@
         <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AX31" t="n">
         <v>14.5</v>
@@ -6529,29 +6529,29 @@
         <v>14</v>
       </c>
       <c r="BA31" t="n">
-        <v>8.800000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="BB31" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BD31" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BE31" t="n">
         <v>8.6</v>
       </c>
       <c r="BF31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BG31" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -6582,46 +6582,46 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G32" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I32" t="n">
         <v>2.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
         <v>3.25</v>
       </c>
       <c r="L32" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T32" t="n">
         <v>1.96</v>
@@ -6630,122 +6630,122 @@
         <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W32" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X32" t="n">
         <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
         <v>500</v>
       </c>
       <c r="AB32" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AG32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI32" t="n">
         <v>1000</v>
       </c>
-      <c r="AH32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>290</v>
-      </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AL32" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AM32" t="n">
         <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ32" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="AR32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV32" t="n">
         <v>6.4</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>6.6</v>
       </c>
       <c r="AW32" t="n">
         <v>14.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="AY32" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AZ32" t="n">
         <v>11.5</v>
       </c>
       <c r="BA32" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="BB32" t="n">
-        <v>2.84</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC32" t="n">
-        <v>2.72</v>
+        <v>9.4</v>
       </c>
       <c r="BD32" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="BE32" t="n">
-        <v>5.6</v>
+        <v>60</v>
       </c>
       <c r="BF32" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="BG32" t="n">
         <v>5.7</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G33" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I33" t="n">
         <v>10.5</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.46</v>
@@ -6803,22 +6803,22 @@
         <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P33" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
         <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U33" t="n">
         <v>1.67</v>
@@ -6827,119 +6827,119 @@
         <v>1.11</v>
       </c>
       <c r="W33" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="X33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AE33" t="n">
         <v>230</v>
       </c>
       <c r="AF33" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI33" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ33" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AP33" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AQ33" t="n">
-        <v>5.6</v>
+        <v>20</v>
       </c>
       <c r="AR33" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="AS33" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AT33" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="AU33" t="n">
-        <v>4.6</v>
+        <v>9</v>
       </c>
       <c r="AV33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AW33" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="AX33" t="n">
         <v>6.6</v>
       </c>
       <c r="AY33" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AZ33" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA33" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="BB33" t="n">
-        <v>4.9</v>
+        <v>11</v>
       </c>
       <c r="BC33" t="n">
-        <v>5.4</v>
+        <v>14.5</v>
       </c>
       <c r="BD33" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="BE33" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="BF33" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="BG33" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
@@ -6976,16 +6976,16 @@
         <v>1.37</v>
       </c>
       <c r="H34" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="I34" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K34" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.33</v>
@@ -7000,7 +7000,7 @@
         <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q34" t="n">
         <v>1.7</v>
@@ -7015,10 +7015,10 @@
         <v>2.16</v>
       </c>
       <c r="U34" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V34" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W34" t="n">
         <v>3.6</v>
@@ -7036,7 +7036,7 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC34" t="n">
         <v>1000</v>
@@ -7048,7 +7048,7 @@
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
         <v>1000</v>
@@ -7072,68 +7072,68 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
       </c>
       <c r="AP34" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="AQ34" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="AR34" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.02</v>
+        <v>5.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="AV34" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="AW34" t="n">
-        <v>2.02</v>
+        <v>5.2</v>
       </c>
       <c r="AX34" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="AY34" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="AZ34" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="BA34" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="BB34" t="n">
-        <v>7.4</v>
+        <v>3.75</v>
       </c>
       <c r="BC34" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="BD34" t="n">
-        <v>1.96</v>
+        <v>4.8</v>
       </c>
       <c r="BE34" t="n">
-        <v>2.02</v>
+        <v>5.2</v>
       </c>
       <c r="BF34" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="BG34" t="n">
-        <v>2.02</v>
+        <v>5.2</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-26 10:35:37</t>
+          <t>2026-02-26 13:02:44</t>
         </is>
       </c>
     </row>
